--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\samoa\DRIFTERS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Faga-alu-Bay-water-circulation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="136">
   <si>
     <t>Swell</t>
   </si>
@@ -404,9 +404,6 @@
     <t>#27,#28</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>wind</t>
   </si>
   <si>
@@ -422,13 +419,22 @@
     <t>4,5,7,8</t>
   </si>
   <si>
-    <t>wa</t>
+    <t>*only drifters D1,D3,D4,D5-D1 has some weird issue in the middle of it</t>
   </si>
   <si>
-    <t>wi</t>
+    <t>Julian(local)</t>
   </si>
   <si>
-    <t>*only drifters D1,D3,D4,D5-D1 has some weird issue in the middle of it</t>
+    <t>EndMember</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>tide</t>
   </si>
 </sst>
 </file>
@@ -710,36 +716,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -769,19 +745,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -887,12 +850,36 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -905,9 +892,18 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -921,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1032,20 +1028,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1089,7 +1079,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1101,67 +1091,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1184,6 +1159,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2020,1784 +2019,1948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9"/>
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>111</v>
-      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="D2" s="103" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="Q2" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="50">
+        <v>135</v>
+      </c>
+      <c r="C3" s="98">
         <v>1</v>
       </c>
-      <c r="C3" s="87">
+      <c r="D3" s="104">
+        <v>19</v>
+      </c>
+      <c r="E3" s="84">
         <v>41658</v>
       </c>
-      <c r="D3" s="75">
+      <c r="F3" s="73">
         <v>1300</v>
       </c>
-      <c r="E3" s="75">
+      <c r="G3" s="73">
         <v>1500</v>
       </c>
-      <c r="F3" s="13">
+      <c r="H3" s="13">
         <f>'NDBC NSTP6 timeseries data'!I4</f>
         <v>1.5389999999999999</v>
       </c>
-      <c r="G3" s="13">
+      <c r="I3" s="13">
         <f>'NDBC NSTP6 timeseries data'!I24</f>
         <v>0.97399999999999998</v>
       </c>
-      <c r="H3" s="47">
-        <f>G3-F3</f>
+      <c r="J3" s="47">
+        <f>I3-H3</f>
         <v>-0.56499999999999995</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="48">
+      <c r="L3" s="48">
         <f>'NDBC NSTP6 timeseries data'!K25</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="K3" s="49">
+      <c r="M3" s="49">
         <f>'NDBC NSTP6 timeseries data'!L25</f>
         <v>232.5</v>
       </c>
-      <c r="L3" s="48">
+      <c r="N3" s="48">
         <f>'NDBC NSTP6 timeseries data'!M25</f>
         <v>3.6</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="O3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="77" t="s">
+      <c r="P3" s="13"/>
+      <c r="Q3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="51">
-        <f>B3+1</f>
+        <v>135</v>
+      </c>
+      <c r="C4" s="99">
+        <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="88">
+      <c r="D4" s="104">
+        <v>20</v>
+      </c>
+      <c r="E4" s="85">
         <v>41659</v>
       </c>
-      <c r="D4" s="74">
+      <c r="F4" s="72">
         <v>1615</v>
       </c>
-      <c r="E4" s="74">
+      <c r="G4" s="72">
         <v>1730</v>
       </c>
-      <c r="F4" s="11">
+      <c r="H4" s="11">
         <f>'NDBC NSTP6 timeseries data'!I27</f>
         <v>1.03</v>
       </c>
-      <c r="G4" s="11">
+      <c r="I4" s="11">
         <f>'NDBC NSTP6 timeseries data'!I42</f>
         <v>1.23</v>
       </c>
-      <c r="H4" s="32">
-        <f>G4-F4</f>
+      <c r="J4" s="32">
+        <f>I4-H4</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="28">
+      <c r="L4" s="28">
         <f>'NDBC NSTP6 timeseries data'!K43</f>
         <v>2.375</v>
       </c>
-      <c r="K4" s="27">
+      <c r="M4" s="27">
         <f>'NDBC NSTP6 timeseries data'!L43</f>
         <v>193.6875</v>
       </c>
-      <c r="L4" s="28">
+      <c r="N4" s="28">
         <f>'NDBC NSTP6 timeseries data'!M43</f>
         <v>7</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="77" t="s">
+      <c r="P4" s="11"/>
+      <c r="Q4" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="51">
-        <f>B4+1</f>
+        <v>135</v>
+      </c>
+      <c r="C5" s="99">
+        <f>C4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="88">
+      <c r="D5" s="104">
+        <v>20</v>
+      </c>
+      <c r="E5" s="85">
         <v>41659</v>
       </c>
-      <c r="D5" s="74">
+      <c r="F5" s="72">
         <v>1750</v>
       </c>
-      <c r="E5" s="74">
+      <c r="G5" s="72">
         <v>1900</v>
       </c>
-      <c r="F5" s="11">
+      <c r="H5" s="11">
         <f>'NDBC NSTP6 timeseries data'!I45</f>
         <v>1.23</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I5" s="11">
         <f>'NDBC NSTP6 timeseries data'!I60</f>
         <v>1.94</v>
       </c>
-      <c r="H5" s="32">
-        <f t="shared" ref="H5" si="0">G5-F5</f>
+      <c r="J5" s="32">
+        <f t="shared" ref="J5" si="0">I5-H5</f>
         <v>0.71</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="28">
+      <c r="L5" s="28">
         <f>'NDBC NSTP6 timeseries data'!K61</f>
         <v>3.25</v>
       </c>
-      <c r="K5" s="27">
+      <c r="M5" s="27">
         <f>'NDBC NSTP6 timeseries data'!L61</f>
         <v>258.375</v>
       </c>
-      <c r="L5" s="28">
+      <c r="N5" s="28">
         <f>'NDBC NSTP6 timeseries data'!M61</f>
         <v>10</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="77" t="s">
+      <c r="P5" s="11"/>
+      <c r="Q5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="51">
-        <f t="shared" ref="B6:B32" si="1">B5+1</f>
+        <v>125</v>
+      </c>
+      <c r="C6" s="99">
+        <f t="shared" ref="C6:C32" si="1">C5+1</f>
         <v>4</v>
       </c>
-      <c r="C6" s="88">
+      <c r="D6" s="104">
+        <v>32</v>
+      </c>
+      <c r="E6" s="85">
         <v>41671</v>
       </c>
-      <c r="D6" s="74">
+      <c r="F6" s="72">
         <v>900</v>
       </c>
-      <c r="E6" s="74">
+      <c r="G6" s="72">
         <v>1100</v>
       </c>
-      <c r="F6" s="11">
+      <c r="H6" s="11">
         <v>3.7429999999999999</v>
       </c>
-      <c r="G6" s="11">
+      <c r="I6" s="11">
         <v>2.58</v>
       </c>
-      <c r="H6" s="72">
-        <f>G6-F6</f>
+      <c r="J6" s="70">
+        <f>I6-H6</f>
         <v>-1.1629999999999998</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="28">
+      <c r="L6" s="28">
         <f>'NDBC NSTP6 timeseries data'!K84</f>
         <v>5.2725</v>
       </c>
-      <c r="K6" s="27">
+      <c r="M6" s="27">
         <f>'NDBC NSTP6 timeseries data'!L84</f>
         <v>96.1875</v>
       </c>
-      <c r="L6" s="28">
+      <c r="N6" s="28">
         <f>'NDBC NSTP6 timeseries data'!M84</f>
         <v>11.08</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="77" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="51">
+        <v>125</v>
+      </c>
+      <c r="C7" s="99">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="88">
+      <c r="D7" s="104">
+        <v>32</v>
+      </c>
+      <c r="E7" s="85">
         <v>41671</v>
       </c>
-      <c r="D7" s="74">
+      <c r="F7" s="72">
         <v>1130</v>
       </c>
-      <c r="E7" s="74">
+      <c r="G7" s="72">
         <v>1300</v>
       </c>
-      <c r="F7" s="11">
+      <c r="H7" s="11">
         <v>2.2280000000000002</v>
       </c>
-      <c r="G7" s="11">
+      <c r="I7" s="11">
         <v>0.879</v>
       </c>
-      <c r="H7" s="72">
-        <f>G7-F7</f>
+      <c r="J7" s="70">
+        <f>I7-H7</f>
         <v>-1.3490000000000002</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="28">
+      <c r="L7" s="28">
         <f>'NDBC NSTP6 timeseries data'!K102</f>
         <v>5.6875</v>
       </c>
-      <c r="K7" s="27">
+      <c r="M7" s="27">
         <f>'NDBC NSTP6 timeseries data'!L102</f>
         <v>100.25</v>
       </c>
-      <c r="L7" s="28">
+      <c r="N7" s="28">
         <f>'NDBC NSTP6 timeseries data'!M102</f>
         <v>13</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="77" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="R7" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="51">
+        <v>125</v>
+      </c>
+      <c r="C8" s="99">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="88">
+      <c r="D8" s="104">
+        <v>32</v>
+      </c>
+      <c r="E8" s="85">
         <v>41671</v>
       </c>
-      <c r="D8" s="74">
+      <c r="F8" s="72">
         <v>1700</v>
       </c>
-      <c r="E8" s="74">
+      <c r="G8" s="72">
         <v>1900</v>
       </c>
-      <c r="F8" s="11">
+      <c r="H8" s="11">
         <v>1.512</v>
       </c>
-      <c r="G8" s="11">
+      <c r="I8" s="11">
         <v>3.222</v>
       </c>
-      <c r="H8" s="32">
-        <f t="shared" ref="H8:H32" si="2">G8-F8</f>
+      <c r="J8" s="32">
+        <f t="shared" ref="J8:J32" si="2">I8-H8</f>
         <v>1.71</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="28">
+      <c r="L8" s="28">
         <f>'NDBC NSTP6 timeseries data'!K125</f>
         <v>4.2380952380952381</v>
       </c>
-      <c r="K8" s="27">
+      <c r="M8" s="27">
         <f>'NDBC NSTP6 timeseries data'!L125</f>
         <v>187.95238095238096</v>
       </c>
-      <c r="L8" s="28">
+      <c r="N8" s="28">
         <f>'NDBC NSTP6 timeseries data'!M125</f>
         <v>13</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="77" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="51">
+        <v>125</v>
+      </c>
+      <c r="C9" s="99">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="88">
+      <c r="D9" s="104">
+        <v>39</v>
+      </c>
+      <c r="E9" s="85">
         <v>41678</v>
       </c>
-      <c r="D9" s="74">
+      <c r="F9" s="72">
         <v>1415</v>
       </c>
-      <c r="E9" s="74">
+      <c r="G9" s="72">
         <v>1545</v>
       </c>
-      <c r="F9" s="11">
+      <c r="H9" s="11">
         <f>'NDBC NSTP6 timeseries data'!I127</f>
         <v>3.1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="I9" s="11">
         <f>'NDBC NSTP6 timeseries data'!I143</f>
         <v>3.45</v>
       </c>
-      <c r="H9" s="32">
+      <c r="J9" s="32">
         <f t="shared" si="2"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="28">
+      <c r="L9" s="28">
         <f>'NDBC NSTP6 timeseries data'!K144</f>
         <v>5.2352941176470589</v>
       </c>
-      <c r="K9" s="27">
+      <c r="M9" s="27">
         <f>'NDBC NSTP6 timeseries data'!L144</f>
         <v>140.41176470588235</v>
       </c>
-      <c r="L9" s="28">
+      <c r="N9" s="28">
         <f>'NDBC NSTP6 timeseries data'!M144</f>
         <v>18</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="77" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="R9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="91" t="s">
+      <c r="S9" s="88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="51">
+        <v>125</v>
+      </c>
+      <c r="C10" s="99">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="88">
+      <c r="D10" s="104">
+        <v>39</v>
+      </c>
+      <c r="E10" s="85">
         <v>41678</v>
       </c>
-      <c r="D10" s="74">
+      <c r="F10" s="72">
         <v>1605</v>
       </c>
-      <c r="E10" s="74">
+      <c r="G10" s="72">
         <v>1800</v>
       </c>
-      <c r="F10" s="11">
+      <c r="H10" s="11">
         <f>'NDBC NSTP6 timeseries data'!I146</f>
         <v>3.33</v>
       </c>
-      <c r="G10" s="11">
+      <c r="I10" s="11">
         <f>'NDBC NSTP6 timeseries data'!I167</f>
         <v>2.5299999999999998</v>
       </c>
-      <c r="H10" s="72">
+      <c r="J10" s="70">
         <f t="shared" si="2"/>
         <v>-0.80000000000000027</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="28">
+      <c r="L10" s="28">
         <f>'NDBC NSTP6 timeseries data'!K168</f>
         <v>6.0454545454545459</v>
       </c>
-      <c r="K10" s="27">
+      <c r="M10" s="27">
         <f>'NDBC NSTP6 timeseries data'!L168</f>
         <v>144.13636363636363</v>
       </c>
-      <c r="L10" s="28">
+      <c r="N10" s="28">
         <f>'NDBC NSTP6 timeseries data'!M168</f>
         <v>20</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="77" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="R10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="91" t="s">
+      <c r="S10" s="88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="51">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="99">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11" s="88">
+      <c r="D11" s="104">
+        <v>47</v>
+      </c>
+      <c r="E11" s="85">
         <v>41686</v>
       </c>
-      <c r="D11" s="74">
+      <c r="F11" s="72">
         <v>1654</v>
       </c>
-      <c r="E11" s="74">
+      <c r="G11" s="72">
         <v>1846</v>
       </c>
-      <c r="F11" s="11">
+      <c r="H11" s="11">
         <f>'NDBC NSTP6 timeseries data'!I170</f>
         <v>2.39</v>
       </c>
-      <c r="G11" s="11">
+      <c r="I11" s="11">
         <f>'NDBC NSTP6 timeseries data'!I189</f>
         <v>3.25</v>
       </c>
-      <c r="H11" s="32">
+      <c r="J11" s="32">
         <f t="shared" si="2"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="28">
+      <c r="L11" s="28">
         <f>'NDBC NSTP6 timeseries data'!K190</f>
         <v>3.25</v>
       </c>
-      <c r="K11" s="27">
+      <c r="M11" s="27">
         <f>'NDBC NSTP6 timeseries data'!L190</f>
         <v>168.8</v>
       </c>
-      <c r="L11" s="28">
+      <c r="N11" s="28">
         <f>'NDBC NSTP6 timeseries data'!M190</f>
         <v>9</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="77" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="R11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="91" t="s">
+      <c r="S11" s="88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="51">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="99">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="88">
+      <c r="D12" s="104">
+        <v>48</v>
+      </c>
+      <c r="E12" s="85">
         <v>41687</v>
       </c>
-      <c r="D12" s="74">
+      <c r="F12" s="72">
         <v>1245</v>
       </c>
-      <c r="E12" s="74">
+      <c r="G12" s="72">
         <v>1500</v>
       </c>
-      <c r="F12" s="11">
+      <c r="H12" s="11">
         <f>'NDBC NSTP6 timeseries data'!I192</f>
         <v>1.62</v>
       </c>
-      <c r="G12" s="11">
+      <c r="I12" s="11">
         <f>'NDBC NSTP6 timeseries data'!I215</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="H12" s="72">
+      <c r="J12" s="70">
         <f t="shared" si="2"/>
         <v>-0.51</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="28">
+      <c r="L12" s="28">
         <f>'NDBC NSTP6 timeseries data'!K216</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="K12" s="27">
+      <c r="M12" s="27">
         <f>'NDBC NSTP6 timeseries data'!L216</f>
         <v>79.958333333333329</v>
       </c>
-      <c r="L12" s="28">
+      <c r="N12" s="28">
         <f>'NDBC NSTP6 timeseries data'!M216</f>
         <v>28</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="77" t="s">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="R12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" s="91" t="s">
+      <c r="S12" s="88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="51">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="99">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C13" s="88">
+      <c r="D13" s="104">
+        <v>48</v>
+      </c>
+      <c r="E13" s="85">
         <v>41687</v>
       </c>
-      <c r="D13" s="74">
+      <c r="F13" s="72">
         <v>1530</v>
       </c>
-      <c r="E13" s="74">
+      <c r="G13" s="72">
         <v>1700</v>
       </c>
-      <c r="F13" s="11">
+      <c r="H13" s="11">
         <f>'NDBC NSTP6 timeseries data'!I218</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="G13" s="11">
+      <c r="I13" s="11">
         <f>'NDBC NSTP6 timeseries data'!I236</f>
         <v>1.59</v>
       </c>
-      <c r="H13" s="32">
+      <c r="J13" s="32">
         <f t="shared" si="2"/>
         <v>0.45000000000000018</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="28">
+      <c r="L13" s="28">
         <f>'NDBC NSTP6 timeseries data'!K237</f>
         <v>5.8947368421052628</v>
       </c>
-      <c r="K13" s="27">
+      <c r="M13" s="27">
         <f>'NDBC NSTP6 timeseries data'!L237</f>
         <v>101.36842105263158</v>
       </c>
-      <c r="L13" s="28">
+      <c r="N13" s="28">
         <f>'NDBC NSTP6 timeseries data'!M237</f>
         <v>20</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="77" t="s">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="R13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="91" t="s">
+      <c r="S13" s="88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="51">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="99">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C14" s="88">
+      <c r="D14" s="104">
+        <v>48</v>
+      </c>
+      <c r="E14" s="85">
         <v>41687</v>
       </c>
-      <c r="D14" s="74">
+      <c r="F14" s="72">
         <v>1710</v>
       </c>
-      <c r="E14" s="74">
+      <c r="G14" s="72">
         <v>1840</v>
       </c>
-      <c r="F14" s="11">
+      <c r="H14" s="11">
         <f>'NDBC NSTP6 timeseries data'!I239</f>
         <v>1.62</v>
       </c>
-      <c r="G14" s="11">
+      <c r="I14" s="11">
         <f>'NDBC NSTP6 timeseries data'!I256</f>
         <v>2.56</v>
       </c>
-      <c r="H14" s="32">
+      <c r="J14" s="32">
         <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="28">
+      <c r="L14" s="28">
         <f>'NDBC NSTP6 timeseries data'!K257</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="K14" s="27">
+      <c r="M14" s="27">
         <f>'NDBC NSTP6 timeseries data'!L257</f>
         <v>89.888888888888886</v>
       </c>
-      <c r="L14" s="28">
+      <c r="N14" s="28">
         <f>'NDBC NSTP6 timeseries data'!M257</f>
         <v>15</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="77" t="s">
+      <c r="P14" s="11"/>
+      <c r="Q14" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="R14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="91" t="s">
+      <c r="S14" s="88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="51">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="99">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C15" s="88">
+      <c r="D15" s="104">
+        <v>49</v>
+      </c>
+      <c r="E15" s="85">
         <v>41688</v>
       </c>
-      <c r="D15" s="74">
+      <c r="F15" s="72">
         <v>1245</v>
       </c>
-      <c r="E15" s="74">
+      <c r="G15" s="72">
         <v>1445</v>
       </c>
-      <c r="F15" s="11">
+      <c r="H15" s="11">
         <f>'NDBC NSTP6 timeseries data'!I259</f>
         <v>2.09</v>
       </c>
-      <c r="G15" s="11">
+      <c r="I15" s="11">
         <f>'NDBC NSTP6 timeseries data'!I280</f>
         <v>1.26</v>
       </c>
-      <c r="H15" s="72">
+      <c r="J15" s="70">
         <f t="shared" si="2"/>
         <v>-0.82999999999999985</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="28">
+      <c r="L15" s="28">
         <f>'NDBC NSTP6 timeseries data'!K281</f>
         <v>4.9090909090909092</v>
       </c>
-      <c r="K15" s="27">
+      <c r="M15" s="27">
         <f>'NDBC NSTP6 timeseries data'!L281</f>
         <v>97.727272727272734</v>
       </c>
-      <c r="L15" s="28">
+      <c r="N15" s="28">
         <f>'NDBC NSTP6 timeseries data'!M281</f>
         <v>14</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="77" t="s">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="R15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="91" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" s="88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="78">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="100">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C16" s="89">
+      <c r="D16" s="104">
+        <v>49</v>
+      </c>
+      <c r="E16" s="86">
         <v>41688</v>
       </c>
-      <c r="D16" s="79">
+      <c r="F16" s="76">
         <v>1445</v>
       </c>
-      <c r="E16" s="79">
+      <c r="G16" s="76">
         <v>1700</v>
       </c>
-      <c r="F16" s="80">
+      <c r="H16" s="77">
         <f>'NDBC NSTP6 timeseries data'!I283</f>
         <v>1.3</v>
       </c>
-      <c r="G16" s="80">
+      <c r="I16" s="77">
         <f>'NDBC NSTP6 timeseries data'!I306</f>
         <v>1.37</v>
       </c>
-      <c r="H16" s="81">
+      <c r="J16" s="78">
         <f t="shared" si="2"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="K16" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="82">
+      <c r="L16" s="79">
         <f>'NDBC NSTP6 timeseries data'!K307</f>
         <v>4.708333333333333</v>
       </c>
-      <c r="K16" s="83">
+      <c r="M16" s="80">
         <f>'NDBC NSTP6 timeseries data'!L307</f>
         <v>194.41666666666666</v>
       </c>
-      <c r="L16" s="82">
+      <c r="N16" s="79">
         <f>'NDBC NSTP6 timeseries data'!M307</f>
         <v>15</v>
       </c>
-      <c r="M16" s="84" t="s">
+      <c r="O16" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="80"/>
-      <c r="O16" s="85" t="s">
+      <c r="P16" s="77"/>
+      <c r="Q16" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="92" t="s">
+      <c r="R16" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="91" t="s">
+      <c r="S16" s="88" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="51">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="99">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C17" s="88">
+      <c r="D17" s="104">
+        <v>50</v>
+      </c>
+      <c r="E17" s="85">
         <v>41689</v>
       </c>
-      <c r="D17" s="74">
+      <c r="F17" s="72">
         <v>1205</v>
       </c>
-      <c r="E17" s="74">
+      <c r="G17" s="72">
         <v>1440</v>
       </c>
-      <c r="F17" s="11">
+      <c r="H17" s="11">
         <f>'NDBC NSTP6 timeseries data'!I309</f>
         <v>2.8809999999999998</v>
       </c>
-      <c r="G17" s="11">
+      <c r="I17" s="11">
         <f>'NDBC NSTP6 timeseries data'!I336</f>
         <v>1.516</v>
       </c>
-      <c r="H17" s="93">
+      <c r="J17" s="90">
         <f t="shared" si="2"/>
         <v>-1.3649999999999998</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="28">
+      <c r="L17" s="28">
         <f>'NDBC NSTP6 timeseries data'!K337</f>
         <v>5.7757142857142858</v>
       </c>
-      <c r="K17" s="27">
+      <c r="M17" s="27">
         <f>'NDBC NSTP6 timeseries data'!L337</f>
         <v>39.857142857142854</v>
       </c>
-      <c r="L17" s="28">
+      <c r="N17" s="28">
         <f>'NDBC NSTP6 timeseries data'!M337</f>
         <v>11.47</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="85" t="s">
+      <c r="P17" s="11"/>
+      <c r="Q17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="92" t="s">
+      <c r="R17" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="51">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="99">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C18" s="88">
+      <c r="D18" s="104">
+        <v>50</v>
+      </c>
+      <c r="E18" s="85">
         <v>41689</v>
       </c>
-      <c r="D18" s="74">
+      <c r="F18" s="72">
         <v>1445</v>
       </c>
-      <c r="E18" s="74">
+      <c r="G18" s="72">
         <v>1720</v>
       </c>
-      <c r="F18" s="11">
+      <c r="H18" s="11">
         <f>'NDBC NSTP6 timeseries data'!I339</f>
         <v>1.516</v>
       </c>
-      <c r="G18" s="11">
+      <c r="I18" s="11">
         <f>'NDBC NSTP6 timeseries data'!I365</f>
         <v>1.24</v>
       </c>
-      <c r="H18" s="93">
+      <c r="J18" s="90">
         <f t="shared" si="2"/>
         <v>-0.27600000000000002</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="28">
+      <c r="L18" s="28">
         <f>'NDBC NSTP6 timeseries data'!K366</f>
         <v>6.565555555555556</v>
       </c>
-      <c r="K18" s="27">
+      <c r="M18" s="27">
         <f>'NDBC NSTP6 timeseries data'!L366</f>
         <v>54.407407407407405</v>
       </c>
-      <c r="L18" s="28">
+      <c r="N18" s="28">
         <f>'NDBC NSTP6 timeseries data'!M366</f>
         <v>14.77</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="O18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="77" t="s">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="R18" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="51">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="99">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C19" s="88">
+      <c r="D19" s="104">
+        <v>51</v>
+      </c>
+      <c r="E19" s="85">
         <v>41690</v>
       </c>
-      <c r="D19" s="74">
+      <c r="F19" s="72">
         <v>840</v>
       </c>
-      <c r="E19" s="74">
+      <c r="G19" s="72">
         <v>1045</v>
       </c>
-      <c r="F19" s="11">
+      <c r="H19" s="11">
         <f>'NDBC NSTP6 timeseries data'!I368</f>
         <v>2.52</v>
       </c>
-      <c r="G19" s="11">
+      <c r="I19" s="11">
         <f>'NDBC NSTP6 timeseries data'!I389</f>
         <v>3.15</v>
       </c>
-      <c r="H19" s="81">
+      <c r="J19" s="78">
         <f t="shared" si="2"/>
         <v>0.62999999999999989</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="28">
+      <c r="L19" s="28">
         <f>'NDBC NSTP6 timeseries data'!K390</f>
         <v>4.8181818181818183</v>
       </c>
-      <c r="K19" s="27">
+      <c r="M19" s="27">
         <f>'NDBC NSTP6 timeseries data'!L390</f>
         <v>290.22727272727275</v>
       </c>
-      <c r="L19" s="28">
+      <c r="N19" s="28">
         <f>'NDBC NSTP6 timeseries data'!M390</f>
         <v>13</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="O19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="85" t="s">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="92" t="s">
+      <c r="R19" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="51">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="99">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C20" s="88">
+      <c r="D20" s="104">
+        <v>51</v>
+      </c>
+      <c r="E20" s="85">
         <v>41690</v>
       </c>
-      <c r="D20" s="74">
+      <c r="F20" s="72">
         <v>1100</v>
       </c>
-      <c r="E20" s="74">
+      <c r="G20" s="72">
         <v>1200</v>
       </c>
-      <c r="F20" s="11">
+      <c r="H20" s="11">
         <f>'NDBC NSTP6 timeseries data'!I392</f>
         <v>3.2</v>
       </c>
-      <c r="G20" s="11">
+      <c r="I20" s="11">
         <f>'NDBC NSTP6 timeseries data'!I402</f>
         <v>3.05</v>
       </c>
-      <c r="H20" s="93">
+      <c r="J20" s="90">
         <f t="shared" si="2"/>
         <v>-0.15000000000000036</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="28">
+      <c r="L20" s="28">
         <f>'NDBC NSTP6 timeseries data'!K403</f>
         <v>4.2727272727272725</v>
       </c>
-      <c r="K20" s="27">
+      <c r="M20" s="27">
         <f>'NDBC NSTP6 timeseries data'!L403</f>
         <v>117.18181818181819</v>
       </c>
-      <c r="L20" s="28">
+      <c r="N20" s="28">
         <f>'NDBC NSTP6 timeseries data'!M403</f>
         <v>11</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="85" t="s">
+      <c r="P20" s="11"/>
+      <c r="Q20" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="92" t="s">
+      <c r="R20" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="51">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="99">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C21" s="88">
+      <c r="D21" s="104">
+        <v>51</v>
+      </c>
+      <c r="E21" s="85">
         <v>41690</v>
       </c>
-      <c r="D21" s="74">
+      <c r="F21" s="72">
         <v>1210</v>
       </c>
-      <c r="E21" s="74">
+      <c r="G21" s="72">
         <v>1430</v>
       </c>
-      <c r="F21" s="11">
+      <c r="H21" s="11">
         <f>'NDBC NSTP6 timeseries data'!I405</f>
         <v>3.02</v>
       </c>
-      <c r="G21" s="11">
+      <c r="I21" s="11">
         <f>'NDBC NSTP6 timeseries data'!I429</f>
         <v>2.06</v>
       </c>
-      <c r="H21" s="93">
+      <c r="J21" s="90">
         <f t="shared" si="2"/>
         <v>-0.96</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="28">
+      <c r="L21" s="28">
         <f>'NDBC NSTP6 timeseries data'!K430</f>
         <v>2.96</v>
       </c>
-      <c r="K21" s="27">
+      <c r="M21" s="27">
         <f>'NDBC NSTP6 timeseries data'!L430</f>
         <v>237.8</v>
       </c>
-      <c r="L21" s="28">
+      <c r="N21" s="28">
         <f>'NDBC NSTP6 timeseries data'!M430</f>
         <v>12</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="O21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="77" t="s">
+      <c r="P21" s="11"/>
+      <c r="Q21" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="R21" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="51">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="99">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C22" s="88">
+      <c r="D22" s="104">
+        <v>51</v>
+      </c>
+      <c r="E22" s="85">
         <v>41690</v>
       </c>
-      <c r="D22" s="74">
+      <c r="F22" s="72">
         <v>1500</v>
       </c>
-      <c r="E22" s="74">
+      <c r="G22" s="72">
         <v>1630</v>
       </c>
-      <c r="F22" s="11">
+      <c r="H22" s="11">
         <f>'NDBC NSTP6 timeseries data'!I432</f>
         <v>1.85</v>
       </c>
-      <c r="G22" s="11">
+      <c r="I22" s="11">
         <f>'NDBC NSTP6 timeseries data'!I447</f>
         <v>1.29</v>
       </c>
-      <c r="H22" s="93">
+      <c r="J22" s="90">
         <f t="shared" si="2"/>
         <v>-0.56000000000000005</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="28">
+      <c r="L22" s="28">
         <f>'NDBC NSTP6 timeseries data'!K448</f>
         <v>5.9375</v>
       </c>
-      <c r="K22" s="27">
+      <c r="M22" s="27">
         <f>'NDBC NSTP6 timeseries data'!L448</f>
         <v>290</v>
       </c>
-      <c r="L22" s="28">
+      <c r="N22" s="28">
         <f>'NDBC NSTP6 timeseries data'!M448</f>
         <v>13</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="77" t="s">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="R22" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="51">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="99">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C23" s="88">
+      <c r="D23" s="104">
+        <v>52</v>
+      </c>
+      <c r="E23" s="85">
         <v>41691</v>
       </c>
-      <c r="D23" s="11">
+      <c r="F23" s="11">
         <v>920</v>
       </c>
-      <c r="E23" s="11">
+      <c r="G23" s="11">
         <v>1040</v>
       </c>
-      <c r="F23" s="11">
+      <c r="H23" s="11">
         <f>'NDBC NSTP6 timeseries data'!I450</f>
         <v>2.37</v>
       </c>
-      <c r="G23" s="11">
+      <c r="I23" s="11">
         <f>'NDBC NSTP6 timeseries data'!I464</f>
         <v>2.97</v>
       </c>
-      <c r="H23" s="81">
+      <c r="J23" s="78">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="28">
+      <c r="L23" s="28">
         <f>'NDBC NSTP6 timeseries data'!K465</f>
         <v>2.8666666666666667</v>
       </c>
-      <c r="K23" s="11">
+      <c r="M23" s="11">
         <f>'NDBC NSTP6 timeseries data'!L465</f>
         <v>253</v>
       </c>
-      <c r="L23" s="11">
+      <c r="N23" s="11">
         <f>'NDBC NSTP6 timeseries data'!M465</f>
         <v>11</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="O23" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="85" t="s">
+      <c r="P23" s="12"/>
+      <c r="Q23" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="92" t="s">
+      <c r="R23" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="51">
+        <v>135</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="99">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C24" s="88">
+      <c r="D24" s="104">
+        <v>52</v>
+      </c>
+      <c r="E24" s="85">
         <v>41691</v>
       </c>
-      <c r="D24" s="11">
+      <c r="F24" s="11">
         <v>1040</v>
       </c>
-      <c r="E24" s="11">
+      <c r="G24" s="11">
         <v>1145</v>
       </c>
-      <c r="F24" s="11">
+      <c r="H24" s="11">
         <f>'NDBC NSTP6 timeseries data'!I467</f>
         <v>3.01</v>
       </c>
-      <c r="G24" s="11">
+      <c r="I24" s="11">
         <f>'NDBC NSTP6 timeseries data'!I479</f>
         <v>3.29</v>
       </c>
-      <c r="H24" s="81">
+      <c r="J24" s="78">
         <f t="shared" si="2"/>
         <v>0.28000000000000025</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="28">
+      <c r="L24" s="28">
         <f>'NDBC NSTP6 timeseries data'!K480</f>
         <v>3.8461538461538463</v>
       </c>
-      <c r="K24" s="27">
+      <c r="M24" s="27">
         <f>'NDBC NSTP6 timeseries data'!L480</f>
         <v>111.15384615384616</v>
       </c>
-      <c r="L24" s="11">
+      <c r="N24" s="11">
         <f>'NDBC NSTP6 timeseries data'!M480</f>
         <v>11</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="O24" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="85" t="s">
+      <c r="P24" s="12"/>
+      <c r="Q24" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="92" t="s">
+      <c r="R24" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="78">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="100">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C25" s="89">
+      <c r="D25" s="104">
+        <v>52</v>
+      </c>
+      <c r="E25" s="86">
         <v>41691</v>
       </c>
-      <c r="D25" s="80">
+      <c r="F25" s="77">
         <v>1300</v>
       </c>
-      <c r="E25" s="80">
+      <c r="G25" s="77">
         <v>1400</v>
       </c>
-      <c r="F25" s="80">
+      <c r="H25" s="77">
         <f>'NDBC NSTP6 timeseries data'!I482</f>
         <v>3.24</v>
       </c>
-      <c r="G25" s="80">
+      <c r="I25" s="77">
         <f>'NDBC NSTP6 timeseries data'!I492</f>
         <v>2.97</v>
       </c>
-      <c r="H25" s="93">
+      <c r="J25" s="90">
         <f t="shared" si="2"/>
         <v>-0.27</v>
       </c>
-      <c r="I25" s="80" t="s">
+      <c r="K25" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="82">
+      <c r="L25" s="79">
         <f>'NDBC NSTP6 timeseries data'!K493</f>
         <v>3</v>
       </c>
-      <c r="K25" s="83">
+      <c r="M25" s="80">
         <f>'NDBC NSTP6 timeseries data'!L493</f>
         <v>193.45454545454547</v>
       </c>
-      <c r="L25" s="80">
+      <c r="N25" s="77">
         <f>'NDBC NSTP6 timeseries data'!M493</f>
         <v>16</v>
       </c>
-      <c r="M25" s="84" t="s">
+      <c r="O25" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="85" t="s">
+      <c r="P25" s="81"/>
+      <c r="Q25" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="92" t="s">
+      <c r="R25" s="89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="95">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="99">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C26" s="94">
+      <c r="D26" s="104">
+        <v>52</v>
+      </c>
+      <c r="E26" s="85">
         <v>41691</v>
       </c>
-      <c r="D26" s="11">
+      <c r="F26" s="11">
         <v>1500</v>
       </c>
-      <c r="E26" s="11">
+      <c r="G26" s="11">
         <v>1550</v>
       </c>
-      <c r="F26" s="11">
+      <c r="H26" s="11">
         <f>'NDBC NSTP6 timeseries data'!I495</f>
         <v>2.39</v>
       </c>
-      <c r="G26" s="11">
+      <c r="I26" s="11">
         <f>'NDBC NSTP6 timeseries data'!I505</f>
         <v>1.86</v>
       </c>
-      <c r="H26" s="72">
+      <c r="J26" s="70">
         <f t="shared" si="2"/>
         <v>-0.53</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="28">
+      <c r="L26" s="28">
         <f>'NDBC NSTP6 timeseries data'!K506</f>
         <v>3.7272727272727271</v>
       </c>
-      <c r="K26" s="27">
+      <c r="M26" s="27">
         <f>'NDBC NSTP6 timeseries data'!L506</f>
         <v>152.27272727272728</v>
       </c>
-      <c r="L26" s="11">
+      <c r="N26" s="11">
         <f>'NDBC NSTP6 timeseries data'!M506</f>
         <v>11</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="O26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12" t="s">
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="R26" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="95">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="99">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C27" s="94">
+      <c r="D27" s="104">
+        <v>53</v>
+      </c>
+      <c r="E27" s="85">
         <v>41692</v>
       </c>
-      <c r="D27" s="11">
+      <c r="F27" s="11">
         <v>1100</v>
       </c>
-      <c r="E27" s="11">
+      <c r="G27" s="11">
         <v>1215</v>
       </c>
-      <c r="F27" s="11">
+      <c r="H27" s="11">
         <f>'NDBC NSTP6 timeseries data'!I508</f>
         <v>2.71</v>
       </c>
-      <c r="G27" s="11">
+      <c r="I27" s="11">
         <f>'NDBC NSTP6 timeseries data'!I521</f>
         <v>3.17</v>
       </c>
-      <c r="H27" s="32">
+      <c r="J27" s="32">
         <f t="shared" si="2"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="11">
+      <c r="L27" s="11">
         <f>'NDBC NSTP6 timeseries data'!K522</f>
         <v>5.5</v>
       </c>
-      <c r="K27" s="27">
+      <c r="M27" s="27">
         <f>'NDBC NSTP6 timeseries data'!L522</f>
         <v>313.85714285714283</v>
       </c>
-      <c r="L27" s="11">
+      <c r="N27" s="11">
         <f>'NDBC NSTP6 timeseries data'!M522</f>
         <v>14</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="O27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="12" t="s">
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="R27" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="95">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="99">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C28" s="94">
+      <c r="D28" s="104">
+        <v>53</v>
+      </c>
+      <c r="E28" s="85">
         <v>41692</v>
       </c>
-      <c r="D28" s="11">
+      <c r="F28" s="11">
         <v>1220</v>
       </c>
-      <c r="E28" s="11">
+      <c r="G28" s="11">
         <v>1315</v>
       </c>
-      <c r="F28" s="11">
+      <c r="H28" s="11">
         <f>'NDBC NSTP6 timeseries data'!I524</f>
         <v>3.19</v>
       </c>
-      <c r="G28" s="11">
+      <c r="I28" s="11">
         <f>'NDBC NSTP6 timeseries data'!I535</f>
         <v>3.37</v>
       </c>
-      <c r="H28" s="32">
+      <c r="J28" s="32">
         <f t="shared" si="2"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="28">
+      <c r="L28" s="28">
         <f>'NDBC NSTP6 timeseries data'!K536</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="K28" s="27">
+      <c r="M28" s="27">
         <f>'NDBC NSTP6 timeseries data'!L536</f>
         <v>301.5</v>
       </c>
-      <c r="L28" s="11">
+      <c r="N28" s="11">
         <f>'NDBC NSTP6 timeseries data'!M536</f>
         <v>12</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="O28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12" t="s">
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="R28" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="95">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="99">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C29" s="94">
+      <c r="D29" s="104">
+        <v>53</v>
+      </c>
+      <c r="E29" s="85">
         <v>41692</v>
       </c>
-      <c r="D29" s="11">
+      <c r="F29" s="11">
         <v>1600</v>
       </c>
-      <c r="E29" s="11">
+      <c r="G29" s="11">
         <v>1700</v>
       </c>
-      <c r="F29" s="11">
+      <c r="H29" s="11">
         <f>'NDBC NSTP6 timeseries data'!I538</f>
         <v>2.44</v>
       </c>
-      <c r="G29" s="11">
+      <c r="I29" s="11">
         <f>'NDBC NSTP6 timeseries data'!I548</f>
         <v>1.92</v>
       </c>
-      <c r="H29" s="72">
+      <c r="J29" s="70">
         <f t="shared" si="2"/>
         <v>-0.52</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="28">
+      <c r="L29" s="28">
         <f>'NDBC NSTP6 timeseries data'!K549</f>
         <v>4.1818181818181817</v>
       </c>
-      <c r="K29" s="27">
+      <c r="M29" s="27">
         <f>'NDBC NSTP6 timeseries data'!L549</f>
         <v>310.90909090909093</v>
       </c>
-      <c r="L29" s="11">
+      <c r="N29" s="11">
         <f>'NDBC NSTP6 timeseries data'!M549</f>
         <v>10</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="O29" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12" t="s">
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="R29" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="95">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="99">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C30" s="94">
+      <c r="D30" s="104">
+        <v>53</v>
+      </c>
+      <c r="E30" s="85">
         <v>41692</v>
       </c>
-      <c r="D30" s="11">
+      <c r="F30" s="11">
         <v>1700</v>
       </c>
-      <c r="E30" s="11">
+      <c r="G30" s="11">
         <v>1845</v>
       </c>
-      <c r="F30" s="11">
+      <c r="H30" s="11">
         <f>'NDBC NSTP6 timeseries data'!I551</f>
         <v>1.92</v>
       </c>
-      <c r="G30" s="11">
+      <c r="I30" s="11">
         <f>'NDBC NSTP6 timeseries data'!I569</f>
         <v>1.21</v>
       </c>
-      <c r="H30" s="72">
+      <c r="J30" s="70">
         <f t="shared" si="2"/>
         <v>-0.71</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="K30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="28">
+      <c r="L30" s="28">
         <f>'NDBC NSTP6 timeseries data'!K570</f>
         <v>2</v>
       </c>
-      <c r="K30" s="27">
+      <c r="M30" s="27">
         <f>'NDBC NSTP6 timeseries data'!L570</f>
         <v>242.47368421052633</v>
       </c>
-      <c r="L30" s="11">
+      <c r="N30" s="11">
         <f>'NDBC NSTP6 timeseries data'!M570</f>
         <v>10</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="O30" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="12" t="s">
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="R30" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="95">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="99">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C31" s="94">
+      <c r="D31" s="104">
+        <v>54</v>
+      </c>
+      <c r="E31" s="85">
         <v>41693</v>
       </c>
-      <c r="D31" s="11">
+      <c r="F31" s="11">
         <v>1040</v>
       </c>
-      <c r="E31" s="11">
+      <c r="G31" s="11">
         <v>1210</v>
       </c>
-      <c r="F31" s="1">
+      <c r="H31" s="1">
         <f>'NDBC NSTP6 timeseries data'!I572</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I31" s="1">
         <f>'NDBC NSTP6 timeseries data'!I587</f>
         <v>2.9</v>
       </c>
-      <c r="H31" s="72">
+      <c r="J31" s="70">
         <f t="shared" si="2"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="K31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="28">
+      <c r="L31" s="28">
         <f>'NDBC NSTP6 timeseries data'!K588</f>
         <v>7.1875</v>
       </c>
-      <c r="K31" s="27">
+      <c r="M31" s="27">
         <f>'NDBC NSTP6 timeseries data'!L588</f>
         <v>304.1875</v>
       </c>
-      <c r="L31" s="11">
+      <c r="N31" s="11">
         <f>'NDBC NSTP6 timeseries data'!M588</f>
         <v>15</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="O31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="12" t="s">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="R31" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="96">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="101">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C32" s="97">
+      <c r="D32" s="105">
+        <v>54</v>
+      </c>
+      <c r="E32" s="102">
         <v>41693</v>
       </c>
-      <c r="D32" s="98">
+      <c r="F32" s="91">
         <v>1210</v>
       </c>
-      <c r="E32" s="98">
+      <c r="G32" s="91">
         <v>1255</v>
       </c>
-      <c r="F32" s="16">
+      <c r="H32" s="16">
         <f>'NDBC NSTP6 timeseries data'!I590</f>
         <v>2.9</v>
       </c>
-      <c r="G32" s="16">
+      <c r="I32" s="16">
         <f>'NDBC NSTP6 timeseries data'!I599</f>
         <v>3.27</v>
       </c>
-      <c r="H32" s="99">
+      <c r="J32" s="92">
         <f t="shared" si="2"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="I32" s="98" t="s">
+      <c r="K32" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="100">
+      <c r="L32" s="93">
         <f>'NDBC NSTP6 timeseries data'!K600</f>
         <v>5.2857142857142856</v>
       </c>
-      <c r="K32" s="101">
+      <c r="M32" s="94">
         <f>'NDBC NSTP6 timeseries data'!L600</f>
         <v>260.28571428571428</v>
       </c>
-      <c r="L32" s="98">
+      <c r="N32" s="91">
         <f>'NDBC NSTP6 timeseries data'!M600</f>
         <v>11</v>
       </c>
-      <c r="M32" s="102" t="s">
+      <c r="O32" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="102" t="s">
+      <c r="P32" s="16"/>
+      <c r="Q32" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="103" t="s">
+      <c r="R32" s="96" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L3:L16">
+  <conditionalFormatting sqref="N3:N16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1"/>
-    <hyperlink ref="J1:K1" r:id="rId2" display="NSTP6"/>
-    <hyperlink ref="L1" r:id="rId3" display="NSTP6"/>
+    <hyperlink ref="H1" r:id="rId1"/>
+    <hyperlink ref="L1:M1" r:id="rId2" display="NSTP6"/>
+    <hyperlink ref="N1" r:id="rId3" display="NSTP6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
@@ -3831,24 +3994,24 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52" t="s">
         <v>95</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="53" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="41"/>
@@ -3870,13 +4033,13 @@
       <c r="J3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3885,17 +4048,17 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="59"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="60"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
@@ -3904,7 +4067,7 @@
       <c r="F5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="57"/>
       <c r="H5" s="4" t="s">
         <v>53</v>
       </c>
@@ -3912,32 +4075,32 @@
       <c r="J5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="58" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="63" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="64"/>
+      <c r="I6" s="62"/>
       <c r="J6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="64" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3953,27 +4116,27 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="54" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="58"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>57</v>
@@ -3984,7 +4147,7 @@
       <c r="F9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
         <v>57</v>
@@ -3992,13 +4155,13 @@
       <c r="J9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -4007,17 +4170,17 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="59"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="60"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
@@ -4026,38 +4189,38 @@
       <c r="F11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="60" t="s">
+      <c r="K11" s="58" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="63" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64" t="s">
+      <c r="I12" s="62"/>
+      <c r="J12" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="69" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4066,7 +4229,7 @@
         <v>121</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(Table!I3:I32,"rising")</f>
+        <f>COUNTIF(Table!K3:K32,"rising")</f>
         <v>14</v>
       </c>
     </row>
@@ -4075,27 +4238,27 @@
         <v>122</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(Table!I3:I32,"falling")</f>
+        <f>COUNTIF(Table!K3:K32,"falling")</f>
         <v>15</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -4180,11 +4343,11 @@
       <c r="A1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -4963,11 +5126,11 @@
         <f>I24-I4</f>
         <v>-0.56499999999999995</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="50">
         <f>AVERAGE(K4:K24)</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="50">
         <f>AVERAGE(L4:L24)</f>
         <v>232.5</v>
       </c>
@@ -5700,11 +5863,11 @@
         <f>I42-I27</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="50">
         <f>AVERAGE(K27:K42)</f>
         <v>2.375</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="50">
         <f>AVERAGE(L27:L42)</f>
         <v>193.6875</v>
       </c>
@@ -6437,11 +6600,11 @@
         <f>I60-I45</f>
         <v>0.71</v>
       </c>
-      <c r="K61" s="52">
+      <c r="K61" s="50">
         <f>AVERAGE(K45:K60)</f>
         <v>3.25</v>
       </c>
-      <c r="L61" s="52">
+      <c r="L61" s="50">
         <f>AVERAGE(L45:L60)</f>
         <v>258.375</v>
       </c>
@@ -7201,11 +7364,11 @@
         <v>-1.161</v>
       </c>
       <c r="J84" s="5"/>
-      <c r="K84" s="52">
+      <c r="K84" s="50">
         <f>AVERAGE(K68:K83)</f>
         <v>5.2725</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="50">
         <f>AVERAGE(L68:L83)</f>
         <v>96.1875</v>
       </c>
@@ -7940,11 +8103,11 @@
         <v>-1.35</v>
       </c>
       <c r="J102" s="5"/>
-      <c r="K102" s="52">
+      <c r="K102" s="50">
         <f>AVERAGE(K86:K101)</f>
         <v>5.6875</v>
       </c>
-      <c r="L102" s="52">
+      <c r="L102" s="50">
         <f>AVERAGE(L86:L101)</f>
         <v>100.25</v>
       </c>
@@ -8896,11 +9059,11 @@
         <v>1.7100000000000002</v>
       </c>
       <c r="J125" s="5"/>
-      <c r="K125" s="52">
+      <c r="K125" s="50">
         <f>AVERAGE(K104:K124)</f>
         <v>4.2380952380952381</v>
       </c>
-      <c r="L125" s="52">
+      <c r="L125" s="50">
         <f>AVERAGE(L104:L124)</f>
         <v>187.95238095238096</v>
       </c>
@@ -9679,11 +9842,11 @@
         <v>0.35000000000000009</v>
       </c>
       <c r="J144" s="5"/>
-      <c r="K144" s="52">
+      <c r="K144" s="50">
         <f>AVERAGE(K127:K143)</f>
         <v>5.2352941176470589</v>
       </c>
-      <c r="L144" s="52">
+      <c r="L144" s="50">
         <f>AVERAGE(L127:L143)</f>
         <v>140.41176470588235</v>
       </c>
@@ -10673,11 +10836,11 @@
         <v>-0.80000000000000027</v>
       </c>
       <c r="J168" s="5"/>
-      <c r="K168" s="52">
+      <c r="K168" s="50">
         <f>AVERAGE(K146:K167)</f>
         <v>6.0454545454545459</v>
       </c>
-      <c r="L168" s="52">
+      <c r="L168" s="50">
         <f>AVERAGE(L146:L167)</f>
         <v>144.13636363636363</v>
       </c>
@@ -11580,11 +11743,11 @@
         <v>0.85999999999999988</v>
       </c>
       <c r="J190" s="5"/>
-      <c r="K190" s="52">
+      <c r="K190" s="50">
         <f>AVERAGE(K170:K189)</f>
         <v>3.25</v>
       </c>
-      <c r="L190" s="52">
+      <c r="L190" s="50">
         <f>AVERAGE(L170:L189)</f>
         <v>168.8</v>
       </c>
@@ -12662,11 +12825,11 @@
         <v>-0.51</v>
       </c>
       <c r="J216" s="5"/>
-      <c r="K216" s="52">
+      <c r="K216" s="50">
         <f>AVERAGE(K192:K215)</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="L216" s="52">
+      <c r="L216" s="50">
         <f>AVERAGE(L192:L215)</f>
         <v>79.958333333333329</v>
       </c>
@@ -13528,11 +13691,11 @@
         <v>0.45000000000000018</v>
       </c>
       <c r="J237" s="5"/>
-      <c r="K237" s="52">
+      <c r="K237" s="50">
         <f>AVERAGE(K218:K236)</f>
         <v>5.8947368421052628</v>
       </c>
-      <c r="L237" s="52">
+      <c r="L237" s="50">
         <f>AVERAGE(L218:L236)</f>
         <v>101.36842105263158</v>
       </c>
@@ -14350,11 +14513,11 @@
         <v>0.94</v>
       </c>
       <c r="J257" s="5"/>
-      <c r="K257" s="52">
+      <c r="K257" s="50">
         <f>AVERAGE(K239:K256)</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="L257" s="52">
+      <c r="L257" s="50">
         <f>AVERAGE(L239:L256)</f>
         <v>89.888888888888886</v>
       </c>
@@ -15344,11 +15507,11 @@
         <v>-0.82999999999999985</v>
       </c>
       <c r="J281" s="5"/>
-      <c r="K281" s="52">
+      <c r="K281" s="50">
         <f>AVERAGE(K259:K280)</f>
         <v>4.9090909090909092</v>
       </c>
-      <c r="L281" s="52">
+      <c r="L281" s="50">
         <f>AVERAGE(L259:L280)</f>
         <v>97.727272727272734</v>
       </c>
@@ -16426,11 +16589,11 @@
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="J307" s="5"/>
-      <c r="K307" s="52">
+      <c r="K307" s="50">
         <f>AVERAGE(K283:K306)</f>
         <v>4.708333333333333</v>
       </c>
-      <c r="L307" s="52">
+      <c r="L307" s="50">
         <f>AVERAGE(L283:L306)</f>
         <v>194.41666666666666</v>
       </c>
@@ -17488,11 +17651,11 @@
         <v>-1.3649999999999998</v>
       </c>
       <c r="J337" s="5"/>
-      <c r="K337" s="52">
+      <c r="K337" s="50">
         <f>AVERAGE(K309:K336)</f>
         <v>5.7757142857142858</v>
       </c>
-      <c r="L337" s="52">
+      <c r="L337" s="50">
         <f>AVERAGE(L309:L336)</f>
         <v>39.857142857142854</v>
       </c>
@@ -18567,11 +18730,11 @@
         <v>-0.27600000000000002</v>
       </c>
       <c r="J366" s="5"/>
-      <c r="K366" s="52">
+      <c r="K366" s="50">
         <f>AVERAGE(K339:K365)</f>
         <v>6.565555555555556</v>
       </c>
-      <c r="L366" s="52">
+      <c r="L366" s="50">
         <f>AVERAGE(L339:L365)</f>
         <v>54.407407407407405</v>
       </c>
@@ -19561,11 +19724,11 @@
         <v>0.62999999999999989</v>
       </c>
       <c r="J390" s="5"/>
-      <c r="K390" s="52">
+      <c r="K390" s="50">
         <f>AVERAGE(K368:K389)</f>
         <v>4.8181818181818183</v>
       </c>
-      <c r="L390" s="52">
+      <c r="L390" s="50">
         <f>AVERAGE(L368:L389)</f>
         <v>290.22727272727275</v>
       </c>
@@ -20071,11 +20234,11 @@
         <v>-0.15000000000000036</v>
       </c>
       <c r="J403" s="5"/>
-      <c r="K403" s="52">
+      <c r="K403" s="50">
         <f>AVERAGE(K392:K402)</f>
         <v>4.2727272727272725</v>
       </c>
-      <c r="L403" s="52">
+      <c r="L403" s="50">
         <f>AVERAGE(L392:L402)</f>
         <v>117.18181818181819</v>
       </c>
@@ -21197,11 +21360,11 @@
         <v>-0.96</v>
       </c>
       <c r="J430" s="5"/>
-      <c r="K430" s="52">
+      <c r="K430" s="50">
         <f>AVERAGE(K405:K429)</f>
         <v>2.96</v>
       </c>
-      <c r="L430" s="52">
+      <c r="L430" s="50">
         <f>AVERAGE(L405:L429)</f>
         <v>237.8</v>
       </c>
@@ -21927,11 +22090,11 @@
         <v>-0.56000000000000005</v>
       </c>
       <c r="J448" s="5"/>
-      <c r="K448" s="52">
+      <c r="K448" s="50">
         <f>AVERAGE(K432:K447)</f>
         <v>5.9375</v>
       </c>
-      <c r="L448" s="52">
+      <c r="L448" s="50">
         <f>AVERAGE(L432:L447)</f>
         <v>290</v>
       </c>
@@ -22613,11 +22776,11 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="J465" s="5"/>
-      <c r="K465" s="52">
+      <c r="K465" s="50">
         <f>AVERAGE(K450:K464)</f>
         <v>2.8666666666666667</v>
       </c>
-      <c r="L465" s="52">
+      <c r="L465" s="50">
         <f>AVERAGE(L456:L464)</f>
         <v>253</v>
       </c>
@@ -23211,11 +23374,11 @@
         <v>0.28000000000000025</v>
       </c>
       <c r="J480" s="5"/>
-      <c r="K480" s="52">
+      <c r="K480" s="50">
         <f>AVERAGE(K467:K479)</f>
         <v>3.8461538461538463</v>
       </c>
-      <c r="L480" s="52">
+      <c r="L480" s="50">
         <f>AVERAGE(L467:L479)</f>
         <v>111.15384615384616</v>
       </c>
@@ -23721,11 +23884,11 @@
         <v>-0.27</v>
       </c>
       <c r="J493" s="5"/>
-      <c r="K493" s="52">
+      <c r="K493" s="50">
         <f>AVERAGE(K482:K492)</f>
         <v>3</v>
       </c>
-      <c r="L493" s="52">
+      <c r="L493" s="50">
         <f>AVERAGE(L482:L492)</f>
         <v>193.45454545454547</v>
       </c>
@@ -24231,11 +24394,11 @@
         <v>-0.53</v>
       </c>
       <c r="J506" s="5"/>
-      <c r="K506" s="52">
+      <c r="K506" s="50">
         <f>AVERAGE(K495:K505)</f>
         <v>3.7272727272727271</v>
       </c>
-      <c r="L506" s="52">
+      <c r="L506" s="50">
         <f>AVERAGE(L495:L505)</f>
         <v>152.27272727272728</v>
       </c>
@@ -24873,11 +25036,11 @@
         <v>0.45999999999999996</v>
       </c>
       <c r="J522" s="5"/>
-      <c r="K522" s="52">
+      <c r="K522" s="50">
         <f>AVERAGE(K508:K521)</f>
         <v>5.5</v>
       </c>
-      <c r="L522" s="52">
+      <c r="L522" s="50">
         <f>AVERAGE(L508:L521)</f>
         <v>313.85714285714283</v>
       </c>
@@ -25427,11 +25590,11 @@
         <v>0.18000000000000016</v>
       </c>
       <c r="J536" s="5"/>
-      <c r="K536" s="52">
+      <c r="K536" s="50">
         <f>AVERAGE(K524:K535)</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="L536" s="52">
+      <c r="L536" s="50">
         <f>AVERAGE(L524:L535)</f>
         <v>301.5</v>
       </c>
@@ -25937,11 +26100,11 @@
         <v>-0.52</v>
       </c>
       <c r="J549" s="5"/>
-      <c r="K549" s="52">
+      <c r="K549" s="50">
         <f>AVERAGE(K538:K548)</f>
         <v>4.1818181818181817</v>
       </c>
-      <c r="L549" s="52">
+      <c r="L549" s="50">
         <f>AVERAGE(L538:L548)</f>
         <v>310.90909090909093</v>
       </c>
@@ -26799,11 +26962,11 @@
         <v>-0.71</v>
       </c>
       <c r="J570" s="5"/>
-      <c r="K570" s="52">
+      <c r="K570" s="50">
         <f>AVERAGE(K551:K569)</f>
         <v>2</v>
       </c>
-      <c r="L570" s="52">
+      <c r="L570" s="50">
         <f>AVERAGE(L551:L569)</f>
         <v>242.47368421052633</v>
       </c>
@@ -27529,11 +27692,11 @@
         <v>0.89000000000000012</v>
       </c>
       <c r="J588" s="5"/>
-      <c r="K588" s="52">
+      <c r="K588" s="50">
         <f>AVERAGE(K572:K587)</f>
         <v>7.1875</v>
       </c>
-      <c r="L588" s="52">
+      <c r="L588" s="50">
         <f>AVERAGE(L572:L587)</f>
         <v>304.1875</v>
       </c>
@@ -27995,11 +28158,11 @@
         <v>0.37000000000000011</v>
       </c>
       <c r="J600" s="5"/>
-      <c r="K600" s="52">
+      <c r="K600" s="50">
         <f>AVERAGE(K593:K599)</f>
         <v>5.2857142857142856</v>
       </c>
-      <c r="L600" s="52">
+      <c r="L600" s="50">
         <f>AVERAGE(L593:L599)</f>
         <v>260.28571428571428</v>
       </c>
@@ -28052,13 +28215,13 @@
       <c r="A1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
-    <sheet name="Matrix" sheetId="1" r:id="rId2"/>
-    <sheet name="NDBC NSTP6 timeseries data" sheetId="5" r:id="rId3"/>
-    <sheet name="NDBC NSTP6 data UTC no water le" sheetId="3" r:id="rId4"/>
+    <sheet name="EndmemberDefn" sheetId="6" r:id="rId2"/>
+    <sheet name="Matrix" sheetId="1" r:id="rId3"/>
+    <sheet name="NDBC NSTP6 timeseries data" sheetId="5" r:id="rId4"/>
+    <sheet name="NDBC NSTP6 data UTC no water le" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="150">
   <si>
     <t>Swell</t>
   </si>
@@ -436,6 +437,48 @@
   <si>
     <t>tide</t>
   </si>
+  <si>
+    <t>End member</t>
+  </si>
+  <si>
+    <t>Julian Day</t>
+  </si>
+  <si>
+    <t>Gregorian Day (UTC)</t>
+  </si>
+  <si>
+    <t>Gregorian Day (Local)</t>
+  </si>
+  <si>
+    <t>Tide/Calm</t>
+  </si>
+  <si>
+    <t>50-51</t>
+  </si>
+  <si>
+    <t>2/19-2/20</t>
+  </si>
+  <si>
+    <t>2/18-2/19</t>
+  </si>
+  <si>
+    <t>47-49</t>
+  </si>
+  <si>
+    <t>2/16-2/18</t>
+  </si>
+  <si>
+    <t>2/15-2/17</t>
+  </si>
+  <si>
+    <t>52-55</t>
+  </si>
+  <si>
+    <t>2/21-2/24</t>
+  </si>
+  <si>
+    <t>2/20-2/23</t>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -912,12 +955,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1157,9 +1237,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1183,6 +1260,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2021,18 +2113,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="4" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
@@ -2082,7 +2175,7 @@
       <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="102" t="s">
         <v>131</v>
       </c>
       <c r="E2" s="83" t="s">
@@ -2132,10 +2225,10 @@
       <c r="A3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="98">
+      <c r="C3" s="97">
         <v>1</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="103">
         <v>19</v>
       </c>
       <c r="E3" s="84">
@@ -2189,11 +2282,11 @@
       <c r="A4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="98">
         <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="D4" s="104">
+      <c r="D4" s="103">
         <v>20</v>
       </c>
       <c r="E4" s="85">
@@ -2247,11 +2340,11 @@
       <c r="A5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="98">
         <f>C4+1</f>
         <v>3</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="103">
         <v>20</v>
       </c>
       <c r="E5" s="85">
@@ -2305,11 +2398,11 @@
       <c r="A6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="98">
         <f t="shared" ref="C6:C32" si="1">C5+1</f>
         <v>4</v>
       </c>
-      <c r="D6" s="104">
+      <c r="D6" s="103">
         <v>32</v>
       </c>
       <c r="E6" s="85">
@@ -2361,11 +2454,11 @@
       <c r="A7" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="98">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="103">
         <v>32</v>
       </c>
       <c r="E7" s="85">
@@ -2417,11 +2510,11 @@
       <c r="A8" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="98">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="103">
         <v>32</v>
       </c>
       <c r="E8" s="85">
@@ -2473,11 +2566,11 @@
       <c r="A9" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="98">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="103">
         <v>39</v>
       </c>
       <c r="E9" s="85">
@@ -2534,11 +2627,11 @@
       <c r="A10" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="98">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="103">
         <v>39</v>
       </c>
       <c r="E10" s="85">
@@ -2598,11 +2691,11 @@
       <c r="B11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="98">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="103">
         <v>47</v>
       </c>
       <c r="E11" s="85">
@@ -2662,11 +2755,11 @@
       <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="98">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="103">
         <v>48</v>
       </c>
       <c r="E12" s="85">
@@ -2726,11 +2819,11 @@
       <c r="B13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="98">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="103">
         <v>48</v>
       </c>
       <c r="E13" s="85">
@@ -2790,11 +2883,11 @@
       <c r="B14" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="98">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="103">
         <v>48</v>
       </c>
       <c r="E14" s="85">
@@ -2854,11 +2947,11 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="99">
+      <c r="C15" s="98">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="103">
         <v>49</v>
       </c>
       <c r="E15" s="85">
@@ -2918,11 +3011,11 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="99">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="103">
         <v>49</v>
       </c>
       <c r="E16" s="86">
@@ -2982,11 +3075,11 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="99">
+      <c r="C17" s="98">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="103">
         <v>50</v>
       </c>
       <c r="E17" s="85">
@@ -3043,11 +3136,11 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="98">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="103">
         <v>50</v>
       </c>
       <c r="E18" s="85">
@@ -3104,11 +3197,11 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="99">
+      <c r="C19" s="98">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="103">
         <v>51</v>
       </c>
       <c r="E19" s="85">
@@ -3165,11 +3258,11 @@
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="98">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="103">
         <v>51</v>
       </c>
       <c r="E20" s="85">
@@ -3226,11 +3319,11 @@
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="98">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="103">
         <v>51</v>
       </c>
       <c r="E21" s="85">
@@ -3287,11 +3380,11 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="98">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="103">
         <v>51</v>
       </c>
       <c r="E22" s="85">
@@ -3348,11 +3441,11 @@
       <c r="B23" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="98">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="103">
         <v>52</v>
       </c>
       <c r="E23" s="85">
@@ -3409,11 +3502,11 @@
       <c r="B24" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="98">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="103">
         <v>52</v>
       </c>
       <c r="E24" s="85">
@@ -3470,11 +3563,11 @@
       <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="100">
+      <c r="C25" s="99">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="103">
         <v>52</v>
       </c>
       <c r="E25" s="86">
@@ -3531,11 +3624,11 @@
       <c r="B26" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="99">
+      <c r="C26" s="98">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="103">
         <v>52</v>
       </c>
       <c r="E26" s="85">
@@ -3592,11 +3685,11 @@
       <c r="B27" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="99">
+      <c r="C27" s="98">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="103">
         <v>53</v>
       </c>
       <c r="E27" s="85">
@@ -3653,11 +3746,11 @@
       <c r="B28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="99">
+      <c r="C28" s="98">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="103">
         <v>53</v>
       </c>
       <c r="E28" s="85">
@@ -3714,11 +3807,11 @@
       <c r="B29" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="99">
+      <c r="C29" s="98">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="103">
         <v>53</v>
       </c>
       <c r="E29" s="85">
@@ -3775,11 +3868,11 @@
       <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="99">
+      <c r="C30" s="98">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="103">
         <v>53</v>
       </c>
       <c r="E30" s="85">
@@ -3836,11 +3929,11 @@
       <c r="B31" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="98">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="103">
         <v>54</v>
       </c>
       <c r="E31" s="85">
@@ -3897,14 +3990,14 @@
       <c r="B32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="100">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D32" s="105">
+      <c r="D32" s="104">
         <v>54</v>
       </c>
-      <c r="E32" s="102">
+      <c r="E32" s="101">
         <v>41693</v>
       </c>
       <c r="F32" s="91">
@@ -3968,6 +4061,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -4311,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y600"/>
   <sheetViews>
@@ -4343,11 +4511,11 @@
       <c r="A1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -28184,7 +28352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
@@ -28215,13 +28383,13 @@
       <c r="A1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -423,9 +423,6 @@
     <t>*only drifters D1,D3,D4,D5-D1 has some weird issue in the middle of it</t>
   </si>
   <si>
-    <t>Julian(local)</t>
-  </si>
-  <si>
     <t>EndMember</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
   </si>
   <si>
     <t>End member</t>
-  </si>
-  <si>
-    <t>Julian Day</t>
   </si>
   <si>
     <t>Gregorian Day (UTC)</t>
@@ -478,6 +472,12 @@
   </si>
   <si>
     <t>2/20-2/23</t>
+  </si>
+  <si>
+    <t>Year Day 2014</t>
+  </si>
+  <si>
+    <t>Year Day 2014 (local)</t>
   </si>
 </sst>
 </file>
@@ -1261,9 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1275,6 +1272,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2113,11 +2113,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E2" s="83" t="s">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="97">
         <v>1</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="98">
         <f>C3+1</f>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="98">
         <f>C4+1</f>
@@ -2686,10 +2686,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="98">
         <f t="shared" si="1"/>
@@ -2753,7 +2753,7 @@
         <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="98">
         <f t="shared" si="1"/>
@@ -2817,7 +2817,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="98">
         <f t="shared" si="1"/>
@@ -2881,7 +2881,7 @@
         <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="98">
         <f t="shared" si="1"/>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="98">
         <f t="shared" si="1"/>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="98">
         <f t="shared" si="1"/>
@@ -3558,10 +3558,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" s="99">
         <f t="shared" si="1"/>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="98">
         <f t="shared" si="1"/>
@@ -3683,7 +3683,7 @@
         <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="98">
         <f t="shared" si="1"/>
@@ -3744,7 +3744,7 @@
         <v>127</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="98">
         <f t="shared" si="1"/>
@@ -3805,7 +3805,7 @@
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="98">
         <f t="shared" si="1"/>
@@ -3866,7 +3866,7 @@
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" s="98">
         <f t="shared" si="1"/>
@@ -3927,7 +3927,7 @@
         <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="98">
         <f t="shared" si="1"/>
@@ -3988,7 +3988,7 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C32" s="100">
         <f t="shared" si="1"/>
@@ -4064,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4073,60 +4073,60 @@
     <col min="1" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="D1" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="107" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="B2" s="108" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="C2" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="D2" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="109" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="C3" s="108" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="D3" s="108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="109" t="s">
+      <c r="B4" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="109" t="s">
+      <c r="D4" s="108" t="s">
         <v>147</v>
-      </c>
-      <c r="C4" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4511,11 +4511,11 @@
       <c r="A1" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -28383,13 +28383,13 @@
       <c r="A1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="156">
   <si>
     <t>Swell</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>rising</t>
-  </si>
-  <si>
-    <t>Wave Period</t>
   </si>
   <si>
     <t>Start Time</t>
@@ -216,15 +213,6 @@
     <t>local end time (UTC-11)</t>
   </si>
   <si>
-    <t>Tide Start</t>
-  </si>
-  <si>
-    <t>Tide End</t>
-  </si>
-  <si>
-    <t>Tide movement</t>
-  </si>
-  <si>
     <t>Tide Data from NSTP6</t>
   </si>
   <si>
@@ -294,19 +282,7 @@
     <t>Stats:</t>
   </si>
   <si>
-    <t>Wind Speed Avg</t>
-  </si>
-  <si>
-    <t>Wind Direction Avg</t>
-  </si>
-  <si>
-    <t>Wind Gust Max</t>
-  </si>
-  <si>
     <t>1-2</t>
-  </si>
-  <si>
-    <t>Wave Height(m)</t>
   </si>
   <si>
     <t>0-2m</t>
@@ -479,6 +455,48 @@
   <si>
     <t>Year Day 2014 (local)</t>
   </si>
+  <si>
+    <t>Wind Direction Avg deg</t>
+  </si>
+  <si>
+    <t>Wave Period sec</t>
+  </si>
+  <si>
+    <t>Tide Start ft</t>
+  </si>
+  <si>
+    <t>Tide End ft</t>
+  </si>
+  <si>
+    <t>Tide movement ft</t>
+  </si>
+  <si>
+    <t>Wind Speed Avg kts</t>
+  </si>
+  <si>
+    <t>Wind Gust Max kts</t>
+  </si>
+  <si>
+    <t>Wave Height ft</t>
+  </si>
+  <si>
+    <t>Wave Height m</t>
+  </si>
+  <si>
+    <t>0-0.3</t>
+  </si>
+  <si>
+    <t>0.3-0.6</t>
+  </si>
+  <si>
+    <t>0.6-1.3</t>
+  </si>
+  <si>
+    <t>0.0-0.6</t>
+  </si>
+  <si>
+    <t>1.0-2.0</t>
+  </si>
 </sst>
 </file>
 
@@ -576,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -992,12 +1010,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1274,6 +1305,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2111,13 +2154,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,98 +2175,102 @@
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="13" width="16.140625" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="31" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="102" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E2" s="83" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="17" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C3" s="97">
         <v>1</v>
@@ -2268,19 +2315,22 @@
         <v>3.6</v>
       </c>
       <c r="O3" s="74" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C4" s="98">
         <f>C3+1</f>
@@ -2325,20 +2375,23 @@
         <f>'NDBC NSTP6 timeseries data'!M43</f>
         <v>7</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O4" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C5" s="98">
         <f>C4+1</f>
@@ -2383,20 +2436,23 @@
         <f>'NDBC NSTP6 timeseries data'!M61</f>
         <v>10</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="15" t="s">
+      <c r="O5" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="75" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C6" s="98">
         <f t="shared" ref="C6:C32" si="1">C5+1</f>
@@ -2439,20 +2495,23 @@
         <f>'NDBC NSTP6 timeseries data'!M84</f>
         <v>11.08</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="75" t="s">
+      <c r="P6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C7" s="98">
         <f t="shared" si="1"/>
@@ -2495,20 +2554,23 @@
         <f>'NDBC NSTP6 timeseries data'!M102</f>
         <v>13</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C8" s="98">
         <f t="shared" si="1"/>
@@ -2551,20 +2613,23 @@
         <f>'NDBC NSTP6 timeseries data'!M125</f>
         <v>13</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C9" s="98">
         <f t="shared" si="1"/>
@@ -2609,23 +2674,26 @@
         <f>'NDBC NSTP6 timeseries data'!M144</f>
         <v>18</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C10" s="98">
         <f t="shared" si="1"/>
@@ -2670,26 +2738,29 @@
         <f>'NDBC NSTP6 timeseries data'!M168</f>
         <v>20</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C11" s="98">
         <f t="shared" si="1"/>
@@ -2734,26 +2805,29 @@
         <f>'NDBC NSTP6 timeseries data'!M190</f>
         <v>9</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O11" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C12" s="98">
         <f t="shared" si="1"/>
@@ -2798,26 +2872,29 @@
         <f>'NDBC NSTP6 timeseries data'!M216</f>
         <v>28</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C13" s="98">
         <f t="shared" si="1"/>
@@ -2862,26 +2939,29 @@
         <f>'NDBC NSTP6 timeseries data'!M237</f>
         <v>20</v>
       </c>
-      <c r="O13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C14" s="98">
         <f t="shared" si="1"/>
@@ -2926,23 +3006,26 @@
         <f>'NDBC NSTP6 timeseries data'!M257</f>
         <v>15</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2990,23 +3073,26 @@
         <f>'NDBC NSTP6 timeseries data'!M281</f>
         <v>14</v>
       </c>
-      <c r="O15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O15" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -3040,7 +3126,7 @@
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="K16" s="77" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L16" s="79">
         <f>'NDBC NSTP6 timeseries data'!K307</f>
@@ -3054,23 +3140,26 @@
         <f>'NDBC NSTP6 timeseries data'!M307</f>
         <v>15</v>
       </c>
-      <c r="O16" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="89" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="88" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O16" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -3118,20 +3207,23 @@
         <f>'NDBC NSTP6 timeseries data'!M337</f>
         <v>11.47</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" s="89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O17" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -3179,20 +3271,23 @@
         <f>'NDBC NSTP6 timeseries data'!M366</f>
         <v>14.77</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O18" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -3240,20 +3335,23 @@
         <f>'NDBC NSTP6 timeseries data'!M390</f>
         <v>13</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O19" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -3301,20 +3399,23 @@
         <f>'NDBC NSTP6 timeseries data'!M403</f>
         <v>11</v>
       </c>
-      <c r="O20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20" s="89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O20" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -3362,20 +3463,23 @@
         <f>'NDBC NSTP6 timeseries data'!M430</f>
         <v>12</v>
       </c>
-      <c r="O21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O21" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -3423,23 +3527,26 @@
         <f>'NDBC NSTP6 timeseries data'!M448</f>
         <v>13</v>
       </c>
-      <c r="O22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O22" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C23" s="98">
         <f t="shared" si="1"/>
@@ -3484,23 +3591,26 @@
         <f>'NDBC NSTP6 timeseries data'!M465</f>
         <v>11</v>
       </c>
-      <c r="O23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23" s="89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O23" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C24" s="98">
         <f t="shared" si="1"/>
@@ -3546,22 +3656,25 @@
         <v>11</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C25" s="99">
         <f t="shared" si="1"/>
@@ -3607,22 +3720,25 @@
         <v>16</v>
       </c>
       <c r="O25" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="R25" s="89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C26" s="98">
         <f t="shared" si="1"/>
@@ -3668,22 +3784,25 @@
         <v>11</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C27" s="98">
         <f t="shared" si="1"/>
@@ -3729,22 +3848,25 @@
         <v>14</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C28" s="98">
         <f t="shared" si="1"/>
@@ -3790,22 +3912,25 @@
         <v>12</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C29" s="98">
         <f t="shared" si="1"/>
@@ -3851,22 +3976,25 @@
         <v>10</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C30" s="98">
         <f t="shared" si="1"/>
@@ -3912,22 +4040,25 @@
         <v>10</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C31" s="98">
         <f t="shared" si="1"/>
@@ -3973,22 +4104,25 @@
         <v>15</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C32" s="100">
         <f t="shared" si="1"/>
@@ -4034,14 +4168,17 @@
         <v>11</v>
       </c>
       <c r="O32" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32" s="96" t="s">
-        <v>11</v>
+        <v>92</v>
+      </c>
+      <c r="P32" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="96" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4075,58 +4212,58 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C1" s="106" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D1" s="106" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="107" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C2" s="108" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="107" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C3" s="108" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3" s="108" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="107" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +4295,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4166,43 +4303,43 @@
       <c r="B2" s="21"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
       <c r="I2" s="52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4211,14 +4348,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="57"/>
       <c r="H4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -4228,48 +4365,48 @@
       <c r="A5" s="55"/>
       <c r="B5" s="56"/>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G5" s="57"/>
       <c r="H5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="61" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="16" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4288,43 +4425,43 @@
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
       <c r="I8" s="52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="68"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4333,14 +4470,14 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="57"/>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -4350,51 +4487,51 @@
       <c r="A11" s="55"/>
       <c r="B11" s="56"/>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="58" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
       <c r="B12" s="60"/>
       <c r="C12" s="61" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="62" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G12" s="63"/>
       <c r="H12" s="61" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K12" s="69" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <f>COUNTIF(Table!K3:K32,"rising")</f>
@@ -4403,30 +4540,30 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <f>COUNTIF(Table!K3:K32,"falling")</f>
         <v>15</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -4484,10 +4621,10 @@
   <dimension ref="A1:Y600"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C583" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N605" sqref="N605"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4509,7 +4646,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="109"/>
       <c r="F1" s="109"/>
@@ -4519,42 +4656,42 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F2" s="36"/>
       <c r="G2" s="40"/>
       <c r="H2" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="P2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>74</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
@@ -4567,53 +4704,53 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="36" t="s">
+      <c r="Q3" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>84</v>
       </c>
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
@@ -4872,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11">
         <v>2.1</v>
@@ -4934,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -5151,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M20">
         <v>2.1</v>
@@ -5244,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M23">
         <v>2.1</v>
@@ -5274,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M24">
         <v>2.6</v>
@@ -5288,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I25" s="5">
         <f>I24-I4</f>
@@ -5327,7 +5464,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H27" s="29">
         <v>0.46</v>
@@ -5371,7 +5508,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H28" s="29">
         <v>0.45</v>
@@ -5415,7 +5552,7 @@
         <v>0.67499999999999993</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H29" s="29">
         <v>0.45</v>
@@ -5459,7 +5596,7 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H30" s="29">
         <v>0.45</v>
@@ -5503,7 +5640,7 @@
         <v>0.68333333333333324</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H31" s="29">
         <v>0.46</v>
@@ -5547,7 +5684,7 @@
         <v>0.6875</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H32" s="29">
         <v>0.47</v>
@@ -5591,7 +5728,7 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H33" s="29">
         <v>0.48</v>
@@ -5635,7 +5772,7 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H34" s="29">
         <v>0.49</v>
@@ -5679,7 +5816,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H35" s="29">
         <v>0.5</v>
@@ -5723,7 +5860,7 @@
         <v>0.70416666666666661</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" s="29">
         <v>0.52</v>
@@ -5767,7 +5904,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H37" s="29">
         <v>0.53</v>
@@ -5811,7 +5948,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H38" s="29">
         <v>0.55000000000000004</v>
@@ -5855,7 +5992,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H39" s="29">
         <v>0.57999999999999996</v>
@@ -5899,7 +6036,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H40" s="29">
         <v>0.6</v>
@@ -5943,7 +6080,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H41" s="29">
         <v>0.63</v>
@@ -5987,7 +6124,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H42" s="29">
         <v>0.66</v>
@@ -6025,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I43" s="5">
         <f>I42-I27</f>
@@ -6064,7 +6201,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H45">
         <v>0.66</v>
@@ -6108,7 +6245,7 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H46">
         <v>0.69</v>
@@ -6152,7 +6289,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H47">
         <v>0.72</v>
@@ -6196,7 +6333,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H48">
         <v>0.75</v>
@@ -6240,7 +6377,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H49">
         <v>0.79</v>
@@ -6284,7 +6421,7 @@
         <v>0.75</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H50">
         <v>0.82</v>
@@ -6328,7 +6465,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H51">
         <v>0.86</v>
@@ -6372,7 +6509,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H52">
         <v>0.9</v>
@@ -6416,7 +6553,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H53">
         <v>0.94</v>
@@ -6460,7 +6597,7 @@
         <v>0.76666666666666661</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H54">
         <v>0.98</v>
@@ -6504,7 +6641,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H55">
         <v>1.02</v>
@@ -6548,7 +6685,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H56">
         <v>1.07</v>
@@ -6592,7 +6729,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H57">
         <v>1.1100000000000001</v>
@@ -6636,7 +6773,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="G58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H58">
         <v>1.1599999999999999</v>
@@ -6680,7 +6817,7 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H59">
         <v>1.2</v>
@@ -6724,7 +6861,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H60">
         <v>1.25</v>
@@ -6762,7 +6899,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I61" s="5">
         <f>I60-I45</f>
@@ -7521,7 +7658,7 @@
         <v>4</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -7562,7 +7699,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H86">
         <v>1.43</v>
@@ -7606,7 +7743,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="G87" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H87">
         <v>1.34</v>
@@ -7650,7 +7787,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H88">
         <v>1.24</v>
@@ -7694,7 +7831,7 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="G89" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H89">
         <v>1.1499999999999999</v>
@@ -7738,7 +7875,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="G90" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H90">
         <v>1.06</v>
@@ -7782,7 +7919,7 @@
         <v>0.5</v>
       </c>
       <c r="G91" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H91">
         <v>0.97</v>
@@ -7826,7 +7963,7 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="G92" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H92">
         <v>0.88</v>
@@ -7870,7 +8007,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="G93" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H93">
         <v>0.79</v>
@@ -7914,7 +8051,7 @@
         <v>0.51250000000000007</v>
       </c>
       <c r="G94" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H94">
         <v>0.7</v>
@@ -7958,7 +8095,7 @@
         <v>0.51666666666666672</v>
       </c>
       <c r="G95" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H95">
         <v>0.62</v>
@@ -8002,7 +8139,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="G96" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H96">
         <v>0.54</v>
@@ -8046,7 +8183,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H97">
         <v>0.45</v>
@@ -8090,7 +8227,7 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="G98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H98">
         <v>0.37</v>
@@ -8134,7 +8271,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="G99" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H99">
         <v>0.3</v>
@@ -8178,7 +8315,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G100" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H100">
         <v>0.22</v>
@@ -8222,7 +8359,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G101" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H101">
         <v>0.15</v>
@@ -8260,7 +8397,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -8301,7 +8438,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G104" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H104">
         <v>0.68</v>
@@ -8345,7 +8482,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="G105" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H105">
         <v>0.77</v>
@@ -8389,7 +8526,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="G106" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H106">
         <v>0.86</v>
@@ -8433,7 +8570,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="G107" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H107">
         <v>0.95</v>
@@ -8477,7 +8614,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G108" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H108">
         <v>1.04</v>
@@ -8521,7 +8658,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H109">
         <v>1.1399999999999999</v>
@@ -8565,7 +8702,7 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H110">
         <v>1.23</v>
@@ -8609,7 +8746,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G111" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H111">
         <v>1.32</v>
@@ -8653,7 +8790,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G112" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H112">
         <v>1.42</v>
@@ -8697,7 +8834,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="G113" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H113">
         <v>1.51</v>
@@ -8741,7 +8878,7 @@
         <v>0.75</v>
       </c>
       <c r="G114" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H114">
         <v>1.61</v>
@@ -8785,7 +8922,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="G115" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H115">
         <v>1.7</v>
@@ -8829,7 +8966,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="G116" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H116">
         <v>1.79</v>
@@ -8873,7 +9010,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="G117" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H117">
         <v>1.89</v>
@@ -8917,7 +9054,7 @@
         <v>0.76666666666666661</v>
       </c>
       <c r="G118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H118">
         <v>1.98</v>
@@ -8961,7 +9098,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="G119" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H119">
         <v>2.0699999999999998</v>
@@ -9005,7 +9142,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H120">
         <v>2.16</v>
@@ -9049,7 +9186,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="G121" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H121">
         <v>2.2400000000000002</v>
@@ -9093,7 +9230,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="G122" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H122">
         <v>2.3199999999999998</v>
@@ -9137,7 +9274,7 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="G123" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H123">
         <v>2.41</v>
@@ -9181,7 +9318,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="G124" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H124">
         <v>2.48</v>
@@ -9216,7 +9353,7 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D125" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -9260,7 +9397,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="G127" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H127">
         <v>2.29</v>
@@ -9304,7 +9441,7 @@
         <v>0.59583333333333333</v>
       </c>
       <c r="G128" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H128">
         <v>2.3199999999999998</v>
@@ -9348,7 +9485,7 @@
         <v>0.6</v>
       </c>
       <c r="G129" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H129">
         <v>2.35</v>
@@ -9392,7 +9529,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="G130" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H130">
         <v>2.38</v>
@@ -9436,7 +9573,7 @@
         <v>0.60833333333333328</v>
       </c>
       <c r="G131" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H131">
         <v>2.4</v>
@@ -9480,7 +9617,7 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="G132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H132">
         <v>2.4300000000000002</v>
@@ -9524,7 +9661,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G133" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H133">
         <v>2.4500000000000002</v>
@@ -9568,7 +9705,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="G134" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H134">
         <v>2.46</v>
@@ -9612,7 +9749,7 @@
         <v>0.625</v>
       </c>
       <c r="G135" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H135">
         <v>2.48</v>
@@ -9656,7 +9793,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="G136" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H136">
         <v>2.4900000000000002</v>
@@ -9700,7 +9837,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G137" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H137">
         <v>2.5</v>
@@ -9744,7 +9881,7 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="G138" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H138">
         <v>2.5</v>
@@ -9788,7 +9925,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G139" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H139">
         <v>2.5099999999999998</v>
@@ -9832,7 +9969,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G140" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H140">
         <v>2.5099999999999998</v>
@@ -9876,7 +10013,7 @@
         <v>0.65</v>
       </c>
       <c r="G141" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H141">
         <v>2.5099999999999998</v>
@@ -9920,7 +10057,7 @@
         <v>0.65416666666666667</v>
       </c>
       <c r="G142" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H142">
         <v>2.5</v>
@@ -9964,7 +10101,7 @@
         <v>0.65833333333333333</v>
       </c>
       <c r="G143" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H143">
         <v>2.4900000000000002</v>
@@ -9999,7 +10136,7 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D144" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
@@ -10034,7 +10171,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G146" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H146">
         <v>2.4700000000000002</v>
@@ -10078,7 +10215,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="G147" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H147">
         <v>2.46</v>
@@ -10122,7 +10259,7 @@
         <v>0.67499999999999993</v>
       </c>
       <c r="G148" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H148">
         <v>2.44</v>
@@ -10166,7 +10303,7 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="G149" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H149">
         <v>2.42</v>
@@ -10210,7 +10347,7 @@
         <v>0.68333333333333324</v>
       </c>
       <c r="G150" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H150">
         <v>2.39</v>
@@ -10254,7 +10391,7 @@
         <v>0.6875</v>
       </c>
       <c r="G151" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H151">
         <v>2.36</v>
@@ -10298,7 +10435,7 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="G152" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H152">
         <v>2.34</v>
@@ -10342,7 +10479,7 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="G153" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H153">
         <v>2.2999999999999998</v>
@@ -10386,7 +10523,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G154" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H154">
         <v>2.27</v>
@@ -10430,7 +10567,7 @@
         <v>0.70416666666666661</v>
       </c>
       <c r="G155" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H155">
         <v>2.2400000000000002</v>
@@ -10474,7 +10611,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G156" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H156">
         <v>2.2000000000000002</v>
@@ -10518,7 +10655,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="G157" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H157">
         <v>2.16</v>
@@ -10562,7 +10699,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="G158" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H158">
         <v>2.11</v>
@@ -10606,7 +10743,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="G159" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H159">
         <v>2.0699999999999998</v>
@@ -10650,7 +10787,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G160" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H160">
         <v>2.02</v>
@@ -10694,7 +10831,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G161" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H161">
         <v>1.98</v>
@@ -10738,7 +10875,7 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="G162" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H162">
         <v>1.93</v>
@@ -10782,7 +10919,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G163" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H163">
         <v>1.88</v>
@@ -10826,7 +10963,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G164" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H164">
         <v>1.83</v>
@@ -10870,7 +11007,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="G165" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H165">
         <v>1.77</v>
@@ -10914,7 +11051,7 @@
         <v>0.75</v>
       </c>
       <c r="G166" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H166">
         <v>1.72</v>
@@ -10958,7 +11095,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="G167" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H167">
         <v>1.66</v>
@@ -10993,7 +11130,7 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D168" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -11028,7 +11165,7 @@
         <v>0.70416666666666661</v>
       </c>
       <c r="G170" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H170">
         <v>1.49</v>
@@ -11072,7 +11209,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G171" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H171">
         <v>1.55</v>
@@ -11116,7 +11253,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="G172" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H172">
         <v>1.61</v>
@@ -11160,7 +11297,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="G173" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H173">
         <v>1.67</v>
@@ -11205,7 +11342,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="G174" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H174" s="29">
         <v>1.73</v>
@@ -11249,7 +11386,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G175" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H175">
         <v>1.79</v>
@@ -11293,7 +11430,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G176" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H176">
         <v>1.85</v>
@@ -11337,7 +11474,7 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="G177" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H177">
         <v>1.9</v>
@@ -11381,7 +11518,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G178" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H178">
         <v>1.96</v>
@@ -11425,7 +11562,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G179" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H179">
         <v>2.0099999999999998</v>
@@ -11469,7 +11606,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="G180" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H180">
         <v>2.06</v>
@@ -11513,7 +11650,7 @@
         <v>0.75</v>
       </c>
       <c r="G181" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H181">
         <v>2.11</v>
@@ -11557,7 +11694,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="G182" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H182">
         <v>2.16</v>
@@ -11601,7 +11738,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="G183" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H183">
         <v>2.21</v>
@@ -11645,7 +11782,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="G184" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H184">
         <v>2.25</v>
@@ -11689,7 +11826,7 @@
         <v>0.76666666666666661</v>
       </c>
       <c r="G185" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H185">
         <v>2.29</v>
@@ -11733,7 +11870,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="G186" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H186">
         <v>2.33</v>
@@ -11777,7 +11914,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G187" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H187">
         <v>2.37</v>
@@ -11821,7 +11958,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="G188" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H188">
         <v>2.41</v>
@@ -11865,7 +12002,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="G189" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H189">
         <v>2.44</v>
@@ -11900,7 +12037,7 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D190" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
@@ -11935,7 +12072,7 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="G192" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H192">
         <v>0.88</v>
@@ -11979,7 +12116,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="G193" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H193">
         <v>0.83</v>
@@ -12023,7 +12160,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G194" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H194">
         <v>0.78</v>
@@ -12067,7 +12204,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G195" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H195">
         <v>0.73</v>
@@ -12111,7 +12248,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="G196" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H196">
         <v>0.69</v>
@@ -12155,7 +12292,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="G197" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H197">
         <v>0.65</v>
@@ -12199,7 +12336,7 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="G198" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H198">
         <v>0.6</v>
@@ -12243,7 +12380,7 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="G199" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H199">
         <v>0.56000000000000005</v>
@@ -12287,7 +12424,7 @@
         <v>0.5625</v>
       </c>
       <c r="G200" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H200">
         <v>0.53</v>
@@ -12331,7 +12468,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="G201" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H201">
         <v>0.49</v>
@@ -12375,7 +12512,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="G202" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H202">
         <v>0.46</v>
@@ -12419,7 +12556,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="G203" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H203">
         <v>0.42</v>
@@ -12463,7 +12600,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G204" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H204">
         <v>0.4</v>
@@ -12507,7 +12644,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G205" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H205">
         <v>0.37</v>
@@ -12551,7 +12688,7 @@
         <v>0.58750000000000002</v>
       </c>
       <c r="G206" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H206">
         <v>0.35</v>
@@ -12595,7 +12732,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="G207" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H207">
         <v>0.32</v>
@@ -12639,7 +12776,7 @@
         <v>0.59583333333333333</v>
       </c>
       <c r="G208" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H208">
         <v>0.31</v>
@@ -12683,7 +12820,7 @@
         <v>0.6</v>
       </c>
       <c r="G209" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H209">
         <v>0.28999999999999998</v>
@@ -12727,7 +12864,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="G210" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H210">
         <v>0.28000000000000003</v>
@@ -12771,7 +12908,7 @@
         <v>0.60833333333333328</v>
       </c>
       <c r="G211" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H211">
         <v>0.27</v>
@@ -12815,7 +12952,7 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="G212" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H212">
         <v>0.26</v>
@@ -12859,7 +12996,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G213" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H213">
         <v>0.25</v>
@@ -12903,7 +13040,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="G214" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H214">
         <v>0.25</v>
@@ -12947,7 +13084,7 @@
         <v>0.625</v>
       </c>
       <c r="G215" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H215">
         <v>0.25</v>
@@ -12982,7 +13119,7 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D216" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
@@ -13021,7 +13158,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="G218" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H218">
         <v>0.26</v>
@@ -13065,7 +13202,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G219" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H219">
         <v>0.26</v>
@@ -13109,7 +13246,7 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="G220" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H220">
         <v>0.27</v>
@@ -13153,7 +13290,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G221" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H221">
         <v>0.28000000000000003</v>
@@ -13197,7 +13334,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G222" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H222">
         <v>0.3</v>
@@ -13241,7 +13378,7 @@
         <v>0.65</v>
       </c>
       <c r="G223" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H223">
         <v>0.32</v>
@@ -13285,7 +13422,7 @@
         <v>0.65416666666666667</v>
       </c>
       <c r="G224" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H224">
         <v>0.34</v>
@@ -13329,7 +13466,7 @@
         <v>0.65833333333333333</v>
       </c>
       <c r="G225" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H225">
         <v>0.36</v>
@@ -13373,7 +13510,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="G226" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H226">
         <v>0.39</v>
@@ -13417,7 +13554,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G227" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H227">
         <v>0.41</v>
@@ -13461,7 +13598,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="G228" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H228">
         <v>0.44</v>
@@ -13505,7 +13642,7 @@
         <v>0.67499999999999993</v>
       </c>
       <c r="G229" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H229">
         <v>0.48</v>
@@ -13549,7 +13686,7 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="G230" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H230">
         <v>0.51</v>
@@ -13593,7 +13730,7 @@
         <v>0.68333333333333324</v>
       </c>
       <c r="G231" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H231">
         <v>0.55000000000000004</v>
@@ -13637,7 +13774,7 @@
         <v>0.6875</v>
       </c>
       <c r="G232" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H232">
         <v>0.59</v>
@@ -13681,7 +13818,7 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="G233" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H233">
         <v>0.63</v>
@@ -13725,7 +13862,7 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="G234" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H234">
         <v>0.67</v>
@@ -13769,7 +13906,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G235" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H235">
         <v>0.71</v>
@@ -13813,7 +13950,7 @@
         <v>0.70416666666666661</v>
       </c>
       <c r="G236" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H236">
         <v>0.76</v>
@@ -13848,7 +13985,7 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D237" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -13887,7 +14024,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G239" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H239">
         <v>0.81</v>
@@ -13931,7 +14068,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="G240" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H240">
         <v>0.86</v>
@@ -13975,7 +14112,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="G241" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H241">
         <v>0.91</v>
@@ -14019,7 +14156,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="G242" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H242">
         <v>0.96</v>
@@ -14063,7 +14200,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G243" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H243">
         <v>1.01</v>
@@ -14107,7 +14244,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G244" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H244">
         <v>1.06</v>
@@ -14151,7 +14288,7 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="G245" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H245">
         <v>1.1200000000000001</v>
@@ -14195,7 +14332,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G246" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H246">
         <v>1.17</v>
@@ -14239,7 +14376,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G247" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H247">
         <v>1.23</v>
@@ -14283,7 +14420,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="G248" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H248">
         <v>1.28</v>
@@ -14327,7 +14464,7 @@
         <v>0.75</v>
       </c>
       <c r="G249" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H249">
         <v>1.34</v>
@@ -14371,7 +14508,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="G250" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H250">
         <v>1.39</v>
@@ -14415,7 +14552,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="G251" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H251">
         <v>1.45</v>
@@ -14459,7 +14596,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="G252" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H252">
         <v>1.5</v>
@@ -14503,7 +14640,7 @@
         <v>0.76666666666666661</v>
       </c>
       <c r="G253" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H253">
         <v>1.56</v>
@@ -14547,7 +14684,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="G254" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H254">
         <v>1.61</v>
@@ -14591,7 +14728,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G255" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H255">
         <v>1.66</v>
@@ -14635,7 +14772,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="G256" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H256">
         <v>1.72</v>
@@ -14670,7 +14807,7 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D257" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
@@ -14705,7 +14842,7 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="G259" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H259">
         <v>1.3</v>
@@ -14749,7 +14886,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="G260" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H260">
         <v>1.24</v>
@@ -14793,7 +14930,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G261" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H261">
         <v>1.19</v>
@@ -14837,7 +14974,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G262" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H262">
         <v>1.1399999999999999</v>
@@ -14881,7 +15018,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="G263" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H263">
         <v>1.0900000000000001</v>
@@ -14925,7 +15062,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="G264" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H264">
         <v>1.03</v>
@@ -14969,7 +15106,7 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="G265" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H265">
         <v>0.98</v>
@@ -15013,7 +15150,7 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="G266" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H266">
         <v>0.93</v>
@@ -15057,7 +15194,7 @@
         <v>0.5625</v>
       </c>
       <c r="G267" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H267">
         <v>0.89</v>
@@ -15101,7 +15238,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="G268" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H268">
         <v>0.84</v>
@@ -15145,7 +15282,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="G269" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H269">
         <v>0.79</v>
@@ -15189,7 +15326,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="G270" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H270">
         <v>0.75</v>
@@ -15233,7 +15370,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G271" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H271">
         <v>0.71</v>
@@ -15277,7 +15414,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G272" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H272">
         <v>0.66</v>
@@ -15321,7 +15458,7 @@
         <v>0.58750000000000002</v>
       </c>
       <c r="G273" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H273">
         <v>0.63</v>
@@ -15365,7 +15502,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="G274" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H274">
         <v>0.59</v>
@@ -15409,7 +15546,7 @@
         <v>0.59583333333333333</v>
       </c>
       <c r="G275" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H275">
         <v>0.55000000000000004</v>
@@ -15453,7 +15590,7 @@
         <v>0.6</v>
       </c>
       <c r="G276" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H276">
         <v>0.52</v>
@@ -15497,7 +15634,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="G277" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H277">
         <v>0.49</v>
@@ -15541,7 +15678,7 @@
         <v>0.60833333333333328</v>
       </c>
       <c r="G278" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H278">
         <v>0.46</v>
@@ -15585,7 +15722,7 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="G279" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H279">
         <v>0.43</v>
@@ -15629,7 +15766,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G280" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H280">
         <v>0.41</v>
@@ -15664,7 +15801,7 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D281" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
@@ -15699,7 +15836,7 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="G283" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H283">
         <v>0.43</v>
@@ -15743,7 +15880,7 @@
         <v>0.6166666666666667</v>
       </c>
       <c r="G284" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H284">
         <v>0.41</v>
@@ -15787,7 +15924,7 @@
         <v>0.62083333333333335</v>
       </c>
       <c r="G285" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H285">
         <v>0.39</v>
@@ -15831,7 +15968,7 @@
         <v>0.625</v>
       </c>
       <c r="G286" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H286">
         <v>0.37</v>
@@ -15875,7 +16012,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="G287" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H287">
         <v>0.35</v>
@@ -15919,7 +16056,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G288" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H288">
         <v>0.34</v>
@@ -15963,7 +16100,7 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="G289" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H289">
         <v>0.33</v>
@@ -16007,7 +16144,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G290" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H290">
         <v>0.32</v>
@@ -16051,7 +16188,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G291" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H291">
         <v>0.31</v>
@@ -16095,7 +16232,7 @@
         <v>0.65</v>
       </c>
       <c r="G292" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H292">
         <v>0.31</v>
@@ -16139,7 +16276,7 @@
         <v>0.65416666666666667</v>
       </c>
       <c r="G293" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H293">
         <v>0.31</v>
@@ -16183,7 +16320,7 @@
         <v>0.65833333333333333</v>
       </c>
       <c r="G294" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H294">
         <v>0.31</v>
@@ -16227,7 +16364,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="G295" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H295">
         <v>0.32</v>
@@ -16271,7 +16408,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G296" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H296">
         <v>0.32</v>
@@ -16315,7 +16452,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="G297" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H297">
         <v>0.33</v>
@@ -16359,7 +16496,7 @@
         <v>0.67499999999999993</v>
       </c>
       <c r="G298" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H298">
         <v>0.35</v>
@@ -16403,7 +16540,7 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="G299" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H299">
         <v>0.36</v>
@@ -16447,7 +16584,7 @@
         <v>0.68333333333333324</v>
       </c>
       <c r="G300" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H300">
         <v>0.38</v>
@@ -16491,7 +16628,7 @@
         <v>0.6875</v>
       </c>
       <c r="G301" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H301">
         <v>0.4</v>
@@ -16535,7 +16672,7 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="G302" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H302">
         <v>0.42</v>
@@ -16579,7 +16716,7 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="G303" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H303">
         <v>0.44</v>
@@ -16623,7 +16760,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G304" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H304">
         <v>0.47</v>
@@ -16667,7 +16804,7 @@
         <v>0.70416666666666661</v>
       </c>
       <c r="G305" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H305">
         <v>0.5</v>
@@ -16711,7 +16848,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G306" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H306">
         <v>0.53</v>
@@ -16746,7 +16883,7 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D307" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
@@ -16804,7 +16941,7 @@
         <v>85.6</v>
       </c>
       <c r="Q309" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.25">
@@ -16841,7 +16978,7 @@
         <v>86</v>
       </c>
       <c r="Q310" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.25">
@@ -16878,7 +17015,7 @@
         <v>86</v>
       </c>
       <c r="Q311" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.25">
@@ -16915,7 +17052,7 @@
         <v>88.5</v>
       </c>
       <c r="Q312" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.25">
@@ -16952,7 +17089,7 @@
         <v>86.4</v>
       </c>
       <c r="Q313" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.25">
@@ -16989,7 +17126,7 @@
         <v>87.4</v>
       </c>
       <c r="Q314" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.25">
@@ -17026,7 +17163,7 @@
         <v>90.1</v>
       </c>
       <c r="Q315" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.25">
@@ -17063,7 +17200,7 @@
         <v>88.7</v>
       </c>
       <c r="Q316" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.25">
@@ -17100,7 +17237,7 @@
         <v>86.2</v>
       </c>
       <c r="Q317" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.25">
@@ -17137,7 +17274,7 @@
         <v>89.1</v>
       </c>
       <c r="Q318" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.25">
@@ -17174,7 +17311,7 @@
         <v>87.6</v>
       </c>
       <c r="Q319" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.25">
@@ -17211,7 +17348,7 @@
         <v>88.2</v>
       </c>
       <c r="Q320" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.25">
@@ -17248,7 +17385,7 @@
         <v>86.2</v>
       </c>
       <c r="Q321" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.25">
@@ -17285,7 +17422,7 @@
         <v>86.7</v>
       </c>
       <c r="Q322" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.25">
@@ -17322,7 +17459,7 @@
         <v>88.7</v>
       </c>
       <c r="Q323" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.25">
@@ -17359,7 +17496,7 @@
         <v>87.4</v>
       </c>
       <c r="Q324" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.25">
@@ -17396,7 +17533,7 @@
         <v>88.9</v>
       </c>
       <c r="Q325" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.25">
@@ -17433,7 +17570,7 @@
         <v>90.1</v>
       </c>
       <c r="Q326" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.25">
@@ -17470,7 +17607,7 @@
         <v>88.2</v>
       </c>
       <c r="Q327" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.25">
@@ -17507,7 +17644,7 @@
         <v>86.2</v>
       </c>
       <c r="Q328" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.25">
@@ -17544,7 +17681,7 @@
         <v>85.8</v>
       </c>
       <c r="Q329" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.25">
@@ -17581,7 +17718,7 @@
         <v>86.5</v>
       </c>
       <c r="Q330" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.25">
@@ -17618,7 +17755,7 @@
         <v>86.2</v>
       </c>
       <c r="Q331" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.25">
@@ -17655,7 +17792,7 @@
         <v>86.7</v>
       </c>
       <c r="Q332" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.25">
@@ -17692,7 +17829,7 @@
         <v>86.9</v>
       </c>
       <c r="Q333" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.25">
@@ -17729,7 +17866,7 @@
         <v>86.4</v>
       </c>
       <c r="Q334" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.25">
@@ -17766,7 +17903,7 @@
         <v>86.2</v>
       </c>
       <c r="Q335" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.25">
@@ -17803,12 +17940,12 @@
         <v>86.2</v>
       </c>
       <c r="Q336" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D337" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
@@ -17850,7 +17987,7 @@
         <v>1.516</v>
       </c>
       <c r="J339" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K339" s="46">
         <v>7</v>
@@ -17868,7 +18005,7 @@
         <v>86.2</v>
       </c>
       <c r="Q339" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.25">
@@ -17889,7 +18026,7 @@
         <v>1.4830000000000001</v>
       </c>
       <c r="J340" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K340" s="46">
         <v>7.58</v>
@@ -17907,7 +18044,7 @@
         <v>86</v>
       </c>
       <c r="Q340" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.25">
@@ -17928,7 +18065,7 @@
         <v>1.417</v>
       </c>
       <c r="J341" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K341" s="46">
         <v>6.22</v>
@@ -17946,7 +18083,7 @@
         <v>86.5</v>
       </c>
       <c r="Q341" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.25">
@@ -17967,7 +18104,7 @@
         <v>1.4039999999999999</v>
       </c>
       <c r="J342" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K342" s="46">
         <v>3.11</v>
@@ -17985,7 +18122,7 @@
         <v>86.9</v>
       </c>
       <c r="Q342" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.25">
@@ -18006,7 +18143,7 @@
         <v>1.3680000000000001</v>
       </c>
       <c r="J343" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K343" s="46">
         <v>8.75</v>
@@ -18024,7 +18161,7 @@
         <v>85.6</v>
       </c>
       <c r="Q343" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.25">
@@ -18045,7 +18182,7 @@
         <v>1.3120000000000001</v>
       </c>
       <c r="J344" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K344" s="46">
         <v>6.22</v>
@@ -18063,7 +18200,7 @@
         <v>85.8</v>
       </c>
       <c r="Q344" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.25">
@@ -18084,7 +18221,7 @@
         <v>1.2829999999999999</v>
       </c>
       <c r="J345" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K345" s="46">
         <v>6.03</v>
@@ -18102,7 +18239,7 @@
         <v>86</v>
       </c>
       <c r="Q345" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.25">
@@ -18123,7 +18260,7 @@
         <v>1.286</v>
       </c>
       <c r="J346" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K346" s="46">
         <v>8.36</v>
@@ -18141,7 +18278,7 @@
         <v>86</v>
       </c>
       <c r="Q346" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.25">
@@ -18162,7 +18299,7 @@
         <v>1.2529999999999999</v>
       </c>
       <c r="J347" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K347" s="46">
         <v>8.16</v>
@@ -18180,7 +18317,7 @@
         <v>86</v>
       </c>
       <c r="Q347" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.25">
@@ -18201,7 +18338,7 @@
         <v>1.1839999999999999</v>
       </c>
       <c r="J348" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K348" s="46">
         <v>6.22</v>
@@ -18219,7 +18356,7 @@
         <v>86</v>
       </c>
       <c r="Q348" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.25">
@@ -18240,7 +18377,7 @@
         <v>1.214</v>
       </c>
       <c r="J349" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K349" s="46">
         <v>5.25</v>
@@ -18258,7 +18395,7 @@
         <v>86.5</v>
       </c>
       <c r="Q349" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.25">
@@ -18279,7 +18416,7 @@
         <v>1.181</v>
       </c>
       <c r="J350" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K350" s="46">
         <v>3.89</v>
@@ -18297,7 +18434,7 @@
         <v>86</v>
       </c>
       <c r="Q350" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.25">
@@ -18318,7 +18455,7 @@
         <v>1.1379999999999999</v>
       </c>
       <c r="J351" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K351" s="46">
         <v>4.08</v>
@@ -18336,7 +18473,7 @@
         <v>86</v>
       </c>
       <c r="Q351" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.25">
@@ -18357,7 +18494,7 @@
         <v>1.1839999999999999</v>
       </c>
       <c r="J352" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K352" s="46">
         <v>5.05</v>
@@ -18375,7 +18512,7 @@
         <v>85.8</v>
       </c>
       <c r="Q352" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.25">
@@ -18396,7 +18533,7 @@
         <v>1.1679999999999999</v>
       </c>
       <c r="J353" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K353" s="46">
         <v>4.67</v>
@@ -18414,7 +18551,7 @@
         <v>86.2</v>
       </c>
       <c r="Q353" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.25">
@@ -18435,7 +18572,7 @@
         <v>1.109</v>
       </c>
       <c r="J354" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K354" s="46">
         <v>9.91</v>
@@ -18453,7 +18590,7 @@
         <v>85.5</v>
       </c>
       <c r="Q354" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.25">
@@ -18474,7 +18611,7 @@
         <v>1.1679999999999999</v>
       </c>
       <c r="J355" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K355" s="46">
         <v>8.75</v>
@@ -18492,7 +18629,7 @@
         <v>85.6</v>
       </c>
       <c r="Q355" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.25">
@@ -18513,7 +18650,7 @@
         <v>1.1579999999999999</v>
       </c>
       <c r="J356" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K356" s="46">
         <v>5.44</v>
@@ -18531,7 +18668,7 @@
         <v>85.6</v>
       </c>
       <c r="Q356" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.25">
@@ -18552,7 +18689,7 @@
         <v>1.109</v>
       </c>
       <c r="J357" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K357" s="46">
         <v>5.25</v>
@@ -18570,7 +18707,7 @@
         <v>85.8</v>
       </c>
       <c r="Q357" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.25">
@@ -18591,7 +18728,7 @@
         <v>1.165</v>
       </c>
       <c r="J358" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K358" s="46">
         <v>8.5500000000000007</v>
@@ -18609,7 +18746,7 @@
         <v>86.7</v>
       </c>
       <c r="Q358" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.25">
@@ -18630,7 +18767,7 @@
         <v>1.181</v>
       </c>
       <c r="J359" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K359" s="46">
         <v>6.41</v>
@@ -18648,7 +18785,7 @@
         <v>86.2</v>
       </c>
       <c r="Q359" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.25">
@@ -18669,7 +18806,7 @@
         <v>1.115</v>
       </c>
       <c r="J360" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K360" s="46">
         <v>10.11</v>
@@ -18687,7 +18824,7 @@
         <v>85.8</v>
       </c>
       <c r="Q360" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.25">
@@ -18708,7 +18845,7 @@
         <v>1.1839999999999999</v>
       </c>
       <c r="J361" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K361" s="46">
         <v>8.5500000000000007</v>
@@ -18726,7 +18863,7 @@
         <v>85.8</v>
       </c>
       <c r="Q361" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.25">
@@ -18747,7 +18884,7 @@
         <v>1.1879999999999999</v>
       </c>
       <c r="J362" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K362" s="46">
         <v>8.5500000000000007</v>
@@ -18765,7 +18902,7 @@
         <v>85.6</v>
       </c>
       <c r="Q362" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.25">
@@ -18786,7 +18923,7 @@
         <v>1.1679999999999999</v>
       </c>
       <c r="J363" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K363" s="46">
         <v>7.78</v>
@@ -18804,7 +18941,7 @@
         <v>85.6</v>
       </c>
       <c r="Q363" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.25">
@@ -18825,7 +18962,7 @@
         <v>1.214</v>
       </c>
       <c r="J364" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K364" s="46">
         <v>5.44</v>
@@ -18843,7 +18980,7 @@
         <v>86.5</v>
       </c>
       <c r="Q364" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.25">
@@ -18864,7 +19001,7 @@
         <v>1.24</v>
       </c>
       <c r="J365" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K365" s="46">
         <v>1.94</v>
@@ -18882,12 +19019,12 @@
         <v>87.1</v>
       </c>
       <c r="Q365" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D366" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
@@ -18922,7 +19059,7 @@
         <v>0.36249999999999999</v>
       </c>
       <c r="G368" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H368">
         <v>1.68</v>
@@ -18966,7 +19103,7 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="G369" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H369">
         <v>1.73</v>
@@ -19010,7 +19147,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="G370" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H370">
         <v>1.78</v>
@@ -19054,7 +19191,7 @@
         <v>0.375</v>
       </c>
       <c r="G371" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H371">
         <v>1.83</v>
@@ -19098,7 +19235,7 @@
         <v>0.37916666666666665</v>
       </c>
       <c r="G372" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H372">
         <v>1.88</v>
@@ -19142,7 +19279,7 @@
         <v>0.3833333333333333</v>
       </c>
       <c r="G373" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H373">
         <v>1.93</v>
@@ -19186,7 +19323,7 @@
         <v>0.38750000000000001</v>
       </c>
       <c r="G374" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H374">
         <v>1.97</v>
@@ -19230,7 +19367,7 @@
         <v>0.39166666666666666</v>
       </c>
       <c r="G375" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H375">
         <v>2.0099999999999998</v>
@@ -19274,7 +19411,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="G376" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H376">
         <v>2.0499999999999998</v>
@@ -19318,7 +19455,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="G377" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H377">
         <v>2.09</v>
@@ -19362,7 +19499,7 @@
         <v>0.40416666666666662</v>
       </c>
       <c r="G378" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H378">
         <v>2.13</v>
@@ -19406,7 +19543,7 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="G379" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H379">
         <v>2.17</v>
@@ -19450,7 +19587,7 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="G380" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H380">
         <v>2.2000000000000002</v>
@@ -19494,7 +19631,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G381" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H381">
         <v>2.23</v>
@@ -19538,7 +19675,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="G382" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H382">
         <v>2.2599999999999998</v>
@@ -19582,7 +19719,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="G383" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H383">
         <v>2.29</v>
@@ -19626,7 +19763,7 @@
         <v>0.4291666666666667</v>
       </c>
       <c r="G384" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H384">
         <v>2.31</v>
@@ -19670,7 +19807,7 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="G385" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H385">
         <v>2.34</v>
@@ -19714,7 +19851,7 @@
         <v>0.4375</v>
       </c>
       <c r="G386" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H386">
         <v>2.36</v>
@@ -19758,7 +19895,7 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="G387" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H387">
         <v>2.37</v>
@@ -19802,7 +19939,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="G388" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H388">
         <v>2.39</v>
@@ -19846,7 +19983,7 @@
         <v>0.45</v>
       </c>
       <c r="G389" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H389">
         <v>2.4</v>
@@ -19881,7 +20018,7 @@
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D390" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
@@ -19916,7 +20053,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G392" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H392">
         <v>2.42</v>
@@ -19960,7 +20097,7 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="G393" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H393">
         <v>2.42</v>
@@ -20004,7 +20141,7 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="G394" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H394">
         <v>2.42</v>
@@ -20048,7 +20185,7 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="G395" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H395">
         <v>2.42</v>
@@ -20092,7 +20229,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="G396" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H396">
         <v>2.42</v>
@@ -20136,7 +20273,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="G397" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H397">
         <v>2.41</v>
@@ -20180,7 +20317,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="G398" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H398">
         <v>2.4</v>
@@ -20224,7 +20361,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G399" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H399">
         <v>2.39</v>
@@ -20268,7 +20405,7 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="G400" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H400">
         <v>2.38</v>
@@ -20312,7 +20449,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="G401" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H401">
         <v>2.36</v>
@@ -20356,7 +20493,7 @@
         <v>0.5</v>
       </c>
       <c r="G402" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H402">
         <v>2.34</v>
@@ -20391,7 +20528,7 @@
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D403" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
@@ -20426,7 +20563,7 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="G405" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H405">
         <v>2.3199999999999998</v>
@@ -20470,7 +20607,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="G406" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H406">
         <v>2.29</v>
@@ -20514,7 +20651,7 @@
         <v>0.51250000000000007</v>
       </c>
       <c r="G407" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H407">
         <v>2.27</v>
@@ -20558,7 +20695,7 @@
         <v>0.51666666666666672</v>
       </c>
       <c r="G408" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H408">
         <v>2.2400000000000002</v>
@@ -20602,7 +20739,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="G409" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H409">
         <v>2.21</v>
@@ -20646,7 +20783,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G410" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H410">
         <v>2.1800000000000002</v>
@@ -20690,7 +20827,7 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="G411" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H411">
         <v>2.14</v>
@@ -20734,7 +20871,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="G412" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H412">
         <v>2.1</v>
@@ -20778,7 +20915,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G413" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H413">
         <v>2.0699999999999998</v>
@@ -20822,7 +20959,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G414" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H414">
         <v>2.0299999999999998</v>
@@ -20866,7 +21003,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="G415" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H415">
         <v>1.98</v>
@@ -20910,7 +21047,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="G416" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H416">
         <v>1.94</v>
@@ -20954,7 +21091,7 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="G417" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H417">
         <v>1.9</v>
@@ -20998,7 +21135,7 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="G418" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H418">
         <v>1.85</v>
@@ -21042,7 +21179,7 @@
         <v>0.5625</v>
       </c>
       <c r="G419" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H419">
         <v>1.8</v>
@@ -21086,7 +21223,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="G420" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H420">
         <v>1.75</v>
@@ -21130,7 +21267,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="G421" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H421">
         <v>1.71</v>
@@ -21174,7 +21311,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="G422" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H422">
         <v>1.66</v>
@@ -21218,7 +21355,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G423" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H423">
         <v>1.6</v>
@@ -21262,7 +21399,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G424" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H424">
         <v>1.55</v>
@@ -21306,7 +21443,7 @@
         <v>0.58750000000000002</v>
       </c>
       <c r="G425" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H425">
         <v>1.5</v>
@@ -21350,7 +21487,7 @@
         <v>0.59166666666666667</v>
       </c>
       <c r="G426" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H426">
         <v>1.45</v>
@@ -21394,7 +21531,7 @@
         <v>0.59583333333333333</v>
       </c>
       <c r="G427" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H427">
         <v>1.4</v>
@@ -21438,7 +21575,7 @@
         <v>0.6</v>
       </c>
       <c r="G428" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H428">
         <v>1.35</v>
@@ -21482,7 +21619,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="G429" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H429">
         <v>1.3</v>
@@ -21517,7 +21654,7 @@
     </row>
     <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D430" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
@@ -21552,7 +21689,7 @@
         <v>0.625</v>
       </c>
       <c r="G432" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H432">
         <v>1.04</v>
@@ -21596,7 +21733,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="G433" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H433">
         <v>1</v>
@@ -21640,7 +21777,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G434" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H434">
         <v>0.95</v>
@@ -21684,7 +21821,7 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="G435" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H435">
         <v>0.9</v>
@@ -21728,7 +21865,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G436" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H436">
         <v>0.86</v>
@@ -21772,7 +21909,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G437" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H437">
         <v>0.81</v>
@@ -21816,7 +21953,7 @@
         <v>0.65</v>
       </c>
       <c r="G438" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H438">
         <v>0.77</v>
@@ -21860,7 +21997,7 @@
         <v>0.65416666666666667</v>
       </c>
       <c r="G439" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H439">
         <v>0.73</v>
@@ -21904,7 +22041,7 @@
         <v>0.65833333333333333</v>
       </c>
       <c r="G440" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H440">
         <v>0.69</v>
@@ -21948,7 +22085,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="G441" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H441">
         <v>0.66</v>
@@ -21992,7 +22129,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G442" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H442">
         <v>0.62</v>
@@ -22036,7 +22173,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="G443" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H443">
         <v>0.59</v>
@@ -22080,7 +22217,7 @@
         <v>0.67499999999999993</v>
       </c>
       <c r="G444" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H444">
         <v>0.56000000000000005</v>
@@ -22124,7 +22261,7 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="G445" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H445">
         <v>0.53</v>
@@ -22168,7 +22305,7 @@
         <v>0.68333333333333324</v>
       </c>
       <c r="G446" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H446">
         <v>0.5</v>
@@ -22212,7 +22349,7 @@
         <v>0.6875</v>
       </c>
       <c r="G447" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H447">
         <v>0.47</v>
@@ -22247,7 +22384,7 @@
     </row>
     <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D448" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
@@ -22282,7 +22419,7 @@
         <v>0.38750000000000001</v>
       </c>
       <c r="G450" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H450">
         <v>1.52</v>
@@ -22326,7 +22463,7 @@
         <v>0.39166666666666666</v>
       </c>
       <c r="G451" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H451">
         <v>1.57</v>
@@ -22370,7 +22507,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="G452" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H452">
         <v>1.63</v>
@@ -22414,7 +22551,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="G453" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H453">
         <v>1.68</v>
@@ -22458,7 +22595,7 @@
         <v>0.40416666666666662</v>
       </c>
       <c r="G454" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H454">
         <v>1.73</v>
@@ -22502,7 +22639,7 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="G455" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H455">
         <v>1.78</v>
@@ -22546,7 +22683,7 @@
         <v>0.41250000000000003</v>
       </c>
       <c r="G456" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H456">
         <v>1.84</v>
@@ -22590,7 +22727,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="G457" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H457">
         <v>1.88</v>
@@ -22634,7 +22771,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="G458" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H458">
         <v>1.93</v>
@@ -22678,7 +22815,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="G459" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H459">
         <v>1.98</v>
@@ -22722,7 +22859,7 @@
         <v>0.4291666666666667</v>
       </c>
       <c r="G460" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H460">
         <v>2.0299999999999998</v>
@@ -22766,7 +22903,7 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="G461" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H461">
         <v>2.0699999999999998</v>
@@ -22810,7 +22947,7 @@
         <v>0.4375</v>
       </c>
       <c r="G462" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H462">
         <v>2.11</v>
@@ -22854,7 +22991,7 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="G463" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H463">
         <v>2.15</v>
@@ -22898,7 +23035,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="G464" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H464">
         <v>2.19</v>
@@ -22933,7 +23070,7 @@
     </row>
     <row r="465" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D465" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
@@ -22968,7 +23105,7 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="G467" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H467">
         <v>2.15</v>
@@ -23012,7 +23149,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="G468" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H468">
         <v>2.19</v>
@@ -23056,7 +23193,7 @@
         <v>0.45</v>
       </c>
       <c r="G469" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H469">
         <v>2.23</v>
@@ -23100,7 +23237,7 @@
         <v>0.45416666666666666</v>
       </c>
       <c r="G470" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H470">
         <v>2.2599999999999998</v>
@@ -23144,7 +23281,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G471" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H471">
         <v>2.29</v>
@@ -23188,7 +23325,7 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="G472" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H472">
         <v>2.3199999999999998</v>
@@ -23232,7 +23369,7 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="G473" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H473">
         <v>2.35</v>
@@ -23276,7 +23413,7 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="G474" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H474">
         <v>2.37</v>
@@ -23320,7 +23457,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="G475" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H475">
         <v>2.4</v>
@@ -23364,7 +23501,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="G476" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H476">
         <v>2.42</v>
@@ -23408,7 +23545,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="G477" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H477">
         <v>2.4300000000000002</v>
@@ -23452,7 +23589,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G478" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H478">
         <v>2.4500000000000002</v>
@@ -23496,7 +23633,7 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="G479" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H479">
         <v>2.46</v>
@@ -23531,7 +23668,7 @@
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D480" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
@@ -23566,7 +23703,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G482" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H482">
         <v>2.39</v>
@@ -23610,7 +23747,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="G483" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H483">
         <v>2.37</v>
@@ -23654,7 +23791,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="G484" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H484">
         <v>2.34</v>
@@ -23698,7 +23835,7 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="G485" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H485">
         <v>2.3199999999999998</v>
@@ -23742,7 +23879,7 @@
         <v>0.55833333333333335</v>
       </c>
       <c r="G486" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H486">
         <v>2.29</v>
@@ -23786,7 +23923,7 @@
         <v>0.5625</v>
       </c>
       <c r="G487" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H487">
         <v>2.25</v>
@@ -23830,7 +23967,7 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="G488" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H488">
         <v>2.2200000000000002</v>
@@ -23874,7 +24011,7 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="G489" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H489">
         <v>2.1800000000000002</v>
@@ -23918,7 +24055,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="G490" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H490">
         <v>2.15</v>
@@ -23962,7 +24099,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G491" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H491">
         <v>2.11</v>
@@ -24006,7 +24143,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G492" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H492">
         <v>2.06</v>
@@ -24041,7 +24178,7 @@
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D493" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
@@ -24076,7 +24213,7 @@
         <v>0.625</v>
       </c>
       <c r="G495" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H495">
         <v>1.58</v>
@@ -24120,7 +24257,7 @@
         <v>0.62916666666666665</v>
       </c>
       <c r="G496" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H496">
         <v>1.52</v>
@@ -24164,7 +24301,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="G497" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H497">
         <v>1.47</v>
@@ -24208,7 +24345,7 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="G498" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H498">
         <v>1.42</v>
@@ -24252,7 +24389,7 @@
         <v>0.64166666666666672</v>
       </c>
       <c r="G499" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H499">
         <v>1.36</v>
@@ -24296,7 +24433,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G500" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H500">
         <v>1.31</v>
@@ -24340,7 +24477,7 @@
         <v>0.65</v>
       </c>
       <c r="G501" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H501">
         <v>1.25</v>
@@ -24384,7 +24521,7 @@
         <v>0.65416666666666667</v>
       </c>
       <c r="G502" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H502">
         <v>1.2</v>
@@ -24428,7 +24565,7 @@
         <v>0.65833333333333333</v>
       </c>
       <c r="G503" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H503">
         <v>1.1499999999999999</v>
@@ -24472,7 +24609,7 @@
         <v>0.66249999999999998</v>
       </c>
       <c r="G504" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H504">
         <v>1.1000000000000001</v>
@@ -24516,7 +24653,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G505" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H505">
         <v>1.04</v>
@@ -24551,7 +24688,7 @@
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D506" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
@@ -24586,7 +24723,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G508" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H508">
         <v>1.93</v>
@@ -24630,7 +24767,7 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="G509" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H509">
         <v>1.99</v>
@@ -24674,7 +24811,7 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="G510" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H510">
         <v>2.04</v>
@@ -24718,7 +24855,7 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="G511" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H511">
         <v>2.09</v>
@@ -24762,7 +24899,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="G512" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H512">
         <v>2.13</v>
@@ -24806,7 +24943,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="G513" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H513">
         <v>2.1800000000000002</v>
@@ -24850,7 +24987,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="G514" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H514">
         <v>2.2200000000000002</v>
@@ -24894,7 +25031,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G515" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H515">
         <v>2.27</v>
@@ -24938,7 +25075,7 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="G516" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H516">
         <v>2.31</v>
@@ -24982,7 +25119,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="G517" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H517">
         <v>2.34</v>
@@ -25026,7 +25163,7 @@
         <v>0.5</v>
       </c>
       <c r="G518" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H518">
         <v>2.38</v>
@@ -25070,7 +25207,7 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="G519" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H519">
         <v>2.41</v>
@@ -25114,7 +25251,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="G520" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H520">
         <v>2.44</v>
@@ -25158,7 +25295,7 @@
         <v>0.51250000000000007</v>
       </c>
       <c r="G521" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H521">
         <v>2.4700000000000002</v>
@@ -25193,7 +25330,7 @@
     </row>
     <row r="522" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D522" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
@@ -25228,7 +25365,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="G524" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H524">
         <v>2.44</v>
@@ -25272,7 +25409,7 @@
         <v>0.51250000000000007</v>
       </c>
       <c r="G525" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H525">
         <v>2.4700000000000002</v>
@@ -25316,7 +25453,7 @@
         <v>0.51666666666666672</v>
       </c>
       <c r="G526" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H526">
         <v>2.4900000000000002</v>
@@ -25360,7 +25497,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="G527" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H527">
         <v>2.52</v>
@@ -25404,7 +25541,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G528" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H528">
         <v>2.54</v>
@@ -25448,7 +25585,7 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="G529" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H529">
         <v>2.5499999999999998</v>
@@ -25492,7 +25629,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="G530" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H530">
         <v>2.57</v>
@@ -25536,7 +25673,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G531" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H531">
         <v>2.58</v>
@@ -25580,7 +25717,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G532" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H532">
         <v>2.59</v>
@@ -25624,7 +25761,7 @@
         <v>0.54583333333333328</v>
       </c>
       <c r="G533" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H533">
         <v>2.59</v>
@@ -25668,7 +25805,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="G534" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H534">
         <v>2.59</v>
@@ -25712,7 +25849,7 @@
         <v>0.5541666666666667</v>
       </c>
       <c r="G535" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H535">
         <v>2.59</v>
@@ -25747,7 +25884,7 @@
     </row>
     <row r="536" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D536" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E536" s="5"/>
       <c r="F536" s="5"/>
@@ -25782,7 +25919,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G538" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H538">
         <v>1.63</v>
@@ -25826,7 +25963,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="G539" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H539">
         <v>1.57</v>
@@ -25870,7 +26007,7 @@
         <v>0.67499999999999993</v>
       </c>
       <c r="G540" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H540">
         <v>1.51</v>
@@ -25914,7 +26051,7 @@
         <v>0.6791666666666667</v>
       </c>
       <c r="G541" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H541">
         <v>1.45</v>
@@ -25958,7 +26095,7 @@
         <v>0.68333333333333324</v>
       </c>
       <c r="G542" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H542">
         <v>1.39</v>
@@ -26002,7 +26139,7 @@
         <v>0.6875</v>
       </c>
       <c r="G543" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H543">
         <v>1.34</v>
@@ -26046,7 +26183,7 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="G544" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H544">
         <v>1.28</v>
@@ -26090,7 +26227,7 @@
         <v>0.6958333333333333</v>
       </c>
       <c r="G545" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H545">
         <v>1.22</v>
@@ -26134,7 +26271,7 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="G546" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H546">
         <v>1.1599999999999999</v>
@@ -26178,7 +26315,7 @@
         <v>0.70416666666666661</v>
       </c>
       <c r="G547" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H547">
         <v>1.1000000000000001</v>
@@ -26222,7 +26359,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G548" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H548">
         <v>1.04</v>
@@ -26257,7 +26394,7 @@
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D549" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
@@ -26292,7 +26429,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G551" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H551">
         <v>1.04</v>
@@ -26336,7 +26473,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="G552" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H552">
         <v>0.99</v>
@@ -26380,7 +26517,7 @@
         <v>0.71666666666666667</v>
       </c>
       <c r="G553" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H553">
         <v>0.93</v>
@@ -26424,7 +26561,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="G554" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H554">
         <v>0.88</v>
@@ -26468,7 +26605,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G555" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H555">
         <v>0.83</v>
@@ -26512,7 +26649,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="G556" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H556">
         <v>0.77</v>
@@ -26556,7 +26693,7 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="G557" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H557">
         <v>0.72</v>
@@ -26600,7 +26737,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G558" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H558">
         <v>0.68</v>
@@ -26644,7 +26781,7 @@
         <v>0.7416666666666667</v>
       </c>
       <c r="G559" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H559">
         <v>0.63</v>
@@ -26688,7 +26825,7 @@
         <v>0.74583333333333324</v>
       </c>
       <c r="G560" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H560">
         <v>0.57999999999999996</v>
@@ -26732,7 +26869,7 @@
         <v>0.75</v>
       </c>
       <c r="G561" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H561">
         <v>0.54</v>
@@ -26776,7 +26913,7 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="G562" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H562">
         <v>0.5</v>
@@ -26820,7 +26957,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="G563" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H563">
         <v>0.46</v>
@@ -26864,7 +27001,7 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="G564" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H564">
         <v>0.42</v>
@@ -26908,7 +27045,7 @@
         <v>0.76666666666666661</v>
       </c>
       <c r="G565" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H565">
         <v>0.39</v>
@@ -26952,7 +27089,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="G566" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H566">
         <v>0.36</v>
@@ -26996,7 +27133,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="G567" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H567">
         <v>0.33</v>
@@ -27040,7 +27177,7 @@
         <v>0.77916666666666667</v>
       </c>
       <c r="G568" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H568">
         <v>0.3</v>
@@ -27084,7 +27221,7 @@
         <v>0.78333333333333333</v>
       </c>
       <c r="G569" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H569">
         <v>0.28000000000000003</v>
@@ -27119,7 +27256,7 @@
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D570" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E570" s="5"/>
       <c r="F570" s="5"/>
@@ -27154,7 +27291,7 @@
         <v>0.44166666666666665</v>
       </c>
       <c r="G572" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H572">
         <v>1.1000000000000001</v>
@@ -27198,7 +27335,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="G573" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H573">
         <v>1.1599999999999999</v>
@@ -27242,7 +27379,7 @@
         <v>0.45</v>
       </c>
       <c r="G574" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H574">
         <v>1.23</v>
@@ -27286,7 +27423,7 @@
         <v>0.45416666666666666</v>
       </c>
       <c r="G575" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H575">
         <v>1.29</v>
@@ -27330,7 +27467,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G576" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H576">
         <v>1.36</v>
@@ -27374,7 +27511,7 @@
         <v>0.46249999999999997</v>
       </c>
       <c r="G577" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H577">
         <v>1.42</v>
@@ -27418,7 +27555,7 @@
         <v>0.46666666666666662</v>
       </c>
       <c r="G578" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H578">
         <v>1.49</v>
@@ -27462,7 +27599,7 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="G579" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H579">
         <v>1.56</v>
@@ -27506,7 +27643,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="G580" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H580">
         <v>1.62</v>
@@ -27550,7 +27687,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="G581" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H581">
         <v>1.69</v>
@@ -27594,7 +27731,7 @@
         <v>0.48333333333333334</v>
       </c>
       <c r="G582" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H582">
         <v>1.75</v>
@@ -27638,7 +27775,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G583" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H583">
         <v>1.82</v>
@@ -27682,7 +27819,7 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="G584" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H584">
         <v>1.88</v>
@@ -27726,7 +27863,7 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="G585" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H585">
         <v>1.94</v>
@@ -27770,7 +27907,7 @@
         <v>0.5</v>
       </c>
       <c r="G586" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H586">
         <v>2</v>
@@ -27814,7 +27951,7 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="G587" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H587">
         <v>2.06</v>
@@ -27849,7 +27986,7 @@
     </row>
     <row r="588" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D588" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E588" s="5"/>
       <c r="F588" s="5"/>
@@ -27884,7 +28021,7 @@
         <v>0.50416666666666665</v>
       </c>
       <c r="G590" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H590">
         <v>2.06</v>
@@ -27928,7 +28065,7 @@
         <v>0.5083333333333333</v>
       </c>
       <c r="G591" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H591">
         <v>2.12</v>
@@ -27972,7 +28109,7 @@
         <v>0.51250000000000007</v>
       </c>
       <c r="G592" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H592">
         <v>2.1800000000000002</v>
@@ -28016,7 +28153,7 @@
         <v>0.51666666666666672</v>
       </c>
       <c r="G593" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H593">
         <v>2.23</v>
@@ -28060,7 +28197,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="G594" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H594">
         <v>2.2799999999999998</v>
@@ -28104,7 +28241,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G595" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H595">
         <v>2.33</v>
@@ -28148,7 +28285,7 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="G596" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H596">
         <v>2.38</v>
@@ -28192,7 +28329,7 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="G597" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H597">
         <v>2.4300000000000002</v>
@@ -28236,7 +28373,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G598" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H598">
         <v>2.4700000000000002</v>
@@ -28280,7 +28417,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="G599" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H599">
         <v>2.5099999999999998</v>
@@ -28315,7 +28452,7 @@
     </row>
     <row r="600" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D600" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E600" s="5"/>
       <c r="F600" s="5"/>
@@ -28381,10 +28518,10 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H1" s="109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="109"/>
       <c r="J1" s="109"/>
@@ -28393,144 +28530,144 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="G3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>46</v>
-      </c>
       <c r="H3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -28581,16 +28718,16 @@
         <v>3.1</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T4">
         <v>1007.9</v>
@@ -28602,16 +28739,16 @@
         <v>29.4</v>
       </c>
       <c r="W4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y4">
         <v>-1.2</v>
       </c>
       <c r="Z4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -28640,16 +28777,16 @@
         <v>3.1</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T5">
         <v>1008</v>
@@ -28661,16 +28798,16 @@
         <v>29.4</v>
       </c>
       <c r="W5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -28699,16 +28836,16 @@
         <v>3.6</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T6">
         <v>1008</v>
@@ -28720,16 +28857,16 @@
         <v>29.4</v>
       </c>
       <c r="W6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -28758,16 +28895,16 @@
         <v>2.6</v>
       </c>
       <c r="P7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T7">
         <v>1008</v>
@@ -28779,16 +28916,16 @@
         <v>29.4</v>
       </c>
       <c r="W7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -28817,16 +28954,16 @@
         <v>2.6</v>
       </c>
       <c r="P8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T8">
         <v>1008.1</v>
@@ -28838,16 +28975,16 @@
         <v>29.4</v>
       </c>
       <c r="W8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -28876,16 +29013,16 @@
         <v>2.6</v>
       </c>
       <c r="P9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T9">
         <v>1008.1</v>
@@ -28897,16 +29034,16 @@
         <v>29.4</v>
       </c>
       <c r="W9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -28935,16 +29072,16 @@
         <v>2.1</v>
       </c>
       <c r="P10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T10">
         <v>1008.1</v>
@@ -28956,16 +29093,16 @@
         <v>29.4</v>
       </c>
       <c r="W10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -28985,7 +29122,7 @@
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -28994,16 +29131,16 @@
         <v>2.1</v>
       </c>
       <c r="P11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T11">
         <v>1008.1</v>
@@ -29015,16 +29152,16 @@
         <v>29.4</v>
       </c>
       <c r="W11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -29053,16 +29190,16 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T12">
         <v>1008.1</v>
@@ -29074,16 +29211,16 @@
         <v>29.4</v>
       </c>
       <c r="W12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -29103,7 +29240,7 @@
         <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -29112,16 +29249,16 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T13">
         <v>1008.2</v>
@@ -29133,16 +29270,16 @@
         <v>29.4</v>
       </c>
       <c r="W13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -29171,16 +29308,16 @@
         <v>1.5</v>
       </c>
       <c r="P14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T14">
         <v>1008.3</v>
@@ -29192,16 +29329,16 @@
         <v>29.4</v>
       </c>
       <c r="W14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y14">
         <v>-1.2</v>
       </c>
       <c r="Z14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -29230,16 +29367,16 @@
         <v>1.5</v>
       </c>
       <c r="P15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T15">
         <v>1008.4</v>
@@ -29251,16 +29388,16 @@
         <v>29.4</v>
       </c>
       <c r="W15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -29289,16 +29426,16 @@
         <v>2.6</v>
       </c>
       <c r="P16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T16">
         <v>1008.5</v>
@@ -29310,16 +29447,16 @@
         <v>29.3</v>
       </c>
       <c r="W16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -29348,16 +29485,16 @@
         <v>2.6</v>
       </c>
       <c r="P17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T17">
         <v>1008.6</v>
@@ -29369,16 +29506,16 @@
         <v>29.3</v>
       </c>
       <c r="W17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -29407,16 +29544,16 @@
         <v>3.1</v>
       </c>
       <c r="P18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18">
         <v>1008.6</v>
@@ -29428,16 +29565,16 @@
         <v>29.3</v>
       </c>
       <c r="W18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -29466,16 +29603,16 @@
         <v>2.6</v>
       </c>
       <c r="P19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T19">
         <v>1008.6</v>
@@ -29487,16 +29624,16 @@
         <v>29.3</v>
       </c>
       <c r="W19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -29516,7 +29653,7 @@
         <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -29525,16 +29662,16 @@
         <v>2.1</v>
       </c>
       <c r="P20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T20">
         <v>1008.6</v>
@@ -29546,16 +29683,16 @@
         <v>29.3</v>
       </c>
       <c r="W20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -29584,16 +29721,16 @@
         <v>2.1</v>
       </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T21">
         <v>1008.7</v>
@@ -29605,16 +29742,16 @@
         <v>29.3</v>
       </c>
       <c r="W21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -29643,16 +29780,16 @@
         <v>3.1</v>
       </c>
       <c r="P22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T22">
         <v>1008.8</v>
@@ -29664,16 +29801,16 @@
         <v>29.3</v>
       </c>
       <c r="W22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -29693,7 +29830,7 @@
         <v>6</v>
       </c>
       <c r="M23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -29702,16 +29839,16 @@
         <v>2.1</v>
       </c>
       <c r="P23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T23">
         <v>1008.8</v>
@@ -29723,16 +29860,16 @@
         <v>29.3</v>
       </c>
       <c r="W23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -29752,7 +29889,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -29761,16 +29898,16 @@
         <v>2.6</v>
       </c>
       <c r="P24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T24">
         <v>1008.9</v>
@@ -29782,21 +29919,21 @@
         <v>29.3</v>
       </c>
       <c r="W24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y24">
         <v>-1.1000000000000001</v>
       </c>
       <c r="Z24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M25" s="25">
         <f>AVERAGE(M4:M24)</f>
@@ -29858,16 +29995,16 @@
         <v>3.6</v>
       </c>
       <c r="P27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T27">
         <v>1007.1</v>
@@ -29879,16 +30016,16 @@
         <v>29.5</v>
       </c>
       <c r="W27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -29917,16 +30054,16 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T28">
         <v>1007.1</v>
@@ -29938,16 +30075,16 @@
         <v>29.4</v>
       </c>
       <c r="W28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -29976,16 +30113,16 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T29">
         <v>1007</v>
@@ -29997,16 +30134,16 @@
         <v>29.4</v>
       </c>
       <c r="W29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -30035,16 +30172,16 @@
         <v>1.5</v>
       </c>
       <c r="P30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T30">
         <v>1007</v>
@@ -30056,16 +30193,16 @@
         <v>29.4</v>
       </c>
       <c r="W30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -30094,16 +30231,16 @@
         <v>2.1</v>
       </c>
       <c r="P31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T31">
         <v>1007</v>
@@ -30115,16 +30252,16 @@
         <v>29.4</v>
       </c>
       <c r="W31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -30153,16 +30290,16 @@
         <v>2.1</v>
       </c>
       <c r="P32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T32">
         <v>1007</v>
@@ -30174,16 +30311,16 @@
         <v>29.4</v>
       </c>
       <c r="W32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y32">
         <v>-0.4</v>
       </c>
       <c r="Z32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -30212,16 +30349,16 @@
         <v>3.6</v>
       </c>
       <c r="P33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T33">
         <v>1007</v>
@@ -30233,16 +30370,16 @@
         <v>29.4</v>
       </c>
       <c r="W33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -30271,16 +30408,16 @@
         <v>3.6</v>
       </c>
       <c r="P34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T34">
         <v>1007</v>
@@ -30292,16 +30429,16 @@
         <v>29.4</v>
       </c>
       <c r="W34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -30330,16 +30467,16 @@
         <v>3.6</v>
       </c>
       <c r="P35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T35">
         <v>1006.9</v>
@@ -30351,16 +30488,16 @@
         <v>29.4</v>
       </c>
       <c r="W35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -30389,16 +30526,16 @@
         <v>2.1</v>
       </c>
       <c r="P36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T36">
         <v>1006.9</v>
@@ -30410,16 +30547,16 @@
         <v>29.4</v>
       </c>
       <c r="W36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -30448,16 +30585,16 @@
         <v>2.6</v>
       </c>
       <c r="P37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T37">
         <v>1006.8</v>
@@ -30469,16 +30606,16 @@
         <v>29.4</v>
       </c>
       <c r="W37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -30507,16 +30644,16 @@
         <v>2.1</v>
       </c>
       <c r="P38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T38">
         <v>1006.8</v>
@@ -30528,16 +30665,16 @@
         <v>29.4</v>
       </c>
       <c r="W38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -30566,16 +30703,16 @@
         <v>1.5</v>
       </c>
       <c r="P39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T39">
         <v>1006.9</v>
@@ -30587,16 +30724,16 @@
         <v>29.4</v>
       </c>
       <c r="W39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -30625,16 +30762,16 @@
         <v>1.5</v>
       </c>
       <c r="P40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T40">
         <v>1006.9</v>
@@ -30646,16 +30783,16 @@
         <v>29.4</v>
       </c>
       <c r="W40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
@@ -30684,16 +30821,16 @@
         <v>1.5</v>
       </c>
       <c r="P41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T41">
         <v>1006.9</v>
@@ -30705,16 +30842,16 @@
         <v>29.4</v>
       </c>
       <c r="W41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -30743,16 +30880,16 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T42">
         <v>1007</v>
@@ -30764,21 +30901,21 @@
         <v>29.5</v>
       </c>
       <c r="W42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y42">
         <v>-0.9</v>
       </c>
       <c r="Z42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="G43" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M43" s="25">
         <f>AVERAGE(M27:M42)</f>
@@ -30831,7 +30968,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -30840,16 +30977,16 @@
         <v>1</v>
       </c>
       <c r="P45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T45">
         <v>1008.1</v>
@@ -30861,16 +30998,16 @@
         <v>29.8</v>
       </c>
       <c r="W45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y45">
         <v>1.1000000000000001</v>
       </c>
       <c r="Z45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -30899,16 +31036,16 @@
         <v>2.1</v>
       </c>
       <c r="P46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T46">
         <v>1008.1</v>
@@ -30920,16 +31057,16 @@
         <v>29.9</v>
       </c>
       <c r="W46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
@@ -30958,16 +31095,16 @@
         <v>1.5</v>
       </c>
       <c r="P47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T47">
         <v>1008</v>
@@ -30979,16 +31116,16 @@
         <v>29.9</v>
       </c>
       <c r="W47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
@@ -31017,16 +31154,16 @@
         <v>2.1</v>
       </c>
       <c r="P48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T48">
         <v>1007.9</v>
@@ -31038,16 +31175,16 @@
         <v>29.8</v>
       </c>
       <c r="W48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="7:26" x14ac:dyDescent="0.25">
@@ -31076,16 +31213,16 @@
         <v>2.6</v>
       </c>
       <c r="P49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T49">
         <v>1007.8</v>
@@ -31097,16 +31234,16 @@
         <v>29.9</v>
       </c>
       <c r="W49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="7:26" x14ac:dyDescent="0.25">
@@ -31135,16 +31272,16 @@
         <v>3.1</v>
       </c>
       <c r="P50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T50">
         <v>1007.8</v>
@@ -31156,16 +31293,16 @@
         <v>30</v>
       </c>
       <c r="W50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="7:26" x14ac:dyDescent="0.25">
@@ -31194,16 +31331,16 @@
         <v>3.6</v>
       </c>
       <c r="P51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T51">
         <v>1007.8</v>
@@ -31215,16 +31352,16 @@
         <v>30</v>
       </c>
       <c r="W51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="7:26" x14ac:dyDescent="0.25">
@@ -31253,16 +31390,16 @@
         <v>3.1</v>
       </c>
       <c r="P52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T52">
         <v>1007.8</v>
@@ -31274,16 +31411,16 @@
         <v>29.9</v>
       </c>
       <c r="W52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="7:26" x14ac:dyDescent="0.25">
@@ -31312,16 +31449,16 @@
         <v>3.1</v>
       </c>
       <c r="P53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T53">
         <v>1007.7</v>
@@ -31333,16 +31470,16 @@
         <v>29.9</v>
       </c>
       <c r="W53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="7:26" x14ac:dyDescent="0.25">
@@ -31371,16 +31508,16 @@
         <v>2.6</v>
       </c>
       <c r="P54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T54">
         <v>1007.7</v>
@@ -31392,16 +31529,16 @@
         <v>29.9</v>
       </c>
       <c r="W54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="7:26" x14ac:dyDescent="0.25">
@@ -31430,16 +31567,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="P55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T55">
         <v>1007.6</v>
@@ -31451,16 +31588,16 @@
         <v>29.8</v>
       </c>
       <c r="W55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y55">
         <v>0</v>
       </c>
       <c r="Z55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="7:26" x14ac:dyDescent="0.25">
@@ -31489,16 +31626,16 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="P56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T56">
         <v>1007.6</v>
@@ -31510,16 +31647,16 @@
         <v>29.8</v>
       </c>
       <c r="W56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="7:26" x14ac:dyDescent="0.25">
@@ -31548,16 +31685,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="P57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T57">
         <v>1007.5</v>
@@ -31569,16 +31706,16 @@
         <v>29.8</v>
       </c>
       <c r="W57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="7:26" x14ac:dyDescent="0.25">
@@ -31607,16 +31744,16 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="P58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T58">
         <v>1007.3</v>
@@ -31628,16 +31765,16 @@
         <v>29.7</v>
       </c>
       <c r="W58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="7:26" x14ac:dyDescent="0.25">
@@ -31666,16 +31803,16 @@
         <v>2.6</v>
       </c>
       <c r="P59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T59">
         <v>1007.2</v>
@@ -31687,16 +31824,16 @@
         <v>29.7</v>
       </c>
       <c r="W59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="7:26" x14ac:dyDescent="0.25">
@@ -31725,16 +31862,16 @@
         <v>3.6</v>
       </c>
       <c r="P60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T60">
         <v>1007.1</v>
@@ -31746,21 +31883,21 @@
         <v>29.5</v>
       </c>
       <c r="W60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="7:26" x14ac:dyDescent="0.25">
       <c r="G61" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M61" s="25">
         <f>AVERAGE(M45:M60)</f>

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -1304,9 +1304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1317,6 +1314,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2157,10 +2157,10 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,8 +2173,9 @@
     <col min="6" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
     <col min="15" max="16" width="14.5703125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" customWidth="1"/>
@@ -2317,7 +2318,7 @@
       <c r="O3" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="113" t="s">
+      <c r="P3" s="112" t="s">
         <v>154</v>
       </c>
       <c r="Q3" s="13"/>
@@ -2381,7 +2382,7 @@
       <c r="P4" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="110"/>
+      <c r="Q4" s="109"/>
       <c r="R4" s="75" t="s">
         <v>11</v>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="P5" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="Q5" s="110"/>
+      <c r="Q5" s="109"/>
       <c r="R5" s="75" t="s">
         <v>11</v>
       </c>
@@ -2501,7 +2502,7 @@
       <c r="P6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="110"/>
+      <c r="Q6" s="109"/>
       <c r="R6" s="75" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2561,7 @@
       <c r="P7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="110"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="75" t="s">
         <v>11</v>
       </c>
@@ -2619,7 +2620,7 @@
       <c r="P8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q8" s="110"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="75" t="s">
         <v>10</v>
       </c>
@@ -2680,7 +2681,7 @@
       <c r="P9" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q9" s="110"/>
+      <c r="Q9" s="109"/>
       <c r="R9" s="75" t="s">
         <v>11</v>
       </c>
@@ -2744,7 +2745,7 @@
       <c r="P10" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q10" s="110"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="75" t="s">
         <v>11</v>
       </c>
@@ -2811,7 +2812,7 @@
       <c r="P11" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="110"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="75" t="s">
         <v>11</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="P12" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q12" s="110"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="75" t="s">
         <v>10</v>
       </c>
@@ -2945,7 +2946,7 @@
       <c r="P13" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="110"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="75" t="s">
         <v>11</v>
       </c>
@@ -3012,7 +3013,7 @@
       <c r="P14" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q14" s="110"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="75" t="s">
         <v>11</v>
       </c>
@@ -3079,7 +3080,7 @@
       <c r="P15" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q15" s="110"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="75" t="s">
         <v>10</v>
       </c>
@@ -3146,7 +3147,7 @@
       <c r="P16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q16" s="111"/>
+      <c r="Q16" s="110"/>
       <c r="R16" s="82" t="s">
         <v>10</v>
       </c>
@@ -3213,7 +3214,7 @@
       <c r="P17" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q17" s="110"/>
+      <c r="Q17" s="109"/>
       <c r="R17" s="82" t="s">
         <v>10</v>
       </c>
@@ -3277,7 +3278,7 @@
       <c r="P18" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q18" s="110"/>
+      <c r="Q18" s="109"/>
       <c r="R18" s="75" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3342,7 @@
       <c r="P19" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q19" s="110"/>
+      <c r="Q19" s="109"/>
       <c r="R19" s="82" t="s">
         <v>10</v>
       </c>
@@ -3405,7 +3406,7 @@
       <c r="P20" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q20" s="110"/>
+      <c r="Q20" s="109"/>
       <c r="R20" s="82" t="s">
         <v>10</v>
       </c>
@@ -3469,7 +3470,7 @@
       <c r="P21" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="110"/>
+      <c r="Q21" s="109"/>
       <c r="R21" s="75" t="s">
         <v>11</v>
       </c>
@@ -3533,7 +3534,7 @@
       <c r="P22" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q22" s="110"/>
+      <c r="Q22" s="109"/>
       <c r="R22" s="75" t="s">
         <v>11</v>
       </c>
@@ -3597,7 +3598,7 @@
       <c r="P23" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="112"/>
+      <c r="Q23" s="111"/>
       <c r="R23" s="82" t="s">
         <v>10</v>
       </c>
@@ -4648,11 +4649,11 @@
       <c r="A1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -28520,13 +28521,13 @@
       <c r="A1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="156">
   <si>
     <t>Swell</t>
   </si>
@@ -2157,10 +2157,10 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,6 +2273,9 @@
       <c r="A3" t="s">
         <v>126</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="97">
         <v>1</v>
       </c>
@@ -2333,6 +2336,9 @@
       <c r="A4" t="s">
         <v>126</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="98">
         <f>C3+1</f>
         <v>2</v>
@@ -2394,6 +2400,9 @@
       <c r="A5" t="s">
         <v>126</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="98">
         <f>C4+1</f>
         <v>3</v>
@@ -2455,6 +2464,9 @@
       <c r="A6" t="s">
         <v>117</v>
       </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
       <c r="C6" s="98">
         <f t="shared" ref="C6:C32" si="1">C5+1</f>
         <v>4</v>
@@ -2514,6 +2526,9 @@
       <c r="A7" t="s">
         <v>117</v>
       </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
       <c r="C7" s="98">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2573,6 +2588,9 @@
       <c r="A8" t="s">
         <v>117</v>
       </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
       <c r="C8" s="98">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2632,6 +2650,9 @@
       <c r="A9" t="s">
         <v>117</v>
       </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
       <c r="C9" s="98">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2695,6 +2716,9 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
       </c>
       <c r="C10" s="98">
         <f t="shared" si="1"/>

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -2156,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y600"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="K25" sqref="K25"/>

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
@@ -2156,11 +2156,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="O1" activeCellId="1" sqref="C1:C1048576 O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,7 +2168,7 @@
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
@@ -4645,7 +4645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y600"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="158">
   <si>
     <t>Swell</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>1.0-2.0</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>WAVE</t>
   </si>
 </sst>
 </file>
@@ -2157,10 +2163,10 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O1" activeCellId="1" sqref="C1:C1048576 O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2791,7 @@
         <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C11" s="98">
         <f t="shared" si="1"/>
@@ -2852,7 +2858,7 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C12" s="98">
         <f t="shared" si="1"/>
@@ -2919,7 +2925,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C13" s="98">
         <f t="shared" si="1"/>
@@ -2986,7 +2992,7 @@
         <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C14" s="98">
         <f t="shared" si="1"/>
@@ -3053,7 +3059,7 @@
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="C15" s="98">
         <f t="shared" si="1"/>
@@ -3120,7 +3126,7 @@
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="C16" s="99">
         <f t="shared" si="1"/>
@@ -3187,7 +3193,7 @@
         <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C17" s="98">
         <f t="shared" si="1"/>
@@ -3251,7 +3257,7 @@
         <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C18" s="98">
         <f t="shared" si="1"/>
@@ -3315,7 +3321,7 @@
         <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C19" s="98">
         <f t="shared" si="1"/>
@@ -3379,7 +3385,7 @@
         <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C20" s="98">
         <f t="shared" si="1"/>
@@ -3443,7 +3449,7 @@
         <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C21" s="98">
         <f t="shared" si="1"/>
@@ -3507,7 +3513,7 @@
         <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C22" s="98">
         <f t="shared" si="1"/>
@@ -3571,7 +3577,7 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C23" s="98">
         <f t="shared" si="1"/>
@@ -3635,7 +3641,7 @@
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C24" s="98">
         <f t="shared" si="1"/>
@@ -3699,7 +3705,7 @@
         <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C25" s="99">
         <f t="shared" si="1"/>
@@ -3763,7 +3769,7 @@
         <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C26" s="98">
         <f t="shared" si="1"/>
@@ -3827,7 +3833,7 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C27" s="98">
         <f t="shared" si="1"/>
@@ -3891,7 +3897,7 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C28" s="98">
         <f t="shared" si="1"/>
@@ -3955,7 +3961,7 @@
         <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C29" s="98">
         <f t="shared" si="1"/>
@@ -4019,7 +4025,7 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C30" s="98">
         <f t="shared" si="1"/>
@@ -4083,7 +4089,7 @@
         <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C31" s="98">
         <f t="shared" si="1"/>
@@ -4147,7 +4153,7 @@
         <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C32" s="100">
         <f t="shared" si="1"/>

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="172">
   <si>
     <t>Swell</t>
   </si>
@@ -503,6 +503,48 @@
   <si>
     <t>WAVE</t>
   </si>
+  <si>
+    <t>Tide Start m</t>
+  </si>
+  <si>
+    <t>Tide end m</t>
+  </si>
+  <si>
+    <t>Tide movement m</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Rising</t>
+  </si>
+  <si>
+    <t>Falling</t>
+  </si>
+  <si>
+    <t>Rising ADCP only</t>
+  </si>
+  <si>
+    <t>Falling ADCP only</t>
+  </si>
+  <si>
+    <t>Rising TIDE</t>
+  </si>
+  <si>
+    <t>Falling TIDE</t>
+  </si>
+  <si>
+    <t>Rising WIND</t>
+  </si>
+  <si>
+    <t>Falling WIND</t>
+  </si>
+  <si>
+    <t>Rising WAVE</t>
+  </si>
+  <si>
+    <t>Falling WAVE</t>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1029,12 +1071,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1322,9 +1401,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2160,13 +2268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,19 +2284,21 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -2199,27 +2309,30 @@
       <c r="H1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
       <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>123</v>
       </c>
@@ -2241,41 +2354,50 @@
       <c r="H2" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="M2" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="U2" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -2297,48 +2419,60 @@
       <c r="G3" s="73">
         <v>1500</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="113">
         <f>'NDBC NSTP6 timeseries data'!I4</f>
         <v>1.5389999999999999</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="28">
+        <f>H3 *0.3048</f>
+        <v>0.46908719999999998</v>
+      </c>
+      <c r="J3" s="117">
         <f>'NDBC NSTP6 timeseries data'!I24</f>
         <v>0.97399999999999998</v>
       </c>
-      <c r="J3" s="47">
-        <f>I3-H3</f>
+      <c r="K3" s="28">
+        <f>J3*0.3048</f>
+        <v>0.29687520000000001</v>
+      </c>
+      <c r="L3" s="47">
+        <f>J3-H3</f>
         <v>-0.56499999999999995</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="M3" s="70">
+        <f>K3 - I3</f>
+        <v>-0.17221199999999998</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="48">
+      <c r="O3" s="48">
         <f>'NDBC NSTP6 timeseries data'!K25</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="M3" s="49">
+      <c r="P3" s="49">
         <f>'NDBC NSTP6 timeseries data'!L25</f>
         <v>232.5</v>
       </c>
-      <c r="N3" s="48">
+      <c r="Q3" s="48">
         <f>'NDBC NSTP6 timeseries data'!M25</f>
         <v>3.6</v>
       </c>
-      <c r="O3" s="74" t="s">
+      <c r="R3" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="112" t="s">
+      <c r="S3" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="75" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="V3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -2361,48 +2495,60 @@
       <c r="G4" s="72">
         <v>1730</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="114">
         <f>'NDBC NSTP6 timeseries data'!I27</f>
         <v>1.03</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="28">
+        <f t="shared" ref="I4:I32" si="0">H4 *0.3048</f>
+        <v>0.313944</v>
+      </c>
+      <c r="J4" s="118">
         <f>'NDBC NSTP6 timeseries data'!I42</f>
         <v>1.23</v>
       </c>
-      <c r="J4" s="32">
-        <f>I4-H4</f>
+      <c r="K4" s="28">
+        <f t="shared" ref="K4:K32" si="1">J4*0.3048</f>
+        <v>0.37490400000000002</v>
+      </c>
+      <c r="L4" s="32">
+        <f>J4-H4</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="M4" s="70">
+        <f>K4 - I4</f>
+        <v>6.0960000000000014E-2</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="28">
+      <c r="O4" s="28">
         <f>'NDBC NSTP6 timeseries data'!K43</f>
         <v>2.375</v>
       </c>
-      <c r="M4" s="27">
+      <c r="P4" s="27">
         <f>'NDBC NSTP6 timeseries data'!L43</f>
         <v>193.6875</v>
       </c>
-      <c r="N4" s="28">
+      <c r="Q4" s="28">
         <f>'NDBC NSTP6 timeseries data'!M43</f>
         <v>7</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="R4" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="75" t="s">
+      <c r="T4" s="109"/>
+      <c r="U4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -2425,48 +2571,60 @@
       <c r="G5" s="72">
         <v>1900</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="114">
         <f>'NDBC NSTP6 timeseries data'!I45</f>
         <v>1.23</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="28">
+        <f t="shared" si="0"/>
+        <v>0.37490400000000002</v>
+      </c>
+      <c r="J5" s="118">
         <f>'NDBC NSTP6 timeseries data'!I60</f>
         <v>1.94</v>
       </c>
-      <c r="J5" s="32">
-        <f t="shared" ref="J5" si="0">I5-H5</f>
+      <c r="K5" s="28">
+        <f t="shared" si="1"/>
+        <v>0.59131200000000006</v>
+      </c>
+      <c r="L5" s="32">
+        <f t="shared" ref="L5" si="2">J5-H5</f>
         <v>0.71</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="70">
+        <f t="shared" ref="M5:M32" si="3">K5 - I5</f>
+        <v>0.21640800000000004</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="28">
+      <c r="O5" s="28">
         <f>'NDBC NSTP6 timeseries data'!K61</f>
         <v>3.25</v>
       </c>
-      <c r="M5" s="27">
+      <c r="P5" s="27">
         <f>'NDBC NSTP6 timeseries data'!L61</f>
         <v>258.375</v>
       </c>
-      <c r="N5" s="28">
+      <c r="Q5" s="28">
         <f>'NDBC NSTP6 timeseries data'!M61</f>
         <v>10</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="R5" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="S5" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="75" t="s">
+      <c r="T5" s="109"/>
+      <c r="U5" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="V5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -2474,7 +2632,7 @@
         <v>124</v>
       </c>
       <c r="C6" s="98">
-        <f t="shared" ref="C6:C32" si="1">C5+1</f>
+        <f t="shared" ref="C6:C32" si="4">C5+1</f>
         <v>4</v>
       </c>
       <c r="D6" s="103">
@@ -2489,46 +2647,58 @@
       <c r="G6" s="72">
         <v>1100</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="114">
         <v>3.7429999999999999</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1408663999999999</v>
+      </c>
+      <c r="J6" s="118">
         <v>2.58</v>
       </c>
-      <c r="J6" s="70">
-        <f>I6-H6</f>
+      <c r="K6" s="28">
+        <f t="shared" si="1"/>
+        <v>0.78638400000000008</v>
+      </c>
+      <c r="L6" s="70">
+        <f>J6-H6</f>
         <v>-1.1629999999999998</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="M6" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.35448239999999986</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="28">
+      <c r="O6" s="28">
         <f>'NDBC NSTP6 timeseries data'!K84</f>
         <v>5.2725</v>
       </c>
-      <c r="M6" s="27">
+      <c r="P6" s="27">
         <f>'NDBC NSTP6 timeseries data'!L84</f>
         <v>96.1875</v>
       </c>
-      <c r="N6" s="28">
+      <c r="Q6" s="28">
         <f>'NDBC NSTP6 timeseries data'!M84</f>
         <v>11.08</v>
       </c>
-      <c r="O6" s="75" t="s">
+      <c r="R6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="S6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="75" t="s">
+      <c r="T6" s="109"/>
+      <c r="U6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="V6" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -2536,7 +2706,7 @@
         <v>124</v>
       </c>
       <c r="C7" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D7" s="103">
@@ -2551,46 +2721,58 @@
       <c r="G7" s="72">
         <v>1300</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="114">
         <v>2.2280000000000002</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.6790944000000001</v>
+      </c>
+      <c r="J7" s="118">
         <v>0.879</v>
       </c>
-      <c r="J7" s="70">
-        <f>I7-H7</f>
+      <c r="K7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.26791920000000002</v>
+      </c>
+      <c r="L7" s="70">
+        <f>J7-H7</f>
         <v>-1.3490000000000002</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="M7" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.41117520000000007</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="28">
+      <c r="O7" s="28">
         <f>'NDBC NSTP6 timeseries data'!K102</f>
         <v>5.6875</v>
       </c>
-      <c r="M7" s="27">
+      <c r="P7" s="27">
         <f>'NDBC NSTP6 timeseries data'!L102</f>
         <v>100.25</v>
       </c>
-      <c r="N7" s="28">
+      <c r="Q7" s="28">
         <f>'NDBC NSTP6 timeseries data'!M102</f>
         <v>13</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="R7" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="75" t="s">
+      <c r="T7" s="109"/>
+      <c r="U7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="V7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -2598,7 +2780,7 @@
         <v>124</v>
       </c>
       <c r="C8" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D8" s="103">
@@ -2613,46 +2795,58 @@
       <c r="G8" s="72">
         <v>1900</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="114">
         <v>1.512</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.46085760000000003</v>
+      </c>
+      <c r="J8" s="118">
         <v>3.222</v>
       </c>
-      <c r="J8" s="32">
-        <f t="shared" ref="J8:J32" si="2">I8-H8</f>
+      <c r="K8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.98206560000000009</v>
+      </c>
+      <c r="L8" s="32">
+        <f t="shared" ref="L8:L32" si="5">J8-H8</f>
         <v>1.71</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="M8" s="70">
+        <f t="shared" si="3"/>
+        <v>0.52120800000000012</v>
+      </c>
+      <c r="N8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="28">
+      <c r="O8" s="28">
         <f>'NDBC NSTP6 timeseries data'!K125</f>
         <v>4.2380952380952381</v>
       </c>
-      <c r="M8" s="27">
+      <c r="P8" s="27">
         <f>'NDBC NSTP6 timeseries data'!L125</f>
         <v>187.95238095238096</v>
       </c>
-      <c r="N8" s="28">
+      <c r="Q8" s="28">
         <f>'NDBC NSTP6 timeseries data'!M125</f>
         <v>13</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="R8" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="S8" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="75" t="s">
+      <c r="T8" s="109"/>
+      <c r="U8" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="V8" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -2660,7 +2854,7 @@
         <v>124</v>
       </c>
       <c r="C9" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D9" s="103">
@@ -2675,51 +2869,63 @@
       <c r="G9" s="72">
         <v>1545</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="114">
         <f>'NDBC NSTP6 timeseries data'!I127</f>
         <v>3.1</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.94488000000000005</v>
+      </c>
+      <c r="J9" s="118">
         <f>'NDBC NSTP6 timeseries data'!I143</f>
         <v>3.45</v>
       </c>
-      <c r="J9" s="32">
-        <f t="shared" si="2"/>
+      <c r="K9" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0515600000000001</v>
+      </c>
+      <c r="L9" s="32">
+        <f t="shared" si="5"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="M9" s="70">
+        <f t="shared" si="3"/>
+        <v>0.10668</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="28">
+      <c r="O9" s="28">
         <f>'NDBC NSTP6 timeseries data'!K144</f>
         <v>5.2352941176470589</v>
       </c>
-      <c r="M9" s="27">
+      <c r="P9" s="27">
         <f>'NDBC NSTP6 timeseries data'!L144</f>
         <v>140.41176470588235</v>
       </c>
-      <c r="N9" s="28">
+      <c r="Q9" s="28">
         <f>'NDBC NSTP6 timeseries data'!M144</f>
         <v>18</v>
       </c>
-      <c r="O9" s="75" t="s">
+      <c r="R9" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="S9" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="75" t="s">
+      <c r="T9" s="109"/>
+      <c r="U9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="V9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="88" t="s">
+      <c r="W9" s="88" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -2727,7 +2933,7 @@
         <v>124</v>
       </c>
       <c r="C10" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D10" s="103">
@@ -2742,51 +2948,63 @@
       <c r="G10" s="72">
         <v>1800</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="114">
         <f>'NDBC NSTP6 timeseries data'!I146</f>
         <v>3.33</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0149840000000001</v>
+      </c>
+      <c r="J10" s="118">
         <f>'NDBC NSTP6 timeseries data'!I167</f>
         <v>2.5299999999999998</v>
       </c>
-      <c r="J10" s="70">
-        <f t="shared" si="2"/>
+      <c r="K10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.77114399999999994</v>
+      </c>
+      <c r="L10" s="70">
+        <f t="shared" si="5"/>
         <v>-0.80000000000000027</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="M10" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.24384000000000017</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="28">
+      <c r="O10" s="28">
         <f>'NDBC NSTP6 timeseries data'!K168</f>
         <v>6.0454545454545459</v>
       </c>
-      <c r="M10" s="27">
+      <c r="P10" s="27">
         <f>'NDBC NSTP6 timeseries data'!L168</f>
         <v>144.13636363636363</v>
       </c>
-      <c r="N10" s="28">
+      <c r="Q10" s="28">
         <f>'NDBC NSTP6 timeseries data'!M168</f>
         <v>20</v>
       </c>
-      <c r="O10" s="75" t="s">
+      <c r="R10" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="S10" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="75" t="s">
+      <c r="T10" s="109"/>
+      <c r="U10" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="V10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="88" t="s">
+      <c r="W10" s="88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -2794,7 +3012,7 @@
         <v>156</v>
       </c>
       <c r="C11" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="D11" s="103">
@@ -2809,51 +3027,63 @@
       <c r="G11" s="72">
         <v>1846</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="114">
         <f>'NDBC NSTP6 timeseries data'!I170</f>
         <v>2.39</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.72847200000000012</v>
+      </c>
+      <c r="J11" s="118">
         <f>'NDBC NSTP6 timeseries data'!I189</f>
         <v>3.25</v>
       </c>
-      <c r="J11" s="32">
-        <f t="shared" si="2"/>
+      <c r="K11" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="L11" s="32">
+        <f t="shared" si="5"/>
         <v>0.85999999999999988</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="M11" s="70">
+        <f t="shared" si="3"/>
+        <v>0.26212799999999992</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="28">
+      <c r="O11" s="28">
         <f>'NDBC NSTP6 timeseries data'!K190</f>
         <v>3.25</v>
       </c>
-      <c r="M11" s="27">
+      <c r="P11" s="27">
         <f>'NDBC NSTP6 timeseries data'!L190</f>
         <v>168.8</v>
       </c>
-      <c r="N11" s="28">
+      <c r="Q11" s="28">
         <f>'NDBC NSTP6 timeseries data'!M190</f>
         <v>9</v>
       </c>
-      <c r="O11" s="75" t="s">
+      <c r="R11" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="S11" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="75" t="s">
+      <c r="T11" s="109"/>
+      <c r="U11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="V11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="88" t="s">
+      <c r="W11" s="88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -2861,7 +3091,7 @@
         <v>156</v>
       </c>
       <c r="C12" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D12" s="103">
@@ -2876,51 +3106,63 @@
       <c r="G12" s="72">
         <v>1500</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="114">
         <f>'NDBC NSTP6 timeseries data'!I192</f>
         <v>1.62</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.49377600000000005</v>
+      </c>
+      <c r="J12" s="118">
         <f>'NDBC NSTP6 timeseries data'!I215</f>
         <v>1.1100000000000001</v>
       </c>
-      <c r="J12" s="70">
-        <f t="shared" si="2"/>
+      <c r="K12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.33832800000000007</v>
+      </c>
+      <c r="L12" s="70">
+        <f t="shared" si="5"/>
         <v>-0.51</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="M12" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.15544799999999998</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="28">
+      <c r="O12" s="28">
         <f>'NDBC NSTP6 timeseries data'!K216</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="M12" s="27">
+      <c r="P12" s="27">
         <f>'NDBC NSTP6 timeseries data'!L216</f>
         <v>79.958333333333329</v>
       </c>
-      <c r="N12" s="28">
+      <c r="Q12" s="28">
         <f>'NDBC NSTP6 timeseries data'!M216</f>
         <v>28</v>
       </c>
-      <c r="O12" s="75" t="s">
+      <c r="R12" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="75" t="s">
+      <c r="T12" s="109"/>
+      <c r="U12" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="V12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T12" s="88" t="s">
+      <c r="W12" s="88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -2928,7 +3170,7 @@
         <v>156</v>
       </c>
       <c r="C13" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="D13" s="103">
@@ -2943,51 +3185,63 @@
       <c r="G13" s="72">
         <v>1700</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="114">
         <f>'NDBC NSTP6 timeseries data'!I218</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.347472</v>
+      </c>
+      <c r="J13" s="118">
         <f>'NDBC NSTP6 timeseries data'!I236</f>
         <v>1.59</v>
       </c>
-      <c r="J13" s="32">
-        <f t="shared" si="2"/>
+      <c r="K13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.48463200000000006</v>
+      </c>
+      <c r="L13" s="32">
+        <f t="shared" si="5"/>
         <v>0.45000000000000018</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="M13" s="70">
+        <f t="shared" si="3"/>
+        <v>0.13716000000000006</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="28">
+      <c r="O13" s="28">
         <f>'NDBC NSTP6 timeseries data'!K237</f>
         <v>5.8947368421052628</v>
       </c>
-      <c r="M13" s="27">
+      <c r="P13" s="27">
         <f>'NDBC NSTP6 timeseries data'!L237</f>
         <v>101.36842105263158</v>
       </c>
-      <c r="N13" s="28">
+      <c r="Q13" s="28">
         <f>'NDBC NSTP6 timeseries data'!M237</f>
         <v>20</v>
       </c>
-      <c r="O13" s="75" t="s">
+      <c r="R13" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="75" t="s">
+      <c r="T13" s="109"/>
+      <c r="U13" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="V13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="88" t="s">
+      <c r="W13" s="88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -2995,7 +3249,7 @@
         <v>156</v>
       </c>
       <c r="C14" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D14" s="103">
@@ -3010,51 +3264,63 @@
       <c r="G14" s="72">
         <v>1840</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="114">
         <f>'NDBC NSTP6 timeseries data'!I239</f>
         <v>1.62</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.49377600000000005</v>
+      </c>
+      <c r="J14" s="118">
         <f>'NDBC NSTP6 timeseries data'!I256</f>
         <v>2.56</v>
       </c>
-      <c r="J14" s="32">
-        <f t="shared" si="2"/>
+      <c r="K14" s="28">
+        <f t="shared" si="1"/>
+        <v>0.78028800000000009</v>
+      </c>
+      <c r="L14" s="32">
+        <f t="shared" si="5"/>
         <v>0.94</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="M14" s="70">
+        <f t="shared" si="3"/>
+        <v>0.28651200000000004</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="28">
+      <c r="O14" s="28">
         <f>'NDBC NSTP6 timeseries data'!K257</f>
         <v>5.166666666666667</v>
       </c>
-      <c r="M14" s="27">
+      <c r="P14" s="27">
         <f>'NDBC NSTP6 timeseries data'!L257</f>
         <v>89.888888888888886</v>
       </c>
-      <c r="N14" s="28">
+      <c r="Q14" s="28">
         <f>'NDBC NSTP6 timeseries data'!M257</f>
         <v>15</v>
       </c>
-      <c r="O14" s="75" t="s">
+      <c r="R14" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="S14" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="75" t="s">
+      <c r="T14" s="109"/>
+      <c r="U14" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="15" t="s">
+      <c r="V14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="88" t="s">
+      <c r="W14" s="88" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -3062,7 +3328,7 @@
         <v>156</v>
       </c>
       <c r="C15" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D15" s="103">
@@ -3077,51 +3343,63 @@
       <c r="G15" s="72">
         <v>1445</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="114">
         <f>'NDBC NSTP6 timeseries data'!I259</f>
         <v>2.09</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.63703200000000004</v>
+      </c>
+      <c r="J15" s="118">
         <f>'NDBC NSTP6 timeseries data'!I280</f>
         <v>1.26</v>
       </c>
-      <c r="J15" s="70">
-        <f t="shared" si="2"/>
+      <c r="K15" s="28">
+        <f t="shared" si="1"/>
+        <v>0.384048</v>
+      </c>
+      <c r="L15" s="70">
+        <f t="shared" si="5"/>
         <v>-0.82999999999999985</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="M15" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.25298400000000004</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="28">
+      <c r="O15" s="28">
         <f>'NDBC NSTP6 timeseries data'!K281</f>
         <v>4.9090909090909092</v>
       </c>
-      <c r="M15" s="27">
+      <c r="P15" s="27">
         <f>'NDBC NSTP6 timeseries data'!L281</f>
         <v>97.727272727272734</v>
       </c>
-      <c r="N15" s="28">
+      <c r="Q15" s="28">
         <f>'NDBC NSTP6 timeseries data'!M281</f>
         <v>14</v>
       </c>
-      <c r="O15" s="75" t="s">
+      <c r="R15" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="S15" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="75" t="s">
+      <c r="T15" s="109"/>
+      <c r="U15" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="15" t="s">
+      <c r="V15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="88" t="s">
+      <c r="W15" s="88" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -3129,7 +3407,7 @@
         <v>156</v>
       </c>
       <c r="C16" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="D16" s="103">
@@ -3144,51 +3422,63 @@
       <c r="G16" s="76">
         <v>1700</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="115">
         <f>'NDBC NSTP6 timeseries data'!I283</f>
         <v>1.3</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.39624000000000004</v>
+      </c>
+      <c r="J16" s="119">
         <f>'NDBC NSTP6 timeseries data'!I306</f>
         <v>1.37</v>
       </c>
-      <c r="J16" s="78">
-        <f t="shared" si="2"/>
+      <c r="K16" s="28">
+        <f t="shared" si="1"/>
+        <v>0.41757600000000006</v>
+      </c>
+      <c r="L16" s="78">
+        <f t="shared" si="5"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="M16" s="70">
+        <f t="shared" si="3"/>
+        <v>2.1336000000000022E-2</v>
+      </c>
+      <c r="N16" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="79">
+      <c r="O16" s="79">
         <f>'NDBC NSTP6 timeseries data'!K307</f>
         <v>4.708333333333333</v>
       </c>
-      <c r="M16" s="80">
+      <c r="P16" s="80">
         <f>'NDBC NSTP6 timeseries data'!L307</f>
         <v>194.41666666666666</v>
       </c>
-      <c r="N16" s="79">
+      <c r="Q16" s="79">
         <f>'NDBC NSTP6 timeseries data'!M307</f>
         <v>15</v>
       </c>
-      <c r="O16" s="82" t="s">
+      <c r="R16" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="82" t="s">
+      <c r="T16" s="110"/>
+      <c r="U16" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="89" t="s">
+      <c r="V16" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="T16" s="88" t="s">
+      <c r="W16" s="88" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -3196,7 +3486,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D17" s="103">
@@ -3211,48 +3501,60 @@
       <c r="G17" s="72">
         <v>1440</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="114">
         <f>'NDBC NSTP6 timeseries data'!I309</f>
         <v>2.8809999999999998</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.87812879999999993</v>
+      </c>
+      <c r="J17" s="118">
         <f>'NDBC NSTP6 timeseries data'!I336</f>
         <v>1.516</v>
       </c>
-      <c r="J17" s="90">
-        <f t="shared" si="2"/>
+      <c r="K17" s="28">
+        <f t="shared" si="1"/>
+        <v>0.46207680000000001</v>
+      </c>
+      <c r="L17" s="90">
+        <f t="shared" si="5"/>
         <v>-1.3649999999999998</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="M17" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.41605199999999992</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="28">
+      <c r="O17" s="28">
         <f>'NDBC NSTP6 timeseries data'!K337</f>
         <v>5.7757142857142858</v>
       </c>
-      <c r="M17" s="27">
+      <c r="P17" s="27">
         <f>'NDBC NSTP6 timeseries data'!L337</f>
         <v>39.857142857142854</v>
       </c>
-      <c r="N17" s="28">
+      <c r="Q17" s="28">
         <f>'NDBC NSTP6 timeseries data'!M337</f>
         <v>11.47</v>
       </c>
-      <c r="O17" s="75" t="s">
+      <c r="R17" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="S17" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="82" t="s">
+      <c r="T17" s="109"/>
+      <c r="U17" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="89" t="s">
+      <c r="V17" s="89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -3260,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D18" s="103">
@@ -3275,48 +3577,60 @@
       <c r="G18" s="72">
         <v>1720</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="114">
         <f>'NDBC NSTP6 timeseries data'!I339</f>
         <v>1.516</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.46207680000000001</v>
+      </c>
+      <c r="J18" s="118">
         <f>'NDBC NSTP6 timeseries data'!I365</f>
         <v>1.24</v>
       </c>
-      <c r="J18" s="90">
-        <f t="shared" si="2"/>
+      <c r="K18" s="28">
+        <f t="shared" si="1"/>
+        <v>0.37795200000000001</v>
+      </c>
+      <c r="L18" s="90">
+        <f t="shared" si="5"/>
         <v>-0.27600000000000002</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="M18" s="70">
+        <f t="shared" si="3"/>
+        <v>-8.41248E-2</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="28">
+      <c r="O18" s="28">
         <f>'NDBC NSTP6 timeseries data'!K366</f>
         <v>6.565555555555556</v>
       </c>
-      <c r="M18" s="27">
+      <c r="P18" s="27">
         <f>'NDBC NSTP6 timeseries data'!L366</f>
         <v>54.407407407407405</v>
       </c>
-      <c r="N18" s="28">
+      <c r="Q18" s="28">
         <f>'NDBC NSTP6 timeseries data'!M366</f>
         <v>14.77</v>
       </c>
-      <c r="O18" s="75" t="s">
+      <c r="R18" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="S18" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="75" t="s">
+      <c r="T18" s="109"/>
+      <c r="U18" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="V18" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3324,7 +3638,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="D19" s="103">
@@ -3339,48 +3653,60 @@
       <c r="G19" s="72">
         <v>1045</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="114">
         <f>'NDBC NSTP6 timeseries data'!I368</f>
         <v>2.52</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.768096</v>
+      </c>
+      <c r="J19" s="118">
         <f>'NDBC NSTP6 timeseries data'!I389</f>
         <v>3.15</v>
       </c>
-      <c r="J19" s="78">
-        <f t="shared" si="2"/>
+      <c r="K19" s="28">
+        <f t="shared" si="1"/>
+        <v>0.96011999999999997</v>
+      </c>
+      <c r="L19" s="78">
+        <f t="shared" si="5"/>
         <v>0.62999999999999989</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="M19" s="70">
+        <f t="shared" si="3"/>
+        <v>0.19202399999999997</v>
+      </c>
+      <c r="N19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="28">
+      <c r="O19" s="28">
         <f>'NDBC NSTP6 timeseries data'!K390</f>
         <v>4.8181818181818183</v>
       </c>
-      <c r="M19" s="27">
+      <c r="P19" s="27">
         <f>'NDBC NSTP6 timeseries data'!L390</f>
         <v>290.22727272727275</v>
       </c>
-      <c r="N19" s="28">
+      <c r="Q19" s="28">
         <f>'NDBC NSTP6 timeseries data'!M390</f>
         <v>13</v>
       </c>
-      <c r="O19" s="75" t="s">
+      <c r="R19" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="S19" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="82" t="s">
+      <c r="T19" s="109"/>
+      <c r="U19" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="89" t="s">
+      <c r="V19" s="89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -3388,7 +3714,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D20" s="103">
@@ -3403,48 +3729,60 @@
       <c r="G20" s="72">
         <v>1200</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="114">
         <f>'NDBC NSTP6 timeseries data'!I392</f>
         <v>3.2</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.97536000000000012</v>
+      </c>
+      <c r="J20" s="118">
         <f>'NDBC NSTP6 timeseries data'!I402</f>
         <v>3.05</v>
       </c>
-      <c r="J20" s="90">
-        <f t="shared" si="2"/>
+      <c r="K20" s="28">
+        <f t="shared" si="1"/>
+        <v>0.92964000000000002</v>
+      </c>
+      <c r="L20" s="90">
+        <f t="shared" si="5"/>
         <v>-0.15000000000000036</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="M20" s="70">
+        <f t="shared" si="3"/>
+        <v>-4.5720000000000094E-2</v>
+      </c>
+      <c r="N20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="28">
+      <c r="O20" s="28">
         <f>'NDBC NSTP6 timeseries data'!K403</f>
         <v>4.2727272727272725</v>
       </c>
-      <c r="M20" s="27">
+      <c r="P20" s="27">
         <f>'NDBC NSTP6 timeseries data'!L403</f>
         <v>117.18181818181819</v>
       </c>
-      <c r="N20" s="28">
+      <c r="Q20" s="28">
         <f>'NDBC NSTP6 timeseries data'!M403</f>
         <v>11</v>
       </c>
-      <c r="O20" s="75" t="s">
+      <c r="R20" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="82" t="s">
+      <c r="T20" s="109"/>
+      <c r="U20" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="89" t="s">
+      <c r="V20" s="89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -3452,7 +3790,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="D21" s="103">
@@ -3467,48 +3805,60 @@
       <c r="G21" s="72">
         <v>1430</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="114">
         <f>'NDBC NSTP6 timeseries data'!I405</f>
         <v>3.02</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="28">
+        <f t="shared" si="0"/>
+        <v>0.92049600000000009</v>
+      </c>
+      <c r="J21" s="118">
         <f>'NDBC NSTP6 timeseries data'!I429</f>
         <v>2.06</v>
       </c>
-      <c r="J21" s="90">
-        <f t="shared" si="2"/>
+      <c r="K21" s="28">
+        <f t="shared" si="1"/>
+        <v>0.627888</v>
+      </c>
+      <c r="L21" s="90">
+        <f t="shared" si="5"/>
         <v>-0.96</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="M21" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.29260800000000009</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="28">
+      <c r="O21" s="28">
         <f>'NDBC NSTP6 timeseries data'!K430</f>
         <v>2.96</v>
       </c>
-      <c r="M21" s="27">
+      <c r="P21" s="27">
         <f>'NDBC NSTP6 timeseries data'!L430</f>
         <v>237.8</v>
       </c>
-      <c r="N21" s="28">
+      <c r="Q21" s="28">
         <f>'NDBC NSTP6 timeseries data'!M430</f>
         <v>12</v>
       </c>
-      <c r="O21" s="75" t="s">
+      <c r="R21" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="S21" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="75" t="s">
+      <c r="T21" s="109"/>
+      <c r="U21" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="V21" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -3516,7 +3866,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D22" s="103">
@@ -3531,48 +3881,60 @@
       <c r="G22" s="72">
         <v>1630</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="114">
         <f>'NDBC NSTP6 timeseries data'!I432</f>
         <v>1.85</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="28">
+        <f t="shared" si="0"/>
+        <v>0.56388000000000005</v>
+      </c>
+      <c r="J22" s="118">
         <f>'NDBC NSTP6 timeseries data'!I447</f>
         <v>1.29</v>
       </c>
-      <c r="J22" s="90">
-        <f t="shared" si="2"/>
+      <c r="K22" s="28">
+        <f t="shared" si="1"/>
+        <v>0.39319200000000004</v>
+      </c>
+      <c r="L22" s="90">
+        <f t="shared" si="5"/>
         <v>-0.56000000000000005</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="M22" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.17068800000000001</v>
+      </c>
+      <c r="N22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="28">
+      <c r="O22" s="28">
         <f>'NDBC NSTP6 timeseries data'!K448</f>
         <v>5.9375</v>
       </c>
-      <c r="M22" s="27">
+      <c r="P22" s="27">
         <f>'NDBC NSTP6 timeseries data'!L448</f>
         <v>290</v>
       </c>
-      <c r="N22" s="28">
+      <c r="Q22" s="28">
         <f>'NDBC NSTP6 timeseries data'!M448</f>
         <v>13</v>
       </c>
-      <c r="O22" s="75" t="s">
+      <c r="R22" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="S22" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="75" t="s">
+      <c r="T22" s="109"/>
+      <c r="U22" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S22" s="15" t="s">
+      <c r="V22" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -3580,7 +3942,7 @@
         <v>157</v>
       </c>
       <c r="C23" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="D23" s="103">
@@ -3595,48 +3957,60 @@
       <c r="G23" s="11">
         <v>1040</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="114">
         <f>'NDBC NSTP6 timeseries data'!I450</f>
         <v>2.37</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.72237600000000002</v>
+      </c>
+      <c r="J23" s="118">
         <f>'NDBC NSTP6 timeseries data'!I464</f>
         <v>2.97</v>
       </c>
-      <c r="J23" s="78">
-        <f t="shared" si="2"/>
+      <c r="K23" s="28">
+        <f t="shared" si="1"/>
+        <v>0.90525600000000006</v>
+      </c>
+      <c r="L23" s="78">
+        <f t="shared" si="5"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="M23" s="70">
+        <f t="shared" si="3"/>
+        <v>0.18288000000000004</v>
+      </c>
+      <c r="N23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L23" s="28">
+      <c r="O23" s="28">
         <f>'NDBC NSTP6 timeseries data'!K465</f>
         <v>2.8666666666666667</v>
       </c>
-      <c r="M23" s="11">
+      <c r="P23" s="11">
         <f>'NDBC NSTP6 timeseries data'!L465</f>
         <v>253</v>
       </c>
-      <c r="N23" s="11">
+      <c r="Q23" s="11">
         <f>'NDBC NSTP6 timeseries data'!M465</f>
         <v>11</v>
       </c>
-      <c r="O23" s="75" t="s">
+      <c r="R23" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="S23" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="82" t="s">
+      <c r="T23" s="111"/>
+      <c r="U23" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="89" t="s">
+      <c r="V23" s="89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -3644,7 +4018,7 @@
         <v>157</v>
       </c>
       <c r="C24" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="D24" s="103">
@@ -3659,48 +4033,60 @@
       <c r="G24" s="11">
         <v>1145</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="114">
         <f>'NDBC NSTP6 timeseries data'!I467</f>
         <v>3.01</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="28">
+        <f t="shared" si="0"/>
+        <v>0.91744799999999993</v>
+      </c>
+      <c r="J24" s="118">
         <f>'NDBC NSTP6 timeseries data'!I479</f>
         <v>3.29</v>
       </c>
-      <c r="J24" s="78">
-        <f t="shared" si="2"/>
+      <c r="K24" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0027920000000001</v>
+      </c>
+      <c r="L24" s="78">
+        <f t="shared" si="5"/>
         <v>0.28000000000000025</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="M24" s="70">
+        <f t="shared" si="3"/>
+        <v>8.5344000000000197E-2</v>
+      </c>
+      <c r="N24" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="28">
+      <c r="O24" s="28">
         <f>'NDBC NSTP6 timeseries data'!K480</f>
         <v>3.8461538461538463</v>
       </c>
-      <c r="M24" s="27">
+      <c r="P24" s="27">
         <f>'NDBC NSTP6 timeseries data'!L480</f>
         <v>111.15384615384616</v>
       </c>
-      <c r="N24" s="11">
+      <c r="Q24" s="11">
         <f>'NDBC NSTP6 timeseries data'!M480</f>
         <v>11</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="S24" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="82" t="s">
+      <c r="T24" s="12"/>
+      <c r="U24" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="89" t="s">
+      <c r="V24" s="89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -3708,7 +4094,7 @@
         <v>157</v>
       </c>
       <c r="C25" s="99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="D25" s="103">
@@ -3723,48 +4109,60 @@
       <c r="G25" s="77">
         <v>1400</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="115">
         <f>'NDBC NSTP6 timeseries data'!I482</f>
         <v>3.24</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="28">
+        <f t="shared" si="0"/>
+        <v>0.9875520000000001</v>
+      </c>
+      <c r="J25" s="119">
         <f>'NDBC NSTP6 timeseries data'!I492</f>
         <v>2.97</v>
       </c>
-      <c r="J25" s="90">
-        <f t="shared" si="2"/>
+      <c r="K25" s="28">
+        <f t="shared" si="1"/>
+        <v>0.90525600000000006</v>
+      </c>
+      <c r="L25" s="90">
+        <f t="shared" si="5"/>
         <v>-0.27</v>
       </c>
-      <c r="K25" s="77" t="s">
+      <c r="M25" s="70">
+        <f t="shared" si="3"/>
+        <v>-8.2296000000000036E-2</v>
+      </c>
+      <c r="N25" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="79">
+      <c r="O25" s="79">
         <f>'NDBC NSTP6 timeseries data'!K493</f>
         <v>3</v>
       </c>
-      <c r="M25" s="80">
+      <c r="P25" s="80">
         <f>'NDBC NSTP6 timeseries data'!L493</f>
         <v>193.45454545454547</v>
       </c>
-      <c r="N25" s="77">
+      <c r="Q25" s="77">
         <f>'NDBC NSTP6 timeseries data'!M493</f>
         <v>16</v>
       </c>
-      <c r="O25" s="81" t="s">
+      <c r="R25" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="S25" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="82" t="s">
+      <c r="T25" s="81"/>
+      <c r="U25" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="89" t="s">
+      <c r="V25" s="89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -3772,7 +4170,7 @@
         <v>157</v>
       </c>
       <c r="C26" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D26" s="103">
@@ -3787,48 +4185,60 @@
       <c r="G26" s="11">
         <v>1550</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="114">
         <f>'NDBC NSTP6 timeseries data'!I495</f>
         <v>2.39</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="28">
+        <f t="shared" si="0"/>
+        <v>0.72847200000000012</v>
+      </c>
+      <c r="J26" s="118">
         <f>'NDBC NSTP6 timeseries data'!I505</f>
         <v>1.86</v>
       </c>
-      <c r="J26" s="70">
-        <f t="shared" si="2"/>
+      <c r="K26" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5669280000000001</v>
+      </c>
+      <c r="L26" s="70">
+        <f t="shared" si="5"/>
         <v>-0.53</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="M26" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.16154400000000002</v>
+      </c>
+      <c r="N26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="28">
+      <c r="O26" s="28">
         <f>'NDBC NSTP6 timeseries data'!K506</f>
         <v>3.7272727272727271</v>
       </c>
-      <c r="M26" s="27">
+      <c r="P26" s="27">
         <f>'NDBC NSTP6 timeseries data'!L506</f>
         <v>152.27272727272728</v>
       </c>
-      <c r="N26" s="11">
+      <c r="Q26" s="11">
         <f>'NDBC NSTP6 timeseries data'!M506</f>
         <v>11</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="R26" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="S26" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12" t="s">
+      <c r="T26" s="12"/>
+      <c r="U26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="15" t="s">
+      <c r="V26" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>119</v>
       </c>
@@ -3836,7 +4246,7 @@
         <v>157</v>
       </c>
       <c r="C27" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="D27" s="103">
@@ -3851,48 +4261,60 @@
       <c r="G27" s="11">
         <v>1215</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="114">
         <f>'NDBC NSTP6 timeseries data'!I508</f>
         <v>2.71</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="28">
+        <f t="shared" si="0"/>
+        <v>0.82600800000000008</v>
+      </c>
+      <c r="J27" s="118">
         <f>'NDBC NSTP6 timeseries data'!I521</f>
         <v>3.17</v>
       </c>
-      <c r="J27" s="32">
-        <f t="shared" si="2"/>
+      <c r="K27" s="28">
+        <f t="shared" si="1"/>
+        <v>0.96621600000000007</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="5"/>
         <v>0.45999999999999996</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="M27" s="70">
+        <f t="shared" si="3"/>
+        <v>0.140208</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="11">
+      <c r="O27" s="11">
         <f>'NDBC NSTP6 timeseries data'!K522</f>
         <v>5.5</v>
       </c>
-      <c r="M27" s="27">
+      <c r="P27" s="27">
         <f>'NDBC NSTP6 timeseries data'!L522</f>
         <v>313.85714285714283</v>
       </c>
-      <c r="N27" s="11">
+      <c r="Q27" s="11">
         <f>'NDBC NSTP6 timeseries data'!M522</f>
         <v>14</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="R27" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="S27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12" t="s">
+      <c r="T27" s="11"/>
+      <c r="U27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="V27" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -3900,7 +4322,7 @@
         <v>157</v>
       </c>
       <c r="C28" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="D28" s="103">
@@ -3915,48 +4337,60 @@
       <c r="G28" s="11">
         <v>1315</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="114">
         <f>'NDBC NSTP6 timeseries data'!I524</f>
         <v>3.19</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.97231200000000007</v>
+      </c>
+      <c r="J28" s="118">
         <f>'NDBC NSTP6 timeseries data'!I535</f>
         <v>3.37</v>
       </c>
-      <c r="J28" s="32">
-        <f t="shared" si="2"/>
+      <c r="K28" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0271760000000001</v>
+      </c>
+      <c r="L28" s="32">
+        <f t="shared" si="5"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="M28" s="70">
+        <f t="shared" si="3"/>
+        <v>5.4864000000000024E-2</v>
+      </c>
+      <c r="N28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="28">
+      <c r="O28" s="28">
         <f>'NDBC NSTP6 timeseries data'!K536</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="M28" s="27">
+      <c r="P28" s="27">
         <f>'NDBC NSTP6 timeseries data'!L536</f>
         <v>301.5</v>
       </c>
-      <c r="N28" s="11">
+      <c r="Q28" s="11">
         <f>'NDBC NSTP6 timeseries data'!M536</f>
         <v>12</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="R28" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="S28" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="12" t="s">
+      <c r="T28" s="11"/>
+      <c r="U28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="15" t="s">
+      <c r="V28" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -3964,7 +4398,7 @@
         <v>157</v>
       </c>
       <c r="C29" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="D29" s="103">
@@ -3979,48 +4413,60 @@
       <c r="G29" s="11">
         <v>1700</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="114">
         <f>'NDBC NSTP6 timeseries data'!I538</f>
         <v>2.44</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="28">
+        <f t="shared" si="0"/>
+        <v>0.74371200000000004</v>
+      </c>
+      <c r="J29" s="118">
         <f>'NDBC NSTP6 timeseries data'!I548</f>
         <v>1.92</v>
       </c>
-      <c r="J29" s="70">
-        <f t="shared" si="2"/>
+      <c r="K29" s="28">
+        <f t="shared" si="1"/>
+        <v>0.58521599999999996</v>
+      </c>
+      <c r="L29" s="70">
+        <f t="shared" si="5"/>
         <v>-0.52</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="M29" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.15849600000000008</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="28">
+      <c r="O29" s="28">
         <f>'NDBC NSTP6 timeseries data'!K549</f>
         <v>4.1818181818181817</v>
       </c>
-      <c r="M29" s="27">
+      <c r="P29" s="27">
         <f>'NDBC NSTP6 timeseries data'!L549</f>
         <v>310.90909090909093</v>
       </c>
-      <c r="N29" s="11">
+      <c r="Q29" s="11">
         <f>'NDBC NSTP6 timeseries data'!M549</f>
         <v>10</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="S29" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12" t="s">
+      <c r="T29" s="11"/>
+      <c r="U29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="15" t="s">
+      <c r="V29" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -4028,7 +4474,7 @@
         <v>157</v>
       </c>
       <c r="C30" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="D30" s="103">
@@ -4043,48 +4489,60 @@
       <c r="G30" s="11">
         <v>1845</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="114">
         <f>'NDBC NSTP6 timeseries data'!I551</f>
         <v>1.92</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="28">
+        <f t="shared" si="0"/>
+        <v>0.58521599999999996</v>
+      </c>
+      <c r="J30" s="118">
         <f>'NDBC NSTP6 timeseries data'!I569</f>
         <v>1.21</v>
       </c>
-      <c r="J30" s="70">
-        <f t="shared" si="2"/>
+      <c r="K30" s="28">
+        <f t="shared" si="1"/>
+        <v>0.36880800000000002</v>
+      </c>
+      <c r="L30" s="70">
+        <f t="shared" si="5"/>
         <v>-0.71</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="M30" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.21640799999999993</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="28">
+      <c r="O30" s="28">
         <f>'NDBC NSTP6 timeseries data'!K570</f>
         <v>2</v>
       </c>
-      <c r="M30" s="27">
+      <c r="P30" s="27">
         <f>'NDBC NSTP6 timeseries data'!L570</f>
         <v>242.47368421052633</v>
       </c>
-      <c r="N30" s="11">
+      <c r="Q30" s="11">
         <f>'NDBC NSTP6 timeseries data'!M570</f>
         <v>10</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="R30" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="S30" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12" t="s">
+      <c r="T30" s="11"/>
+      <c r="U30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S30" s="15" t="s">
+      <c r="V30" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -4092,7 +4550,7 @@
         <v>157</v>
       </c>
       <c r="C31" s="98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D31" s="103">
@@ -4107,48 +4565,60 @@
       <c r="G31" s="11">
         <v>1210</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="114">
         <f>'NDBC NSTP6 timeseries data'!I572</f>
         <v>2.0099999999999998</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="28">
+        <f t="shared" si="0"/>
+        <v>0.61264799999999997</v>
+      </c>
+      <c r="J31" s="118">
         <f>'NDBC NSTP6 timeseries data'!I587</f>
         <v>2.9</v>
       </c>
-      <c r="J31" s="70">
-        <f t="shared" si="2"/>
+      <c r="K31" s="28">
+        <f t="shared" si="1"/>
+        <v>0.88392000000000004</v>
+      </c>
+      <c r="L31" s="70">
+        <f t="shared" si="5"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="M31" s="70">
+        <f t="shared" si="3"/>
+        <v>0.27127200000000007</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="28">
+      <c r="O31" s="28">
         <f>'NDBC NSTP6 timeseries data'!K588</f>
         <v>7.1875</v>
       </c>
-      <c r="M31" s="27">
+      <c r="P31" s="27">
         <f>'NDBC NSTP6 timeseries data'!L588</f>
         <v>304.1875</v>
       </c>
-      <c r="N31" s="11">
+      <c r="Q31" s="11">
         <f>'NDBC NSTP6 timeseries data'!M588</f>
         <v>15</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="R31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="S31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="12" t="s">
+      <c r="T31" s="1"/>
+      <c r="U31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S31" s="15" t="s">
+      <c r="V31" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -4156,7 +4626,7 @@
         <v>157</v>
       </c>
       <c r="C32" s="100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="D32" s="104">
@@ -4171,57 +4641,163 @@
       <c r="G32" s="91">
         <v>1255</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="116">
         <f>'NDBC NSTP6 timeseries data'!I590</f>
         <v>2.9</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="28">
+        <f t="shared" si="0"/>
+        <v>0.88392000000000004</v>
+      </c>
+      <c r="J32" s="120">
         <f>'NDBC NSTP6 timeseries data'!I599</f>
         <v>3.27</v>
       </c>
-      <c r="J32" s="92">
-        <f t="shared" si="2"/>
+      <c r="K32" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99669600000000003</v>
+      </c>
+      <c r="L32" s="92">
+        <f t="shared" si="5"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="K32" s="91" t="s">
+      <c r="M32" s="70">
+        <f t="shared" si="3"/>
+        <v>0.11277599999999999</v>
+      </c>
+      <c r="N32" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="93">
+      <c r="O32" s="93">
         <f>'NDBC NSTP6 timeseries data'!K600</f>
         <v>5.2857142857142856</v>
       </c>
-      <c r="M32" s="94">
+      <c r="P32" s="94">
         <f>'NDBC NSTP6 timeseries data'!L600</f>
         <v>260.28571428571428</v>
       </c>
-      <c r="N32" s="91">
+      <c r="Q32" s="91">
         <f>'NDBC NSTP6 timeseries data'!M600</f>
         <v>11</v>
       </c>
-      <c r="O32" s="95" t="s">
+      <c r="R32" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="P32" s="95" t="s">
+      <c r="S32" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="95" t="s">
+      <c r="T32" s="16"/>
+      <c r="U32" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="S32" s="96" t="s">
+      <c r="V32" s="96" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>162</v>
+      </c>
+      <c r="N33">
+        <f>COUNTIF(N3:N32,  "rising")</f>
+        <v>14</v>
+      </c>
+      <c r="O33">
+        <f>COUNT(C3:C32)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M34" t="s">
+        <v>163</v>
+      </c>
+      <c r="N34">
+        <f>COUNTIF(N3:N32,  "falling")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M35" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="22">
+        <f>COUNTIF(N11:N32,  "rising")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="124">
+        <f>COUNTIF(N11:N32,  "falling")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" s="22">
+        <f>COUNTIF(N17:N22,  "rising")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="N38" s="124">
+        <f>COUNTIF(N17:N22,  "falling")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M39" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="N39" s="22">
+        <f>COUNTIF(N11:N16,  "rising")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="N40" s="124">
+        <f>COUNTIF(N11:N16,  "falling")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M41" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="N41" s="22">
+        <f>COUNTIF(N23:N32,  "rising")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="N42" s="124">
+        <f>COUNTIF(N23:N32,  "falling")</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="N3:N16">
+  <conditionalFormatting sqref="Q3:Q16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1"/>
-    <hyperlink ref="L1:M1" r:id="rId2" display="NSTP6"/>
-    <hyperlink ref="N1" r:id="rId3" display="NSTP6"/>
+    <hyperlink ref="O1:P1" r:id="rId2" display="NSTP6"/>
+    <hyperlink ref="Q1" r:id="rId3" display="NSTP6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
@@ -4565,7 +5141,7 @@
         <v>113</v>
       </c>
       <c r="E14">
-        <f>COUNTIF(Table!K3:K32,"rising")</f>
+        <f>COUNTIF(Table!N3:N32,"rising")</f>
         <v>14</v>
       </c>
     </row>
@@ -4574,7 +5150,7 @@
         <v>114</v>
       </c>
       <c r="E15">
-        <f>COUNTIF(Table!K3:K32,"falling")</f>
+        <f>COUNTIF(Table!N3:N32,"falling")</f>
         <v>15</v>
       </c>
       <c r="I15" s="7" t="s">
@@ -4652,10 +5228,10 @@
   <dimension ref="A1:Y600"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,11 +5255,11 @@
       <c r="A1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -4724,7 +5300,9 @@
       <c r="Q2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="41"/>
+      <c r="R2" s="122" t="s">
+        <v>4</v>
+      </c>
       <c r="S2" s="41"/>
       <c r="T2" s="41"/>
       <c r="U2" s="41"/>
@@ -4783,7 +5361,9 @@
       <c r="Q3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="41"/>
+      <c r="R3" s="122" t="s">
+        <v>161</v>
+      </c>
       <c r="S3" s="41"/>
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
@@ -4831,6 +5411,9 @@
       <c r="N4">
         <v>1007.9</v>
       </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -5204,7 +5787,7 @@
         <v>1008.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -5235,7 +5818,7 @@
         <v>1008.6</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -5266,7 +5849,7 @@
         <v>1008.6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -5297,7 +5880,7 @@
         <v>1008.6</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -5328,7 +5911,7 @@
         <v>1008.6</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -5359,7 +5942,7 @@
         <v>1008.7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1</v>
       </c>
@@ -5390,7 +5973,7 @@
         <v>1008.8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -5421,7 +6004,7 @@
         <v>1008.8</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1</v>
       </c>
@@ -5451,7 +6034,7 @@
         <v>1008.9</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1</v>
       </c>
@@ -5475,7 +6058,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -5527,8 +6110,11 @@
       <c r="Q27" s="29">
         <v>-99.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -5572,7 +6158,7 @@
         <v>-99.9</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2</v>
       </c>
@@ -5616,7 +6202,7 @@
         <v>-99.9</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2</v>
       </c>
@@ -5660,7 +6246,7 @@
         <v>-99.9</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -5704,7 +6290,7 @@
         <v>-99.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -28551,13 +29137,13 @@
       <c r="A1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">

--- a/Data/Drifter deployment checklist.xlsx
+++ b/Data/Drifter deployment checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Faga-alu-Bay-water-circulation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atm19\Documents\GitHub\Faga-alu-Bay-water-circulation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,10 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="2" r:id="rId1"/>
-    <sheet name="EndmemberDefn" sheetId="6" r:id="rId2"/>
-    <sheet name="Matrix" sheetId="1" r:id="rId3"/>
-    <sheet name="NDBC NSTP6 timeseries data" sheetId="5" r:id="rId4"/>
-    <sheet name="NDBC NSTP6 data UTC no water le" sheetId="3" r:id="rId5"/>
+    <sheet name="Table (2)" sheetId="7" r:id="rId2"/>
+    <sheet name="EndmemberDefn" sheetId="6" r:id="rId3"/>
+    <sheet name="Matrix" sheetId="1" r:id="rId4"/>
+    <sheet name="NDBC NSTP6 timeseries data" sheetId="5" r:id="rId5"/>
+    <sheet name="NDBC NSTP6 data UTC no water le" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="172">
   <si>
     <t>Swell</t>
   </si>
@@ -1429,16 +1430,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2271,10 +2282,10 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23:I32"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4694,6 +4705,2482 @@
         <v>10</v>
       </c>
     </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+    </row>
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="Q3:Q16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1"/>
+    <hyperlink ref="O1:P1" r:id="rId2" display="NSTP6"/>
+    <hyperlink ref="Q1" r:id="rId3" display="NSTP6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33:N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="121" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="121" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="97">
+        <v>1</v>
+      </c>
+      <c r="D3" s="103">
+        <v>19</v>
+      </c>
+      <c r="E3" s="84">
+        <v>41658</v>
+      </c>
+      <c r="F3" s="73">
+        <v>1300</v>
+      </c>
+      <c r="G3" s="73">
+        <v>1500</v>
+      </c>
+      <c r="H3" s="113">
+        <f>'NDBC NSTP6 timeseries data'!I4</f>
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="I3" s="28">
+        <f>H3 *0.3048</f>
+        <v>0.46908719999999998</v>
+      </c>
+      <c r="J3" s="117">
+        <f>'NDBC NSTP6 timeseries data'!I24</f>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K3" s="28">
+        <f>J3*0.3048</f>
+        <v>0.29687520000000001</v>
+      </c>
+      <c r="L3" s="47">
+        <f>J3-H3</f>
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="M3" s="70">
+        <f>K3 - I3</f>
+        <v>-0.17221199999999998</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="48">
+        <f>'NDBC NSTP6 timeseries data'!K25</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="P3" s="49">
+        <f>'NDBC NSTP6 timeseries data'!L25</f>
+        <v>232.5</v>
+      </c>
+      <c r="Q3" s="48">
+        <f>'NDBC NSTP6 timeseries data'!M25</f>
+        <v>3.6</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="112" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="98">
+        <f>C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="103">
+        <v>20</v>
+      </c>
+      <c r="E4" s="85">
+        <v>41659</v>
+      </c>
+      <c r="F4" s="72">
+        <v>1615</v>
+      </c>
+      <c r="G4" s="72">
+        <v>1730</v>
+      </c>
+      <c r="H4" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I27</f>
+        <v>1.03</v>
+      </c>
+      <c r="I4" s="28">
+        <f t="shared" ref="I4:I32" si="0">H4 *0.3048</f>
+        <v>0.313944</v>
+      </c>
+      <c r="J4" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I42</f>
+        <v>1.23</v>
+      </c>
+      <c r="K4" s="28">
+        <f t="shared" ref="K4:K32" si="1">J4*0.3048</f>
+        <v>0.37490400000000002</v>
+      </c>
+      <c r="L4" s="32">
+        <f>J4-H4</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M4" s="70">
+        <f>K4 - I4</f>
+        <v>6.0960000000000014E-2</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K43</f>
+        <v>2.375</v>
+      </c>
+      <c r="P4" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L43</f>
+        <v>193.6875</v>
+      </c>
+      <c r="Q4" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M43</f>
+        <v>7</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="T4" s="109"/>
+      <c r="U4" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="98">
+        <f>C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="103">
+        <v>20</v>
+      </c>
+      <c r="E5" s="85">
+        <v>41659</v>
+      </c>
+      <c r="F5" s="72">
+        <v>1750</v>
+      </c>
+      <c r="G5" s="72">
+        <v>1900</v>
+      </c>
+      <c r="H5" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I45</f>
+        <v>1.23</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" si="0"/>
+        <v>0.37490400000000002</v>
+      </c>
+      <c r="J5" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I60</f>
+        <v>1.94</v>
+      </c>
+      <c r="K5" s="28">
+        <f t="shared" si="1"/>
+        <v>0.59131200000000006</v>
+      </c>
+      <c r="L5" s="32">
+        <f t="shared" ref="L5" si="2">J5-H5</f>
+        <v>0.71</v>
+      </c>
+      <c r="M5" s="70">
+        <f t="shared" ref="M5:M32" si="3">K5 - I5</f>
+        <v>0.21640800000000004</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K61</f>
+        <v>3.25</v>
+      </c>
+      <c r="P5" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L61</f>
+        <v>258.375</v>
+      </c>
+      <c r="Q5" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M61</f>
+        <v>10</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="T5" s="109"/>
+      <c r="U5" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="98">
+        <f t="shared" ref="C6:C32" si="4">C5+1</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="103">
+        <v>32</v>
+      </c>
+      <c r="E6" s="85">
+        <v>41671</v>
+      </c>
+      <c r="F6" s="72">
+        <v>900</v>
+      </c>
+      <c r="G6" s="72">
+        <v>1100</v>
+      </c>
+      <c r="H6" s="114">
+        <v>3.7429999999999999</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1408663999999999</v>
+      </c>
+      <c r="J6" s="118">
+        <v>2.58</v>
+      </c>
+      <c r="K6" s="28">
+        <f t="shared" si="1"/>
+        <v>0.78638400000000008</v>
+      </c>
+      <c r="L6" s="70">
+        <f>J6-H6</f>
+        <v>-1.1629999999999998</v>
+      </c>
+      <c r="M6" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.35448239999999986</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K84</f>
+        <v>5.2725</v>
+      </c>
+      <c r="P6" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L84</f>
+        <v>96.1875</v>
+      </c>
+      <c r="Q6" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M84</f>
+        <v>11.08</v>
+      </c>
+      <c r="R6" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" s="109"/>
+      <c r="U6" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="98">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="103">
+        <v>32</v>
+      </c>
+      <c r="E7" s="85">
+        <v>41671</v>
+      </c>
+      <c r="F7" s="72">
+        <v>1130</v>
+      </c>
+      <c r="G7" s="72">
+        <v>1300</v>
+      </c>
+      <c r="H7" s="114">
+        <v>2.2280000000000002</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.6790944000000001</v>
+      </c>
+      <c r="J7" s="118">
+        <v>0.879</v>
+      </c>
+      <c r="K7" s="28">
+        <f t="shared" si="1"/>
+        <v>0.26791920000000002</v>
+      </c>
+      <c r="L7" s="70">
+        <f>J7-H7</f>
+        <v>-1.3490000000000002</v>
+      </c>
+      <c r="M7" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.41117520000000007</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K102</f>
+        <v>5.6875</v>
+      </c>
+      <c r="P7" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L102</f>
+        <v>100.25</v>
+      </c>
+      <c r="Q7" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M102</f>
+        <v>13</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="T7" s="109"/>
+      <c r="U7" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="98">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="103">
+        <v>32</v>
+      </c>
+      <c r="E8" s="85">
+        <v>41671</v>
+      </c>
+      <c r="F8" s="72">
+        <v>1700</v>
+      </c>
+      <c r="G8" s="72">
+        <v>1900</v>
+      </c>
+      <c r="H8" s="114">
+        <v>1.512</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.46085760000000003</v>
+      </c>
+      <c r="J8" s="118">
+        <v>3.222</v>
+      </c>
+      <c r="K8" s="28">
+        <f t="shared" si="1"/>
+        <v>0.98206560000000009</v>
+      </c>
+      <c r="L8" s="32">
+        <f t="shared" ref="L8:L32" si="5">J8-H8</f>
+        <v>1.71</v>
+      </c>
+      <c r="M8" s="70">
+        <f t="shared" si="3"/>
+        <v>0.52120800000000012</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K125</f>
+        <v>4.2380952380952381</v>
+      </c>
+      <c r="P8" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L125</f>
+        <v>187.95238095238096</v>
+      </c>
+      <c r="Q8" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M125</f>
+        <v>13</v>
+      </c>
+      <c r="R8" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="T8" s="109"/>
+      <c r="U8" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="98">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="103">
+        <v>39</v>
+      </c>
+      <c r="E9" s="85">
+        <v>41678</v>
+      </c>
+      <c r="F9" s="72">
+        <v>1415</v>
+      </c>
+      <c r="G9" s="72">
+        <v>1545</v>
+      </c>
+      <c r="H9" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I127</f>
+        <v>3.1</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.94488000000000005</v>
+      </c>
+      <c r="J9" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I143</f>
+        <v>3.45</v>
+      </c>
+      <c r="K9" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0515600000000001</v>
+      </c>
+      <c r="L9" s="32">
+        <f t="shared" si="5"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="M9" s="70">
+        <f t="shared" si="3"/>
+        <v>0.10668</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K144</f>
+        <v>5.2352941176470589</v>
+      </c>
+      <c r="P9" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L144</f>
+        <v>140.41176470588235</v>
+      </c>
+      <c r="Q9" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M144</f>
+        <v>18</v>
+      </c>
+      <c r="R9" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T9" s="109"/>
+      <c r="U9" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" s="88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="98">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="103">
+        <v>39</v>
+      </c>
+      <c r="E10" s="85">
+        <v>41678</v>
+      </c>
+      <c r="F10" s="72">
+        <v>1605</v>
+      </c>
+      <c r="G10" s="72">
+        <v>1800</v>
+      </c>
+      <c r="H10" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I146</f>
+        <v>3.33</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0149840000000001</v>
+      </c>
+      <c r="J10" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I167</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="K10" s="28">
+        <f t="shared" si="1"/>
+        <v>0.77114399999999994</v>
+      </c>
+      <c r="L10" s="70">
+        <f t="shared" si="5"/>
+        <v>-0.80000000000000027</v>
+      </c>
+      <c r="M10" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.24384000000000017</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K168</f>
+        <v>6.0454545454545459</v>
+      </c>
+      <c r="P10" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L168</f>
+        <v>144.13636363636363</v>
+      </c>
+      <c r="Q10" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M168</f>
+        <v>20</v>
+      </c>
+      <c r="R10" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T10" s="109"/>
+      <c r="U10" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="98">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="103">
+        <v>47</v>
+      </c>
+      <c r="E11" s="85">
+        <v>41686</v>
+      </c>
+      <c r="F11" s="72">
+        <v>1654</v>
+      </c>
+      <c r="G11" s="72">
+        <v>1846</v>
+      </c>
+      <c r="H11" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I170</f>
+        <v>2.39</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="0"/>
+        <v>0.72847200000000012</v>
+      </c>
+      <c r="J11" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I189</f>
+        <v>3.25</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="L11" s="32">
+        <f t="shared" si="5"/>
+        <v>0.85999999999999988</v>
+      </c>
+      <c r="M11" s="70">
+        <f t="shared" si="3"/>
+        <v>0.26212799999999992</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K190</f>
+        <v>3.25</v>
+      </c>
+      <c r="P11" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L190</f>
+        <v>168.8</v>
+      </c>
+      <c r="Q11" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M190</f>
+        <v>9</v>
+      </c>
+      <c r="R11" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" s="109"/>
+      <c r="U11" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="98">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="103">
+        <v>48</v>
+      </c>
+      <c r="E12" s="85">
+        <v>41687</v>
+      </c>
+      <c r="F12" s="72">
+        <v>1245</v>
+      </c>
+      <c r="G12" s="72">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I192</f>
+        <v>1.62</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.49377600000000005</v>
+      </c>
+      <c r="J12" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I215</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="1"/>
+        <v>0.33832800000000007</v>
+      </c>
+      <c r="L12" s="70">
+        <f t="shared" si="5"/>
+        <v>-0.51</v>
+      </c>
+      <c r="M12" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.15544799999999998</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K216</f>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="P12" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L216</f>
+        <v>79.958333333333329</v>
+      </c>
+      <c r="Q12" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M216</f>
+        <v>28</v>
+      </c>
+      <c r="R12" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T12" s="109"/>
+      <c r="U12" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W12" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="98">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="103">
+        <v>48</v>
+      </c>
+      <c r="E13" s="85">
+        <v>41687</v>
+      </c>
+      <c r="F13" s="72">
+        <v>1530</v>
+      </c>
+      <c r="G13" s="72">
+        <v>1700</v>
+      </c>
+      <c r="H13" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I218</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.347472</v>
+      </c>
+      <c r="J13" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I236</f>
+        <v>1.59</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.48463200000000006</v>
+      </c>
+      <c r="L13" s="32">
+        <f t="shared" si="5"/>
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="M13" s="70">
+        <f t="shared" si="3"/>
+        <v>0.13716000000000006</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K237</f>
+        <v>5.8947368421052628</v>
+      </c>
+      <c r="P13" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L237</f>
+        <v>101.36842105263158</v>
+      </c>
+      <c r="Q13" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M237</f>
+        <v>20</v>
+      </c>
+      <c r="R13" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T13" s="109"/>
+      <c r="U13" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="98">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="103">
+        <v>48</v>
+      </c>
+      <c r="E14" s="85">
+        <v>41687</v>
+      </c>
+      <c r="F14" s="72">
+        <v>1710</v>
+      </c>
+      <c r="G14" s="72">
+        <v>1840</v>
+      </c>
+      <c r="H14" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I239</f>
+        <v>1.62</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.49377600000000005</v>
+      </c>
+      <c r="J14" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I256</f>
+        <v>2.56</v>
+      </c>
+      <c r="K14" s="28">
+        <f t="shared" si="1"/>
+        <v>0.78028800000000009</v>
+      </c>
+      <c r="L14" s="32">
+        <f t="shared" si="5"/>
+        <v>0.94</v>
+      </c>
+      <c r="M14" s="70">
+        <f t="shared" si="3"/>
+        <v>0.28651200000000004</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K257</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="P14" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L257</f>
+        <v>89.888888888888886</v>
+      </c>
+      <c r="Q14" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M257</f>
+        <v>15</v>
+      </c>
+      <c r="R14" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T14" s="109"/>
+      <c r="U14" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="98">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="103">
+        <v>49</v>
+      </c>
+      <c r="E15" s="85">
+        <v>41688</v>
+      </c>
+      <c r="F15" s="72">
+        <v>1245</v>
+      </c>
+      <c r="G15" s="72">
+        <v>1445</v>
+      </c>
+      <c r="H15" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I259</f>
+        <v>2.09</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.63703200000000004</v>
+      </c>
+      <c r="J15" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I280</f>
+        <v>1.26</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="1"/>
+        <v>0.384048</v>
+      </c>
+      <c r="L15" s="70">
+        <f t="shared" si="5"/>
+        <v>-0.82999999999999985</v>
+      </c>
+      <c r="M15" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.25298400000000004</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K281</f>
+        <v>4.9090909090909092</v>
+      </c>
+      <c r="P15" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L281</f>
+        <v>97.727272727272734</v>
+      </c>
+      <c r="Q15" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M281</f>
+        <v>14</v>
+      </c>
+      <c r="R15" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T15" s="109"/>
+      <c r="U15" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="99">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="103">
+        <v>49</v>
+      </c>
+      <c r="E16" s="86">
+        <v>41688</v>
+      </c>
+      <c r="F16" s="76">
+        <v>1445</v>
+      </c>
+      <c r="G16" s="76">
+        <v>1700</v>
+      </c>
+      <c r="H16" s="115">
+        <f>'NDBC NSTP6 timeseries data'!I283</f>
+        <v>1.3</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.39624000000000004</v>
+      </c>
+      <c r="J16" s="119">
+        <f>'NDBC NSTP6 timeseries data'!I306</f>
+        <v>1.37</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="1"/>
+        <v>0.41757600000000006</v>
+      </c>
+      <c r="L16" s="78">
+        <f t="shared" si="5"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="M16" s="70">
+        <f t="shared" si="3"/>
+        <v>2.1336000000000022E-2</v>
+      </c>
+      <c r="N16" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="79">
+        <f>'NDBC NSTP6 timeseries data'!K307</f>
+        <v>4.708333333333333</v>
+      </c>
+      <c r="P16" s="80">
+        <f>'NDBC NSTP6 timeseries data'!L307</f>
+        <v>194.41666666666666</v>
+      </c>
+      <c r="Q16" s="79">
+        <f>'NDBC NSTP6 timeseries data'!M307</f>
+        <v>15</v>
+      </c>
+      <c r="R16" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" s="110"/>
+      <c r="U16" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="98">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D17" s="103">
+        <v>50</v>
+      </c>
+      <c r="E17" s="85">
+        <v>41689</v>
+      </c>
+      <c r="F17" s="72">
+        <v>1205</v>
+      </c>
+      <c r="G17" s="72">
+        <v>1440</v>
+      </c>
+      <c r="H17" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I309</f>
+        <v>2.8809999999999998</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.87812879999999993</v>
+      </c>
+      <c r="J17" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I336</f>
+        <v>1.516</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="1"/>
+        <v>0.46207680000000001</v>
+      </c>
+      <c r="L17" s="90">
+        <f t="shared" si="5"/>
+        <v>-1.3649999999999998</v>
+      </c>
+      <c r="M17" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.41605199999999992</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K337</f>
+        <v>5.7757142857142858</v>
+      </c>
+      <c r="P17" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L337</f>
+        <v>39.857142857142854</v>
+      </c>
+      <c r="Q17" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M337</f>
+        <v>11.47</v>
+      </c>
+      <c r="R17" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T17" s="109"/>
+      <c r="U17" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="V17" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="98">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D18" s="103">
+        <v>50</v>
+      </c>
+      <c r="E18" s="85">
+        <v>41689</v>
+      </c>
+      <c r="F18" s="72">
+        <v>1445</v>
+      </c>
+      <c r="G18" s="72">
+        <v>1720</v>
+      </c>
+      <c r="H18" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I339</f>
+        <v>1.516</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="0"/>
+        <v>0.46207680000000001</v>
+      </c>
+      <c r="J18" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I365</f>
+        <v>1.24</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" si="1"/>
+        <v>0.37795200000000001</v>
+      </c>
+      <c r="L18" s="90">
+        <f t="shared" si="5"/>
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="M18" s="70">
+        <f t="shared" si="3"/>
+        <v>-8.41248E-2</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K366</f>
+        <v>6.565555555555556</v>
+      </c>
+      <c r="P18" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L366</f>
+        <v>54.407407407407405</v>
+      </c>
+      <c r="Q18" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M366</f>
+        <v>14.77</v>
+      </c>
+      <c r="R18" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T18" s="109"/>
+      <c r="U18" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="98">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D19" s="103">
+        <v>51</v>
+      </c>
+      <c r="E19" s="85">
+        <v>41690</v>
+      </c>
+      <c r="F19" s="72">
+        <v>840</v>
+      </c>
+      <c r="G19" s="72">
+        <v>1045</v>
+      </c>
+      <c r="H19" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I368</f>
+        <v>2.52</v>
+      </c>
+      <c r="I19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.768096</v>
+      </c>
+      <c r="J19" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I389</f>
+        <v>3.15</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="1"/>
+        <v>0.96011999999999997</v>
+      </c>
+      <c r="L19" s="78">
+        <f t="shared" si="5"/>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="M19" s="70">
+        <f t="shared" si="3"/>
+        <v>0.19202399999999997</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K390</f>
+        <v>4.8181818181818183</v>
+      </c>
+      <c r="P19" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L390</f>
+        <v>290.22727272727275</v>
+      </c>
+      <c r="Q19" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M390</f>
+        <v>13</v>
+      </c>
+      <c r="R19" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T19" s="109"/>
+      <c r="U19" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="98">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="103">
+        <v>51</v>
+      </c>
+      <c r="E20" s="85">
+        <v>41690</v>
+      </c>
+      <c r="F20" s="72">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="72">
+        <v>1200</v>
+      </c>
+      <c r="H20" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I392</f>
+        <v>3.2</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.97536000000000012</v>
+      </c>
+      <c r="J20" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I402</f>
+        <v>3.05</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="1"/>
+        <v>0.92964000000000002</v>
+      </c>
+      <c r="L20" s="90">
+        <f t="shared" si="5"/>
+        <v>-0.15000000000000036</v>
+      </c>
+      <c r="M20" s="70">
+        <f t="shared" si="3"/>
+        <v>-4.5720000000000094E-2</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K403</f>
+        <v>4.2727272727272725</v>
+      </c>
+      <c r="P20" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L403</f>
+        <v>117.18181818181819</v>
+      </c>
+      <c r="Q20" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M403</f>
+        <v>11</v>
+      </c>
+      <c r="R20" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T20" s="109"/>
+      <c r="U20" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="98">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="103">
+        <v>51</v>
+      </c>
+      <c r="E21" s="85">
+        <v>41690</v>
+      </c>
+      <c r="F21" s="72">
+        <v>1210</v>
+      </c>
+      <c r="G21" s="72">
+        <v>1430</v>
+      </c>
+      <c r="H21" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I405</f>
+        <v>3.02</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="0"/>
+        <v>0.92049600000000009</v>
+      </c>
+      <c r="J21" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I429</f>
+        <v>2.06</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="1"/>
+        <v>0.627888</v>
+      </c>
+      <c r="L21" s="90">
+        <f t="shared" si="5"/>
+        <v>-0.96</v>
+      </c>
+      <c r="M21" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.29260800000000009</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K430</f>
+        <v>2.96</v>
+      </c>
+      <c r="P21" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L430</f>
+        <v>237.8</v>
+      </c>
+      <c r="Q21" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M430</f>
+        <v>12</v>
+      </c>
+      <c r="R21" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T21" s="109"/>
+      <c r="U21" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="98">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D22" s="103">
+        <v>51</v>
+      </c>
+      <c r="E22" s="85">
+        <v>41690</v>
+      </c>
+      <c r="F22" s="72">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="72">
+        <v>1630</v>
+      </c>
+      <c r="H22" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I432</f>
+        <v>1.85</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" si="0"/>
+        <v>0.56388000000000005</v>
+      </c>
+      <c r="J22" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I447</f>
+        <v>1.29</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="1"/>
+        <v>0.39319200000000004</v>
+      </c>
+      <c r="L22" s="90">
+        <f t="shared" si="5"/>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="M22" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.17068800000000001</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K448</f>
+        <v>5.9375</v>
+      </c>
+      <c r="P22" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L448</f>
+        <v>290</v>
+      </c>
+      <c r="Q22" s="28">
+        <f>'NDBC NSTP6 timeseries data'!M448</f>
+        <v>13</v>
+      </c>
+      <c r="R22" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T22" s="109"/>
+      <c r="U22" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="98">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="103">
+        <v>52</v>
+      </c>
+      <c r="E23" s="85">
+        <v>41691</v>
+      </c>
+      <c r="F23" s="11">
+        <v>920</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1040</v>
+      </c>
+      <c r="H23" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I450</f>
+        <v>2.37</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.72237600000000002</v>
+      </c>
+      <c r="J23" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I464</f>
+        <v>2.97</v>
+      </c>
+      <c r="K23" s="28">
+        <f t="shared" si="1"/>
+        <v>0.90525600000000006</v>
+      </c>
+      <c r="L23" s="78">
+        <f t="shared" si="5"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M23" s="70">
+        <f t="shared" si="3"/>
+        <v>0.18288000000000004</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K465</f>
+        <v>2.8666666666666667</v>
+      </c>
+      <c r="P23" s="11">
+        <f>'NDBC NSTP6 timeseries data'!L465</f>
+        <v>253</v>
+      </c>
+      <c r="Q23" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M465</f>
+        <v>11</v>
+      </c>
+      <c r="R23" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T23" s="111"/>
+      <c r="U23" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="V23" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="98">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="D24" s="103">
+        <v>52</v>
+      </c>
+      <c r="E24" s="85">
+        <v>41691</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1040</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1145</v>
+      </c>
+      <c r="H24" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I467</f>
+        <v>3.01</v>
+      </c>
+      <c r="I24" s="28">
+        <f t="shared" si="0"/>
+        <v>0.91744799999999993</v>
+      </c>
+      <c r="J24" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I479</f>
+        <v>3.29</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0027920000000001</v>
+      </c>
+      <c r="L24" s="78">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="M24" s="70">
+        <f t="shared" si="3"/>
+        <v>8.5344000000000197E-2</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K480</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="P24" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L480</f>
+        <v>111.15384615384616</v>
+      </c>
+      <c r="Q24" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M480</f>
+        <v>11</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T24" s="12"/>
+      <c r="U24" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="V24" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="99">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="103">
+        <v>52</v>
+      </c>
+      <c r="E25" s="86">
+        <v>41691</v>
+      </c>
+      <c r="F25" s="77">
+        <v>1300</v>
+      </c>
+      <c r="G25" s="77">
+        <v>1400</v>
+      </c>
+      <c r="H25" s="115">
+        <f>'NDBC NSTP6 timeseries data'!I482</f>
+        <v>3.24</v>
+      </c>
+      <c r="I25" s="28">
+        <f t="shared" si="0"/>
+        <v>0.9875520000000001</v>
+      </c>
+      <c r="J25" s="119">
+        <f>'NDBC NSTP6 timeseries data'!I492</f>
+        <v>2.97</v>
+      </c>
+      <c r="K25" s="28">
+        <f t="shared" si="1"/>
+        <v>0.90525600000000006</v>
+      </c>
+      <c r="L25" s="90">
+        <f t="shared" si="5"/>
+        <v>-0.27</v>
+      </c>
+      <c r="M25" s="70">
+        <f t="shared" si="3"/>
+        <v>-8.2296000000000036E-2</v>
+      </c>
+      <c r="N25" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="79">
+        <f>'NDBC NSTP6 timeseries data'!K493</f>
+        <v>3</v>
+      </c>
+      <c r="P25" s="80">
+        <f>'NDBC NSTP6 timeseries data'!L493</f>
+        <v>193.45454545454547</v>
+      </c>
+      <c r="Q25" s="77">
+        <f>'NDBC NSTP6 timeseries data'!M493</f>
+        <v>16</v>
+      </c>
+      <c r="R25" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T25" s="81"/>
+      <c r="U25" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="98">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="103">
+        <v>52</v>
+      </c>
+      <c r="E26" s="85">
+        <v>41691</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1550</v>
+      </c>
+      <c r="H26" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I495</f>
+        <v>2.39</v>
+      </c>
+      <c r="I26" s="28">
+        <f t="shared" si="0"/>
+        <v>0.72847200000000012</v>
+      </c>
+      <c r="J26" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I505</f>
+        <v>1.86</v>
+      </c>
+      <c r="K26" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5669280000000001</v>
+      </c>
+      <c r="L26" s="70">
+        <f t="shared" si="5"/>
+        <v>-0.53</v>
+      </c>
+      <c r="M26" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.16154400000000002</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K506</f>
+        <v>3.7272727272727271</v>
+      </c>
+      <c r="P26" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L506</f>
+        <v>152.27272727272728</v>
+      </c>
+      <c r="Q26" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M506</f>
+        <v>11</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="98">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D27" s="103">
+        <v>53</v>
+      </c>
+      <c r="E27" s="85">
+        <v>41692</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1100</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1215</v>
+      </c>
+      <c r="H27" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I508</f>
+        <v>2.71</v>
+      </c>
+      <c r="I27" s="28">
+        <f t="shared" si="0"/>
+        <v>0.82600800000000008</v>
+      </c>
+      <c r="J27" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I521</f>
+        <v>3.17</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="1"/>
+        <v>0.96621600000000007</v>
+      </c>
+      <c r="L27" s="32">
+        <f t="shared" si="5"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="M27" s="70">
+        <f t="shared" si="3"/>
+        <v>0.140208</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="11">
+        <f>'NDBC NSTP6 timeseries data'!K522</f>
+        <v>5.5</v>
+      </c>
+      <c r="P27" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L522</f>
+        <v>313.85714285714283</v>
+      </c>
+      <c r="Q27" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M522</f>
+        <v>14</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="98">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="D28" s="103">
+        <v>53</v>
+      </c>
+      <c r="E28" s="85">
+        <v>41692</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1220</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1315</v>
+      </c>
+      <c r="H28" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I524</f>
+        <v>3.19</v>
+      </c>
+      <c r="I28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.97231200000000007</v>
+      </c>
+      <c r="J28" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I535</f>
+        <v>3.37</v>
+      </c>
+      <c r="K28" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0271760000000001</v>
+      </c>
+      <c r="L28" s="32">
+        <f t="shared" si="5"/>
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="M28" s="70">
+        <f t="shared" si="3"/>
+        <v>5.4864000000000024E-2</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K536</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="P28" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L536</f>
+        <v>301.5</v>
+      </c>
+      <c r="Q28" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M536</f>
+        <v>12</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="98">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="D29" s="103">
+        <v>53</v>
+      </c>
+      <c r="E29" s="85">
+        <v>41692</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1600</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1700</v>
+      </c>
+      <c r="H29" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I538</f>
+        <v>2.44</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" si="0"/>
+        <v>0.74371200000000004</v>
+      </c>
+      <c r="J29" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I548</f>
+        <v>1.92</v>
+      </c>
+      <c r="K29" s="28">
+        <f t="shared" si="1"/>
+        <v>0.58521599999999996</v>
+      </c>
+      <c r="L29" s="70">
+        <f t="shared" si="5"/>
+        <v>-0.52</v>
+      </c>
+      <c r="M29" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.15849600000000008</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K549</f>
+        <v>4.1818181818181817</v>
+      </c>
+      <c r="P29" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L549</f>
+        <v>310.90909090909093</v>
+      </c>
+      <c r="Q29" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M549</f>
+        <v>10</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="U29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="98">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="D30" s="103">
+        <v>53</v>
+      </c>
+      <c r="E30" s="85">
+        <v>41692</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1700</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1845</v>
+      </c>
+      <c r="H30" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I551</f>
+        <v>1.92</v>
+      </c>
+      <c r="I30" s="28">
+        <f t="shared" si="0"/>
+        <v>0.58521599999999996</v>
+      </c>
+      <c r="J30" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I569</f>
+        <v>1.21</v>
+      </c>
+      <c r="K30" s="28">
+        <f t="shared" si="1"/>
+        <v>0.36880800000000002</v>
+      </c>
+      <c r="L30" s="70">
+        <f t="shared" si="5"/>
+        <v>-0.71</v>
+      </c>
+      <c r="M30" s="70">
+        <f t="shared" si="3"/>
+        <v>-0.21640799999999993</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K570</f>
+        <v>2</v>
+      </c>
+      <c r="P30" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L570</f>
+        <v>242.47368421052633</v>
+      </c>
+      <c r="Q30" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M570</f>
+        <v>10</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="T30" s="11"/>
+      <c r="U30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V30" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="98">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="D31" s="103">
+        <v>54</v>
+      </c>
+      <c r="E31" s="85">
+        <v>41693</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1040</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1210</v>
+      </c>
+      <c r="H31" s="114">
+        <f>'NDBC NSTP6 timeseries data'!I572</f>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I31" s="28">
+        <f t="shared" si="0"/>
+        <v>0.61264799999999997</v>
+      </c>
+      <c r="J31" s="118">
+        <f>'NDBC NSTP6 timeseries data'!I587</f>
+        <v>2.9</v>
+      </c>
+      <c r="K31" s="28">
+        <f t="shared" si="1"/>
+        <v>0.88392000000000004</v>
+      </c>
+      <c r="L31" s="70">
+        <f t="shared" si="5"/>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="M31" s="70">
+        <f t="shared" si="3"/>
+        <v>0.27127200000000007</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="28">
+        <f>'NDBC NSTP6 timeseries data'!K588</f>
+        <v>7.1875</v>
+      </c>
+      <c r="P31" s="27">
+        <f>'NDBC NSTP6 timeseries data'!L588</f>
+        <v>304.1875</v>
+      </c>
+      <c r="Q31" s="11">
+        <f>'NDBC NSTP6 timeseries data'!M588</f>
+        <v>15</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V31" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="100">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="D32" s="104">
+        <v>54</v>
+      </c>
+      <c r="E32" s="101">
+        <v>41693</v>
+      </c>
+      <c r="F32" s="91">
+        <v>1210</v>
+      </c>
+      <c r="G32" s="91">
+        <v>1255</v>
+      </c>
+      <c r="H32" s="116">
+        <f>'NDBC NSTP6 timeseries data'!I590</f>
+        <v>2.9</v>
+      </c>
+      <c r="I32" s="28">
+        <f t="shared" si="0"/>
+        <v>0.88392000000000004</v>
+      </c>
+      <c r="J32" s="120">
+        <f>'NDBC NSTP6 timeseries data'!I599</f>
+        <v>3.27</v>
+      </c>
+      <c r="K32" s="28">
+        <f t="shared" si="1"/>
+        <v>0.99669600000000003</v>
+      </c>
+      <c r="L32" s="92">
+        <f t="shared" si="5"/>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="M32" s="70">
+        <f t="shared" si="3"/>
+        <v>0.11277599999999999</v>
+      </c>
+      <c r="N32" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="93">
+        <f>'NDBC NSTP6 timeseries data'!K600</f>
+        <v>5.2857142857142856</v>
+      </c>
+      <c r="P32" s="94">
+        <f>'NDBC NSTP6 timeseries data'!L600</f>
+        <v>260.28571428571428</v>
+      </c>
+      <c r="Q32" s="91">
+        <f>'NDBC NSTP6 timeseries data'!M600</f>
+        <v>11</v>
+      </c>
+      <c r="R32" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="S32" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="T32" s="16"/>
+      <c r="U32" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="V32" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="33" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M33" t="s">
         <v>162</v>
@@ -4729,7 +7216,7 @@
       <c r="M36" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="N36" s="124">
+      <c r="N36" s="123">
         <f>COUNTIF(N11:N32,  "falling")</f>
         <v>11</v>
       </c>
@@ -4747,7 +7234,7 @@
       <c r="M38" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="N38" s="124">
+      <c r="N38" s="123">
         <f>COUNTIF(N17:N22,  "falling")</f>
         <v>5</v>
       </c>
@@ -4765,7 +7252,7 @@
       <c r="M40" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="N40" s="124">
+      <c r="N40" s="123">
         <f>COUNTIF(N11:N16,  "falling")</f>
         <v>2</v>
       </c>
@@ -4783,7 +7270,7 @@
       <c r="M42" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="N42" s="124">
+      <c r="N42" s="123">
         <f>COUNTIF(N23:N32,  "falling")</f>
         <v>4</v>
       </c>
@@ -4804,7 +7291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -4879,7 +7366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
@@ -5223,7 +7710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y600"/>
   <sheetViews>
@@ -5255,11 +7742,11 @@
       <c r="A1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -29106,7 +31593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
@@ -29137,13 +31624,13 @@
       <c r="A1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
